--- a/data/hM_trial.xlsx
+++ b/data/hM_trial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinschuman/Documents/github/MaterialExergyPaper/MaterialExergyPaper2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B7C068-2450-1D4E-8A6E-B3C7014F7477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB9DB150-2F79-3645-B66C-8572CB7889F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2820" windowWidth="39400" windowHeight="23140" activeTab="2" xr2:uid="{60ED9AA8-3852-9842-B346-E2FD5CB3AA75}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="97">
   <si>
     <t>Iron ore extraction</t>
   </si>
@@ -1517,8 +1517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61AE18B6-B8F5-6345-9BBC-83B29165D6F4}">
   <dimension ref="A1:BM84"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55:C58"/>
+    <sheetView topLeftCell="AK1" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7630,7 +7630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06264013-ABCC-9745-870A-4E82469D68A7}">
   <dimension ref="B1:BX231"/>
   <sheetViews>
-    <sheetView topLeftCell="AG103" workbookViewId="0">
+    <sheetView topLeftCell="M109" workbookViewId="0">
       <selection activeCell="AP110" sqref="AP110:AP115"/>
     </sheetView>
   </sheetViews>
@@ -18441,20 +18441,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817C05AA-D3A9-6049-AB59-84B5F03A5DC4}">
-  <dimension ref="A1:BM153"/>
+  <dimension ref="A1:BN154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="O118" sqref="O118"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="S87" sqref="S87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:66" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:65" ht="112" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:66" ht="112" x14ac:dyDescent="0.2">
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -18494,64 +18494,67 @@
       <c r="AM4" s="1"/>
       <c r="AN4" s="1"/>
       <c r="AO4" s="1"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="2"/>
       <c r="AR4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="AS4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="AS4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AT4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AU4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AV4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AW4" s="3" t="s">
+      <c r="AX4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AX4" s="3" t="s">
+      <c r="AY4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AY4" s="3" t="s">
+      <c r="AZ4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AZ4" s="3" t="s">
+      <c r="BA4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BB4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="BB4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="BC4" s="3"/>
-      <c r="BD4" s="3" t="s">
+      <c r="BC4" s="50" t="s">
+        <v>87</v>
+      </c>
+      <c r="BD4" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="BE4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="BE4" s="3" t="s">
+      <c r="BF4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="BF4" s="1"/>
       <c r="BG4" s="1"/>
       <c r="BH4" s="1"/>
       <c r="BI4" s="1"/>
-      <c r="BJ4" s="3"/>
-      <c r="BK4" s="3" t="s">
+      <c r="BJ4" s="1"/>
+      <c r="BK4" s="3"/>
+      <c r="BL4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="BL4" s="3" t="s">
+      <c r="BM4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="BM4" s="1"/>
-    </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN4" s="1"/>
+    </row>
+    <row r="5" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -18583,7 +18586,7 @@
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="1"/>
+      <c r="AH5" s="4"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
@@ -18591,93 +18594,94 @@
       <c r="AM5" s="1"/>
       <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
-      <c r="AP5" s="4" t="s">
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AQ5" s="5">
+      <c r="AR5" s="5">
         <f>M!AQ81*h!AQ5</f>
         <v>-6518321.9740549205</v>
       </c>
-      <c r="AR5" s="5">
+      <c r="AS5" s="5">
         <f>M!AR81*h!AR5</f>
         <v>0</v>
       </c>
-      <c r="AS5" s="5">
+      <c r="AT5" s="5">
         <f>M!AS81*h!AS5</f>
         <v>0</v>
       </c>
-      <c r="AT5" s="5">
+      <c r="AU5" s="5">
         <f>M!AT81*h!AT5</f>
         <v>0</v>
       </c>
-      <c r="AU5" s="5">
+      <c r="AV5" s="5">
         <f>M!AU81*h!AU5</f>
         <v>0</v>
       </c>
-      <c r="AV5" s="5">
+      <c r="AW5" s="5">
         <f>M!AV81*h!AV5</f>
         <v>0</v>
       </c>
-      <c r="AW5" s="5">
+      <c r="AX5" s="5">
         <f>M!AW81*h!AW5</f>
         <v>0</v>
       </c>
-      <c r="AX5" s="5">
+      <c r="AY5" s="5">
         <f>M!AX81*h!AX5</f>
         <v>0</v>
       </c>
-      <c r="AY5" s="5">
+      <c r="AZ5" s="5">
         <f>M!AY81*h!AY5</f>
         <v>0</v>
       </c>
-      <c r="AZ5" s="5">
+      <c r="BA5" s="5">
         <f>M!AZ81*h!AZ5</f>
         <v>0</v>
       </c>
-      <c r="BA5" s="5">
+      <c r="BB5" s="5">
         <f>M!BA81*h!BA5</f>
         <v>0</v>
       </c>
-      <c r="BB5" s="5">
+      <c r="BC5" s="5">
         <f>M!BB81*h!BB5</f>
         <v>0</v>
       </c>
-      <c r="BC5" s="5">
+      <c r="BD5" s="5">
         <f>M!BC81*h!BC5</f>
         <v>0</v>
       </c>
-      <c r="BD5" s="5">
+      <c r="BE5" s="5">
         <f>M!BD81*h!BD5</f>
         <v>0</v>
       </c>
-      <c r="BE5" s="5">
+      <c r="BF5" s="5">
         <f>M!BE81*h!BE5</f>
         <v>0</v>
       </c>
-      <c r="BF5" s="6">
-        <f>SUM(AQ5:BE5)</f>
+      <c r="BG5" s="6">
+        <f>SUM(AR5:BF5)</f>
         <v>-6518321.9740549205</v>
       </c>
-      <c r="BG5" s="1"/>
       <c r="BH5" s="1"/>
       <c r="BI5" s="1"/>
-      <c r="BJ5" s="4" t="s">
+      <c r="BJ5" s="1"/>
+      <c r="BK5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="BK5" s="7">
+      <c r="BL5" s="7">
         <f>M!BK81*h!BK5</f>
         <v>0</v>
       </c>
-      <c r="BL5" s="7">
+      <c r="BM5" s="7">
         <f>M!BL81*h!BL5</f>
         <v>0</v>
       </c>
-      <c r="BM5" s="6">
-        <f>SUM(BK5:BL5)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN5" s="6">
+        <f>SUM(BL5:BM5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
@@ -18709,7 +18713,7 @@
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
       <c r="AG6" s="4"/>
-      <c r="AH6" s="1"/>
+      <c r="AH6" s="4"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
       <c r="AK6" s="1"/>
@@ -18717,93 +18721,94 @@
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
       <c r="AO6" s="1"/>
-      <c r="AP6" s="4" t="s">
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="AQ6" s="5">
+      <c r="AR6" s="5">
         <f>M!AQ82*h!AQ6</f>
         <v>0</v>
       </c>
-      <c r="AR6" s="5">
+      <c r="AS6" s="5">
         <f>M!AR82*h!AR6</f>
         <v>-2526033.0144413244</v>
       </c>
-      <c r="AS6" s="5">
+      <c r="AT6" s="5">
         <f>M!AS82*h!AS6</f>
         <v>0</v>
       </c>
-      <c r="AT6" s="5">
+      <c r="AU6" s="5">
         <f>M!AT82*h!AT6</f>
         <v>0</v>
       </c>
-      <c r="AU6" s="5">
+      <c r="AV6" s="5">
         <f>M!AU82*h!AU6</f>
         <v>0</v>
       </c>
-      <c r="AV6" s="5">
+      <c r="AW6" s="5">
         <f>M!AV82*h!AV6</f>
         <v>0</v>
       </c>
-      <c r="AW6" s="5">
+      <c r="AX6" s="5">
         <f>M!AW82*h!AW6</f>
         <v>0</v>
       </c>
-      <c r="AX6" s="5">
+      <c r="AY6" s="5">
         <f>M!AX82*h!AX6</f>
         <v>0</v>
       </c>
-      <c r="AY6" s="5">
+      <c r="AZ6" s="5">
         <f>M!AY82*h!AY6</f>
         <v>0</v>
       </c>
-      <c r="AZ6" s="5">
+      <c r="BA6" s="5">
         <f>M!AZ82*h!AZ6</f>
         <v>0</v>
       </c>
-      <c r="BA6" s="5">
+      <c r="BB6" s="5">
         <f>M!BA82*h!BA6</f>
         <v>0</v>
       </c>
-      <c r="BB6" s="5">
+      <c r="BC6" s="5">
         <f>M!BB82*h!BB6</f>
         <v>0</v>
       </c>
-      <c r="BC6" s="5">
+      <c r="BD6" s="5">
         <f>M!BC82*h!BC6</f>
         <v>0</v>
       </c>
-      <c r="BD6" s="5">
+      <c r="BE6" s="5">
         <f>M!BD82*h!BD6</f>
         <v>0</v>
       </c>
-      <c r="BE6" s="5">
+      <c r="BF6" s="5">
         <f>M!BE82*h!BE6</f>
         <v>0</v>
       </c>
-      <c r="BF6" s="6">
-        <f>SUM(AQ6:BE6)</f>
+      <c r="BG6" s="6">
+        <f>SUM(AR6:BF6)</f>
         <v>-2526033.0144413244</v>
       </c>
-      <c r="BG6" s="1"/>
       <c r="BH6" s="1"/>
       <c r="BI6" s="1"/>
-      <c r="BJ6" s="4" t="s">
+      <c r="BJ6" s="1"/>
+      <c r="BK6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="BK6" s="7">
+      <c r="BL6" s="7">
         <f>M!BK82*h!BK6</f>
         <v>0</v>
       </c>
-      <c r="BL6" s="7">
+      <c r="BM6" s="7">
         <f>M!BL82*h!BL6</f>
         <v>0</v>
       </c>
-      <c r="BM6" s="6">
-        <f t="shared" ref="BM6:BM39" si="0">SUM(BK6:BL6)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.2">
+      <c r="BN6" s="6">
+        <f t="shared" ref="BN6:BN39" si="0">SUM(BL6:BM6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -18835,7 +18840,7 @@
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
       <c r="AG7" s="4"/>
-      <c r="AH7" s="1"/>
+      <c r="AH7" s="4"/>
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
@@ -18843,93 +18848,94 @@
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
       <c r="AO7" s="1"/>
-      <c r="AP7" s="4" t="s">
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="AQ7" s="5">
+      <c r="AR7" s="5">
         <f>M!AQ83*h!AQ7</f>
         <v>0</v>
       </c>
-      <c r="AR7" s="5">
+      <c r="AS7" s="5">
         <f>M!AR83*h!AR7</f>
         <v>0</v>
       </c>
-      <c r="AS7" s="5">
+      <c r="AT7" s="5">
         <f>M!AS83*h!AS7</f>
         <v>7797698.1720160255</v>
       </c>
-      <c r="AT7" s="5">
+      <c r="AU7" s="5">
         <f>M!AT83*h!AT7</f>
         <v>0</v>
       </c>
-      <c r="AU7" s="5">
+      <c r="AV7" s="5">
         <f>M!AU83*h!AU7</f>
         <v>0</v>
       </c>
-      <c r="AV7" s="5">
+      <c r="AW7" s="5">
         <f>M!AV83*h!AV7</f>
         <v>0</v>
       </c>
-      <c r="AW7" s="5">
+      <c r="AX7" s="5">
         <f>M!AW83*h!AW7</f>
         <v>0</v>
       </c>
-      <c r="AX7" s="5">
+      <c r="AY7" s="5">
         <f>M!AX83*h!AX7</f>
         <v>0</v>
       </c>
-      <c r="AY7" s="5">
+      <c r="AZ7" s="5">
         <f>M!AY83*h!AY7</f>
         <v>0</v>
       </c>
-      <c r="AZ7" s="5">
+      <c r="BA7" s="5">
         <f>M!AZ83*h!AZ7</f>
         <v>0</v>
       </c>
-      <c r="BA7" s="5">
+      <c r="BB7" s="5">
         <f>M!BA83*h!BA7</f>
         <v>0</v>
       </c>
-      <c r="BB7" s="5">
+      <c r="BC7" s="5">
         <f>M!BB83*h!BB7</f>
         <v>0</v>
       </c>
-      <c r="BC7" s="5">
+      <c r="BD7" s="5">
         <f>M!BC83*h!BC7</f>
         <v>0</v>
       </c>
-      <c r="BD7" s="5">
+      <c r="BE7" s="5">
         <f>M!BD83*h!BD7</f>
         <v>0</v>
       </c>
-      <c r="BE7" s="5">
+      <c r="BF7" s="5">
         <f>M!BE83*h!BE7</f>
         <v>0</v>
       </c>
-      <c r="BF7" s="6">
-        <f t="shared" ref="BF7:BF39" si="1">SUM(AQ7:BE7)</f>
+      <c r="BG7" s="6">
+        <f t="shared" ref="BG7:BG39" si="1">SUM(AR7:BF7)</f>
         <v>7797698.1720160255</v>
       </c>
-      <c r="BG7" s="1"/>
       <c r="BH7" s="1"/>
       <c r="BI7" s="1"/>
-      <c r="BJ7" s="4" t="s">
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="BK7" s="7">
+      <c r="BL7" s="7">
         <f>M!BK83*h!BK7</f>
         <v>0</v>
       </c>
-      <c r="BL7" s="7">
+      <c r="BM7" s="7">
         <f>M!BL83*h!BL7</f>
         <v>0</v>
       </c>
-      <c r="BM7" s="6">
+      <c r="BN7" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -18961,7 +18967,7 @@
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
       <c r="AG8" s="4"/>
-      <c r="AH8" s="1"/>
+      <c r="AH8" s="4"/>
       <c r="AI8" s="1"/>
       <c r="AJ8" s="1"/>
       <c r="AK8" s="1"/>
@@ -18969,93 +18975,94 @@
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
       <c r="AO8" s="1"/>
-      <c r="AP8" s="4" t="s">
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="AQ8" s="5">
+      <c r="AR8" s="5">
         <f>M!AQ84*h!AQ8</f>
         <v>0</v>
       </c>
-      <c r="AR8" s="5">
+      <c r="AS8" s="5">
         <f>M!AR84*h!AR8</f>
         <v>0</v>
       </c>
-      <c r="AS8" s="5">
+      <c r="AT8" s="5">
         <f>M!AS84*h!AS8</f>
         <v>0</v>
       </c>
-      <c r="AT8" s="5">
+      <c r="AU8" s="5">
         <f>M!AT84*h!AT8</f>
         <v>0</v>
       </c>
-      <c r="AU8" s="5">
+      <c r="AV8" s="5">
         <f>M!AU84*h!AU8</f>
         <v>0</v>
       </c>
-      <c r="AV8" s="5">
+      <c r="AW8" s="5">
         <f>M!AV84*h!AV8</f>
         <v>0</v>
       </c>
-      <c r="AW8" s="5">
+      <c r="AX8" s="5">
         <f>M!AW84*h!AW8</f>
         <v>0</v>
       </c>
-      <c r="AX8" s="5">
+      <c r="AY8" s="5">
         <f>M!AX84*h!AX8</f>
         <v>0</v>
       </c>
-      <c r="AY8" s="5">
+      <c r="AZ8" s="5">
         <f>M!AY84*h!AY8</f>
         <v>0</v>
       </c>
-      <c r="AZ8" s="5">
+      <c r="BA8" s="5">
         <f>M!AZ84*h!AZ8</f>
         <v>0</v>
       </c>
-      <c r="BA8" s="5">
+      <c r="BB8" s="5">
         <f>M!BA84*h!BA8</f>
         <v>0</v>
       </c>
-      <c r="BB8" s="5">
+      <c r="BC8" s="5">
         <f>M!BB84*h!BB8</f>
         <v>0</v>
       </c>
-      <c r="BC8" s="5">
+      <c r="BD8" s="5">
         <f>M!BC84*h!BC8</f>
         <v>0</v>
       </c>
-      <c r="BD8" s="5">
+      <c r="BE8" s="5">
         <f>M!BD84*h!BD8</f>
         <v>0</v>
       </c>
-      <c r="BE8" s="5">
+      <c r="BF8" s="5">
         <f>M!BE84*h!BE8</f>
         <v>0</v>
       </c>
-      <c r="BF8" s="6">
+      <c r="BG8" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG8" s="1"/>
       <c r="BH8" s="1"/>
       <c r="BI8" s="1"/>
-      <c r="BJ8" s="4" t="s">
+      <c r="BJ8" s="1"/>
+      <c r="BK8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="BK8" s="7">
+      <c r="BL8" s="7">
         <f>M!BK84*h!BK8</f>
         <v>0</v>
       </c>
-      <c r="BL8" s="7">
+      <c r="BM8" s="7">
         <f>M!BL84*h!BL8</f>
         <v>0</v>
       </c>
-      <c r="BM8" s="6">
+      <c r="BN8" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -19087,7 +19094,7 @@
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
       <c r="AG9" s="4"/>
-      <c r="AH9" s="1"/>
+      <c r="AH9" s="4"/>
       <c r="AI9" s="1"/>
       <c r="AJ9" s="1"/>
       <c r="AK9" s="1"/>
@@ -19095,93 +19102,94 @@
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="1"/>
-      <c r="AP9" s="4" t="s">
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="AQ9" s="5">
+      <c r="AR9" s="5">
         <f>M!AQ85*h!AQ9</f>
         <v>0</v>
       </c>
-      <c r="AR9" s="5">
+      <c r="AS9" s="5">
         <f>M!AR85*h!AR9</f>
         <v>0</v>
       </c>
-      <c r="AS9" s="5">
+      <c r="AT9" s="5">
         <f>M!AS85*h!AS9</f>
         <v>0</v>
       </c>
-      <c r="AT9" s="5">
+      <c r="AU9" s="5">
         <f>M!AT85*h!AT9</f>
         <v>0</v>
       </c>
-      <c r="AU9" s="5">
+      <c r="AV9" s="5">
         <f>M!AU85*h!AU9</f>
         <v>0</v>
       </c>
-      <c r="AV9" s="5">
+      <c r="AW9" s="5">
         <f>M!AV85*h!AV9</f>
         <v>0</v>
       </c>
-      <c r="AW9" s="5">
+      <c r="AX9" s="5">
         <f>M!AW85*h!AW9</f>
         <v>0</v>
       </c>
-      <c r="AX9" s="5">
+      <c r="AY9" s="5">
         <f>M!AX85*h!AX9</f>
         <v>0</v>
       </c>
-      <c r="AY9" s="5">
+      <c r="AZ9" s="5">
         <f>M!AY85*h!AY9</f>
         <v>0</v>
       </c>
-      <c r="AZ9" s="5">
+      <c r="BA9" s="5">
         <f>M!AZ85*h!AZ9</f>
         <v>333.66239961870195</v>
       </c>
-      <c r="BA9" s="5">
+      <c r="BB9" s="5">
         <f>M!BA85*h!BA9</f>
         <v>0.27214182087368383</v>
       </c>
-      <c r="BB9" s="5">
+      <c r="BC9" s="5">
         <f>M!BB85*h!BB9</f>
         <v>0</v>
       </c>
-      <c r="BC9" s="5">
+      <c r="BD9" s="5">
         <f>M!BC85*h!BC9</f>
         <v>0</v>
       </c>
-      <c r="BD9" s="5">
+      <c r="BE9" s="5">
         <f>M!BD85*h!BD9</f>
         <v>0</v>
       </c>
-      <c r="BE9" s="5">
+      <c r="BF9" s="5">
         <f>M!BE85*h!BE9</f>
         <v>0.71830927206773498</v>
       </c>
-      <c r="BF9" s="6">
+      <c r="BG9" s="6">
         <f t="shared" si="1"/>
         <v>334.6528507116434</v>
       </c>
-      <c r="BG9" s="1"/>
       <c r="BH9" s="1"/>
       <c r="BI9" s="1"/>
-      <c r="BJ9" s="4" t="s">
+      <c r="BJ9" s="1"/>
+      <c r="BK9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="BK9" s="7">
+      <c r="BL9" s="7">
         <f>M!BK85*h!BK9</f>
         <v>0</v>
       </c>
-      <c r="BL9" s="7">
+      <c r="BM9" s="7">
         <f>M!BL85*h!BL9</f>
         <v>0</v>
       </c>
-      <c r="BM9" s="6">
+      <c r="BN9" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -19213,7 +19221,7 @@
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
       <c r="AG10" s="4"/>
-      <c r="AH10" s="1"/>
+      <c r="AH10" s="4"/>
       <c r="AI10" s="1"/>
       <c r="AJ10" s="1"/>
       <c r="AK10" s="1"/>
@@ -19221,93 +19229,94 @@
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="1"/>
-      <c r="AP10" s="4" t="s">
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="AQ10" s="5">
+      <c r="AR10" s="5">
         <f>M!AQ86*h!AQ10</f>
         <v>88160.656904773394</v>
       </c>
-      <c r="AR10" s="5">
+      <c r="AS10" s="5">
         <f>M!AR86*h!AR10</f>
         <v>241.59146310558401</v>
       </c>
-      <c r="AS10" s="5">
+      <c r="AT10" s="5">
         <f>M!AS86*h!AS10</f>
         <v>20969.662867987096</v>
       </c>
-      <c r="AT10" s="5">
+      <c r="AU10" s="5">
         <f>M!AT86*h!AT10</f>
         <v>0</v>
       </c>
-      <c r="AU10" s="5">
+      <c r="AV10" s="5">
         <f>M!AU86*h!AU10</f>
         <v>0</v>
       </c>
-      <c r="AV10" s="5">
+      <c r="AW10" s="5">
         <f>M!AV86*h!AV10</f>
         <v>0</v>
       </c>
-      <c r="AW10" s="5">
+      <c r="AX10" s="5">
         <f>M!AW86*h!AW10</f>
         <v>0</v>
       </c>
-      <c r="AX10" s="5">
+      <c r="AY10" s="5">
         <f>M!AX86*h!AX10</f>
         <v>0</v>
       </c>
-      <c r="AY10" s="5">
+      <c r="AZ10" s="5">
         <f>M!AY86*h!AY10</f>
         <v>0</v>
       </c>
-      <c r="AZ10" s="5">
+      <c r="BA10" s="5">
         <f>M!AZ86*h!AZ10</f>
         <v>0</v>
       </c>
-      <c r="BA10" s="5">
+      <c r="BB10" s="5">
         <f>M!BA86*h!BA10</f>
         <v>0</v>
       </c>
-      <c r="BB10" s="5">
+      <c r="BC10" s="5">
         <f>M!BB86*h!BB10</f>
         <v>0</v>
       </c>
-      <c r="BC10" s="5">
+      <c r="BD10" s="5">
         <f>M!BC86*h!BC10</f>
         <v>0</v>
       </c>
-      <c r="BD10" s="5">
+      <c r="BE10" s="5">
         <f>M!BD86*h!BD10</f>
         <v>0</v>
       </c>
-      <c r="BE10" s="5">
+      <c r="BF10" s="5">
         <f>M!BE86*h!BE10</f>
         <v>0</v>
       </c>
-      <c r="BF10" s="6">
+      <c r="BG10" s="6">
         <f t="shared" si="1"/>
         <v>109371.91123586606</v>
       </c>
-      <c r="BG10" s="1"/>
       <c r="BH10" s="1"/>
       <c r="BI10" s="1"/>
-      <c r="BJ10" s="4" t="s">
+      <c r="BJ10" s="1"/>
+      <c r="BK10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="BK10" s="7">
+      <c r="BL10" s="7">
         <f>M!BK86*h!BK10</f>
         <v>0</v>
       </c>
-      <c r="BL10" s="7">
+      <c r="BM10" s="7">
         <f>M!BL86*h!BL10</f>
         <v>0</v>
       </c>
-      <c r="BM10" s="6">
+      <c r="BN10" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
@@ -19339,7 +19348,7 @@
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
       <c r="AG11" s="4"/>
-      <c r="AH11" s="1"/>
+      <c r="AH11" s="4"/>
       <c r="AI11" s="1"/>
       <c r="AJ11" s="1"/>
       <c r="AK11" s="1"/>
@@ -19347,93 +19356,94 @@
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
-      <c r="AP11" s="4" t="s">
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="AQ11" s="5">
+      <c r="AR11" s="5">
         <f>M!AQ87*h!AQ11</f>
         <v>0</v>
       </c>
-      <c r="AR11" s="5">
+      <c r="AS11" s="5">
         <f>M!AR87*h!AR11</f>
         <v>-1.1322425723331082</v>
       </c>
-      <c r="AS11" s="5">
+      <c r="AT11" s="5">
         <f>M!AS87*h!AS11</f>
         <v>0</v>
       </c>
-      <c r="AT11" s="5">
+      <c r="AU11" s="5">
         <f>M!AT87*h!AT11</f>
         <v>0</v>
       </c>
-      <c r="AU11" s="5">
+      <c r="AV11" s="5">
         <f>M!AU87*h!AU11</f>
         <v>0</v>
       </c>
-      <c r="AV11" s="5">
+      <c r="AW11" s="5">
         <f>M!AV87*h!AV11</f>
         <v>0</v>
       </c>
-      <c r="AW11" s="5">
+      <c r="AX11" s="5">
         <f>M!AW87*h!AW11</f>
         <v>0</v>
       </c>
-      <c r="AX11" s="5">
+      <c r="AY11" s="5">
         <f>M!AX87*h!AX11</f>
         <v>0</v>
       </c>
-      <c r="AY11" s="5">
+      <c r="AZ11" s="5">
         <f>M!AY87*h!AY11</f>
         <v>0</v>
       </c>
-      <c r="AZ11" s="5">
+      <c r="BA11" s="5">
         <f>M!AZ87*h!AZ11</f>
         <v>0</v>
       </c>
-      <c r="BA11" s="5">
+      <c r="BB11" s="5">
         <f>M!BA87*h!BA11</f>
         <v>0</v>
       </c>
-      <c r="BB11" s="5">
+      <c r="BC11" s="5">
         <f>M!BB87*h!BB11</f>
         <v>0</v>
       </c>
-      <c r="BC11" s="5">
+      <c r="BD11" s="5">
         <f>M!BC87*h!BC11</f>
         <v>0</v>
       </c>
-      <c r="BD11" s="5">
+      <c r="BE11" s="5">
         <f>M!BD87*h!BD11</f>
         <v>0</v>
       </c>
-      <c r="BE11" s="5">
+      <c r="BF11" s="5">
         <f>M!BE87*h!BE11</f>
         <v>0</v>
       </c>
-      <c r="BF11" s="6">
+      <c r="BG11" s="6">
         <f t="shared" si="1"/>
         <v>-1.1322425723331082</v>
       </c>
-      <c r="BG11" s="1"/>
       <c r="BH11" s="1"/>
       <c r="BI11" s="1"/>
-      <c r="BJ11" s="4" t="s">
+      <c r="BJ11" s="1"/>
+      <c r="BK11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="BK11" s="7">
+      <c r="BL11" s="7">
         <f>M!BK87*h!BK11</f>
         <v>0</v>
       </c>
-      <c r="BL11" s="7">
+      <c r="BM11" s="7">
         <f>M!BL87*h!BL11</f>
         <v>0</v>
       </c>
-      <c r="BM11" s="6">
+      <c r="BN11" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -19465,7 +19475,7 @@
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
       <c r="AG12" s="4"/>
-      <c r="AH12" s="1"/>
+      <c r="AH12" s="4"/>
       <c r="AI12" s="1"/>
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
@@ -19473,93 +19483,94 @@
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="1"/>
-      <c r="AP12" s="4" t="s">
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="AQ12" s="5">
+      <c r="AR12" s="5">
         <f>M!AQ88*h!AQ12</f>
         <v>0</v>
       </c>
-      <c r="AR12" s="5">
+      <c r="AS12" s="5">
         <f>M!AR88*h!AR12</f>
         <v>0</v>
       </c>
-      <c r="AS12" s="5">
+      <c r="AT12" s="5">
         <f>M!AS88*h!AS12</f>
         <v>0</v>
       </c>
-      <c r="AT12" s="5">
+      <c r="AU12" s="5">
         <f>M!AT88*h!AT12</f>
         <v>0</v>
       </c>
-      <c r="AU12" s="5">
+      <c r="AV12" s="5">
         <f>M!AU88*h!AU12</f>
         <v>0</v>
       </c>
-      <c r="AV12" s="5">
+      <c r="AW12" s="5">
         <f>M!AV88*h!AV12</f>
         <v>0</v>
       </c>
-      <c r="AW12" s="5">
+      <c r="AX12" s="5">
         <f>M!AW88*h!AW12</f>
         <v>0</v>
       </c>
-      <c r="AX12" s="5">
+      <c r="AY12" s="5">
         <f>M!AX88*h!AX12</f>
         <v>0</v>
       </c>
-      <c r="AY12" s="5">
+      <c r="AZ12" s="5">
         <f>M!AY88*h!AY12</f>
         <v>0</v>
       </c>
-      <c r="AZ12" s="5">
+      <c r="BA12" s="5">
         <f>M!AZ88*h!AZ12</f>
         <v>0</v>
       </c>
-      <c r="BA12" s="5">
+      <c r="BB12" s="5">
         <f>M!BA88*h!BA12</f>
         <v>0</v>
       </c>
-      <c r="BB12" s="5">
+      <c r="BC12" s="5">
         <f>M!BB88*h!BB12</f>
         <v>0</v>
       </c>
-      <c r="BC12" s="5">
+      <c r="BD12" s="5">
         <f>M!BC88*h!BC12</f>
         <v>0</v>
       </c>
-      <c r="BD12" s="5">
+      <c r="BE12" s="5">
         <f>M!BD88*h!BD12</f>
         <v>0</v>
       </c>
-      <c r="BE12" s="5">
+      <c r="BF12" s="5">
         <f>M!BE88*h!BE12</f>
         <v>193470.79284293839</v>
       </c>
-      <c r="BF12" s="6">
+      <c r="BG12" s="6">
         <f t="shared" si="1"/>
         <v>193470.79284293839</v>
       </c>
-      <c r="BG12" s="1"/>
       <c r="BH12" s="1"/>
       <c r="BI12" s="1"/>
-      <c r="BJ12" s="4" t="s">
+      <c r="BJ12" s="1"/>
+      <c r="BK12" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="BK12" s="7">
+      <c r="BL12" s="7">
         <f>M!BK88*h!BK12</f>
         <v>0</v>
       </c>
-      <c r="BL12" s="7">
+      <c r="BM12" s="7">
         <f>M!BL88*h!BL12</f>
         <v>0</v>
       </c>
-      <c r="BM12" s="6">
+      <c r="BN12" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -19591,7 +19602,7 @@
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
       <c r="AG13" s="4"/>
-      <c r="AH13" s="1"/>
+      <c r="AH13" s="4"/>
       <c r="AI13" s="1"/>
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
@@ -19599,93 +19610,94 @@
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
-      <c r="AP13" s="4" t="s">
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AQ13" s="5">
+      <c r="AR13" s="5">
         <f>M!AQ89*h!AQ13</f>
         <v>0</v>
       </c>
-      <c r="AR13" s="5">
+      <c r="AS13" s="5">
         <f>M!AR89*h!AR13</f>
         <v>0</v>
       </c>
-      <c r="AS13" s="5">
+      <c r="AT13" s="5">
         <f>M!AS89*h!AS13</f>
         <v>0</v>
       </c>
-      <c r="AT13" s="5">
+      <c r="AU13" s="5">
         <f>M!AT89*h!AT13</f>
         <v>0</v>
       </c>
-      <c r="AU13" s="5">
+      <c r="AV13" s="5">
         <f>M!AU89*h!AU13</f>
         <v>0</v>
       </c>
-      <c r="AV13" s="5">
+      <c r="AW13" s="5">
         <f>M!AV89*h!AV13</f>
         <v>0</v>
       </c>
-      <c r="AW13" s="5">
+      <c r="AX13" s="5">
         <f>M!AW89*h!AW13</f>
         <v>0</v>
       </c>
-      <c r="AX13" s="5">
+      <c r="AY13" s="5">
         <f>M!AX89*h!AX13</f>
         <v>0</v>
       </c>
-      <c r="AY13" s="5">
+      <c r="AZ13" s="5">
         <f>M!AY89*h!AY13</f>
         <v>0</v>
       </c>
-      <c r="AZ13" s="5">
+      <c r="BA13" s="5">
         <f>M!AZ89*h!AZ13</f>
         <v>0</v>
       </c>
-      <c r="BA13" s="5">
+      <c r="BB13" s="5">
         <f>M!BA89*h!BA13</f>
         <v>0</v>
       </c>
-      <c r="BB13" s="5">
+      <c r="BC13" s="5">
         <f>M!BB89*h!BB13</f>
         <v>0</v>
       </c>
-      <c r="BC13" s="5">
+      <c r="BD13" s="5">
         <f>M!BC89*h!BC13</f>
         <v>0</v>
       </c>
-      <c r="BD13" s="5">
+      <c r="BE13" s="5">
         <f>M!BD89*h!BD13</f>
         <v>0</v>
       </c>
-      <c r="BE13" s="5">
+      <c r="BF13" s="5">
         <f>M!BE89*h!BE13</f>
         <v>0</v>
       </c>
-      <c r="BF13" s="6">
+      <c r="BG13" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG13" s="1"/>
       <c r="BH13" s="1"/>
       <c r="BI13" s="1"/>
-      <c r="BJ13" s="4" t="s">
+      <c r="BJ13" s="1"/>
+      <c r="BK13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="BK13" s="7">
+      <c r="BL13" s="7">
         <f>M!BK89*h!BK13</f>
         <v>0</v>
       </c>
-      <c r="BL13" s="7">
+      <c r="BM13" s="7">
         <f>M!BL89*h!BL13</f>
         <v>0</v>
       </c>
-      <c r="BM13" s="6">
+      <c r="BN13" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -19717,7 +19729,7 @@
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
       <c r="AG14" s="9"/>
-      <c r="AH14" s="1"/>
+      <c r="AH14" s="9"/>
       <c r="AI14" s="1"/>
       <c r="AJ14" s="1"/>
       <c r="AK14" s="1"/>
@@ -19725,93 +19737,94 @@
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="1"/>
-      <c r="AP14" s="10" t="s">
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="AQ14" s="5">
+      <c r="AR14" s="5">
         <f>M!AQ90*h!AQ14</f>
         <v>0</v>
       </c>
-      <c r="AR14" s="5">
+      <c r="AS14" s="5">
         <f>M!AR90*h!AR14</f>
         <v>0</v>
       </c>
-      <c r="AS14" s="5">
+      <c r="AT14" s="5">
         <f>M!AS90*h!AS14</f>
         <v>0</v>
       </c>
-      <c r="AT14" s="5">
+      <c r="AU14" s="5">
         <f>M!AT90*h!AT14</f>
         <v>-6518321.9740549205</v>
       </c>
-      <c r="AU14" s="5">
+      <c r="AV14" s="5">
         <f>M!AU90*h!AU14</f>
         <v>0</v>
       </c>
-      <c r="AV14" s="5">
+      <c r="AW14" s="5">
         <f>M!AV90*h!AV14</f>
         <v>0</v>
       </c>
-      <c r="AW14" s="5">
+      <c r="AX14" s="5">
         <f>M!AW90*h!AW14</f>
         <v>0</v>
       </c>
-      <c r="AX14" s="5">
+      <c r="AY14" s="5">
         <f>M!AX90*h!AX14</f>
         <v>0</v>
       </c>
-      <c r="AY14" s="5">
+      <c r="AZ14" s="5">
         <f>M!AY90*h!AY14</f>
         <v>0</v>
       </c>
-      <c r="AZ14" s="5">
+      <c r="BA14" s="5">
         <f>M!AZ90*h!AZ14</f>
         <v>0</v>
       </c>
-      <c r="BA14" s="5">
+      <c r="BB14" s="5">
         <f>M!BA90*h!BA14</f>
         <v>0</v>
       </c>
-      <c r="BB14" s="5">
+      <c r="BC14" s="5">
         <f>M!BB90*h!BB14</f>
         <v>0</v>
       </c>
-      <c r="BC14" s="5">
+      <c r="BD14" s="5">
         <f>M!BC90*h!BC14</f>
         <v>0</v>
       </c>
-      <c r="BD14" s="5">
+      <c r="BE14" s="5">
         <f>M!BD90*h!BD14</f>
         <v>0</v>
       </c>
-      <c r="BE14" s="5">
+      <c r="BF14" s="5">
         <f>M!BE90*h!BE14</f>
         <v>0</v>
       </c>
-      <c r="BF14" s="6">
+      <c r="BG14" s="6">
         <f t="shared" si="1"/>
         <v>-6518321.9740549205</v>
       </c>
-      <c r="BG14" s="1"/>
       <c r="BH14" s="1"/>
       <c r="BI14" s="1"/>
-      <c r="BJ14" s="10" t="s">
+      <c r="BJ14" s="1"/>
+      <c r="BK14" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="BK14" s="7">
+      <c r="BL14" s="7">
         <f>M!BK90*h!BK14</f>
         <v>0</v>
       </c>
-      <c r="BL14" s="7">
+      <c r="BM14" s="7">
         <f>M!BL90*h!BL14</f>
         <v>0</v>
       </c>
-      <c r="BM14" s="6">
+      <c r="BN14" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -19843,7 +19856,7 @@
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
       <c r="AG15" s="10"/>
-      <c r="AH15" s="1"/>
+      <c r="AH15" s="10"/>
       <c r="AI15" s="1"/>
       <c r="AJ15" s="1"/>
       <c r="AK15" s="1"/>
@@ -19851,93 +19864,94 @@
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
-      <c r="AP15" s="4" t="s">
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AQ15" s="5">
+      <c r="AR15" s="5">
         <f>M!AQ91*h!AQ15</f>
         <v>0</v>
       </c>
-      <c r="AR15" s="5">
+      <c r="AS15" s="5">
         <f>M!AR91*h!AR15</f>
         <v>0</v>
       </c>
-      <c r="AS15" s="5">
+      <c r="AT15" s="5">
         <f>M!AS91*h!AS15</f>
         <v>0</v>
       </c>
-      <c r="AT15" s="5">
+      <c r="AU15" s="5">
         <f>M!AT91*h!AT15</f>
         <v>0</v>
       </c>
-      <c r="AU15" s="5">
+      <c r="AV15" s="5">
         <f>M!AU91*h!AU15</f>
         <v>0</v>
       </c>
-      <c r="AV15" s="5">
+      <c r="AW15" s="5">
         <f>M!AV91*h!AV15</f>
         <v>0</v>
       </c>
-      <c r="AW15" s="5">
+      <c r="AX15" s="5">
         <f>M!AW91*h!AW15</f>
         <v>0</v>
       </c>
-      <c r="AX15" s="5">
+      <c r="AY15" s="5">
         <f>M!AX91*h!AX15</f>
         <v>0</v>
       </c>
-      <c r="AY15" s="5">
+      <c r="AZ15" s="5">
         <f>M!AY91*h!AY15</f>
         <v>0</v>
       </c>
-      <c r="AZ15" s="5">
+      <c r="BA15" s="5">
         <f>M!AZ91*h!AZ15</f>
         <v>0</v>
       </c>
-      <c r="BA15" s="5">
+      <c r="BB15" s="5">
         <f>M!BA91*h!BA15</f>
         <v>0</v>
       </c>
-      <c r="BB15" s="5">
+      <c r="BC15" s="5">
         <f>M!BB91*h!BB15</f>
         <v>0</v>
       </c>
-      <c r="BC15" s="5">
+      <c r="BD15" s="5">
         <f>M!BC91*h!BC15</f>
         <v>0</v>
       </c>
-      <c r="BD15" s="5">
+      <c r="BE15" s="5">
         <f>M!BD91*h!BD15</f>
         <v>0</v>
       </c>
-      <c r="BE15" s="5">
+      <c r="BF15" s="5">
         <f>M!BE91*h!BE15</f>
         <v>0</v>
       </c>
-      <c r="BF15" s="6">
+      <c r="BG15" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG15" s="1"/>
       <c r="BH15" s="1"/>
       <c r="BI15" s="1"/>
-      <c r="BJ15" s="4" t="s">
+      <c r="BJ15" s="1"/>
+      <c r="BK15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="BK15" s="7">
+      <c r="BL15" s="7">
         <f>M!BK91*h!BK15</f>
         <v>0</v>
       </c>
-      <c r="BL15" s="7">
+      <c r="BM15" s="7">
         <f>M!BL91*h!BL15</f>
         <v>-92800.199170167121</v>
       </c>
-      <c r="BM15" s="6">
+      <c r="BN15" s="6">
         <f t="shared" si="0"/>
         <v>-92800.199170167121</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:66" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -19969,7 +19983,7 @@
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
       <c r="AG16" s="11"/>
-      <c r="AH16" s="1"/>
+      <c r="AH16" s="11"/>
       <c r="AI16" s="1"/>
       <c r="AJ16" s="1"/>
       <c r="AK16" s="1"/>
@@ -19977,93 +19991,94 @@
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
-      <c r="AP16" s="10" t="s">
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="AQ16" s="5">
+      <c r="AR16" s="5">
         <f>M!AQ92*h!AQ16</f>
         <v>0</v>
       </c>
-      <c r="AR16" s="5">
+      <c r="AS16" s="5">
         <f>M!AR92*h!AR16</f>
         <v>0</v>
       </c>
-      <c r="AS16" s="5">
+      <c r="AT16" s="5">
         <f>M!AS92*h!AS16</f>
         <v>0</v>
       </c>
-      <c r="AT16" s="5">
+      <c r="AU16" s="5">
         <f>M!AT92*h!AT16</f>
         <v>0</v>
       </c>
-      <c r="AU16" s="5">
+      <c r="AV16" s="5">
         <f>M!AU92*h!AU16</f>
         <v>-2526033.0144413244</v>
       </c>
-      <c r="AV16" s="5">
+      <c r="AW16" s="5">
         <f>M!AV92*h!AV16</f>
         <v>0</v>
       </c>
-      <c r="AW16" s="5">
+      <c r="AX16" s="5">
         <f>M!AW92*h!AW16</f>
         <v>0</v>
       </c>
-      <c r="AX16" s="5">
+      <c r="AY16" s="5">
         <f>M!AX92*h!AX16</f>
         <v>0</v>
       </c>
-      <c r="AY16" s="5">
+      <c r="AZ16" s="5">
         <f>M!AY92*h!AY16</f>
         <v>0</v>
       </c>
-      <c r="AZ16" s="5">
+      <c r="BA16" s="5">
         <f>M!AZ92*h!AZ16</f>
         <v>0</v>
       </c>
-      <c r="BA16" s="5">
+      <c r="BB16" s="5">
         <f>M!BA92*h!BA16</f>
         <v>0</v>
       </c>
-      <c r="BB16" s="5">
+      <c r="BC16" s="5">
         <f>M!BB92*h!BB16</f>
         <v>0</v>
       </c>
-      <c r="BC16" s="5">
+      <c r="BD16" s="5">
         <f>M!BC92*h!BC16</f>
         <v>0</v>
       </c>
-      <c r="BD16" s="5">
+      <c r="BE16" s="5">
         <f>M!BD92*h!BD16</f>
         <v>0</v>
       </c>
-      <c r="BE16" s="5">
+      <c r="BF16" s="5">
         <f>M!BE92*h!BE16</f>
         <v>0</v>
       </c>
-      <c r="BF16" s="6">
+      <c r="BG16" s="6">
         <f t="shared" si="1"/>
         <v>-2526033.0144413244</v>
       </c>
-      <c r="BG16" s="1"/>
       <c r="BH16" s="1"/>
       <c r="BI16" s="1"/>
-      <c r="BJ16" s="10" t="s">
+      <c r="BJ16" s="1"/>
+      <c r="BK16" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="BK16" s="7">
+      <c r="BL16" s="7">
         <f>M!BK92*h!BK16</f>
         <v>0</v>
       </c>
-      <c r="BL16" s="7">
+      <c r="BM16" s="7">
         <f>M!BL92*h!BL16</f>
         <v>0</v>
       </c>
-      <c r="BM16" s="6">
+      <c r="BN16" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -20095,7 +20110,7 @@
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
       <c r="AG17" s="11"/>
-      <c r="AH17" s="1"/>
+      <c r="AH17" s="11"/>
       <c r="AI17" s="1"/>
       <c r="AJ17" s="1"/>
       <c r="AK17" s="1"/>
@@ -20103,93 +20118,94 @@
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
-      <c r="AP17" s="4" t="s">
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AQ17" s="5">
+      <c r="AR17" s="5">
         <f>M!AQ93*h!AQ17</f>
         <v>0</v>
       </c>
-      <c r="AR17" s="5">
+      <c r="AS17" s="5">
         <f>M!AR93*h!AR17</f>
         <v>0</v>
       </c>
-      <c r="AS17" s="5">
+      <c r="AT17" s="5">
         <f>M!AS93*h!AS17</f>
         <v>0</v>
       </c>
-      <c r="AT17" s="5">
+      <c r="AU17" s="5">
         <f>M!AT93*h!AT17</f>
         <v>0</v>
       </c>
-      <c r="AU17" s="5">
+      <c r="AV17" s="5">
         <f>M!AU93*h!AU17</f>
         <v>0</v>
       </c>
-      <c r="AV17" s="5">
+      <c r="AW17" s="5">
         <f>M!AV93*h!AV17</f>
         <v>0</v>
       </c>
-      <c r="AW17" s="5">
+      <c r="AX17" s="5">
         <f>M!AW93*h!AW17</f>
         <v>0</v>
       </c>
-      <c r="AX17" s="5">
+      <c r="AY17" s="5">
         <f>M!AX93*h!AX17</f>
         <v>0</v>
       </c>
-      <c r="AY17" s="5">
+      <c r="AZ17" s="5">
         <f>M!AY93*h!AY17</f>
         <v>0</v>
       </c>
-      <c r="AZ17" s="5">
+      <c r="BA17" s="5">
         <f>M!AZ93*h!AZ17</f>
         <v>0</v>
       </c>
-      <c r="BA17" s="5">
+      <c r="BB17" s="5">
         <f>M!BA93*h!BA17</f>
         <v>0</v>
       </c>
-      <c r="BB17" s="5">
+      <c r="BC17" s="5">
         <f>M!BB93*h!BB17</f>
         <v>0</v>
       </c>
-      <c r="BC17" s="5">
+      <c r="BD17" s="5">
         <f>M!BC93*h!BC17</f>
         <v>0</v>
       </c>
-      <c r="BD17" s="5">
+      <c r="BE17" s="5">
         <f>M!BD93*h!BD17</f>
         <v>0</v>
       </c>
-      <c r="BE17" s="5">
+      <c r="BF17" s="5">
         <f>M!BE93*h!BE17</f>
         <v>0</v>
       </c>
-      <c r="BF17" s="6">
+      <c r="BG17" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG17" s="1"/>
       <c r="BH17" s="1"/>
       <c r="BI17" s="1"/>
-      <c r="BJ17" s="4" t="s">
+      <c r="BJ17" s="1"/>
+      <c r="BK17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BK17" s="7">
+      <c r="BL17" s="7">
         <f>M!BK93*h!BK17</f>
         <v>0</v>
       </c>
-      <c r="BL17" s="7">
+      <c r="BM17" s="7">
         <f>M!BL93*h!BL17</f>
         <v>-278.40895638262936</v>
       </c>
-      <c r="BM17" s="6">
+      <c r="BN17" s="6">
         <f t="shared" si="0"/>
         <v>-278.40895638262936</v>
       </c>
     </row>
-    <row r="18" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -20221,7 +20237,7 @@
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
       <c r="AG18" s="11"/>
-      <c r="AH18" s="1"/>
+      <c r="AH18" s="11"/>
       <c r="AI18" s="1"/>
       <c r="AJ18" s="1"/>
       <c r="AK18" s="1"/>
@@ -20229,93 +20245,94 @@
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
-      <c r="AP18" s="11" t="s">
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AQ18" s="5">
+      <c r="AR18" s="5">
         <f>M!AQ94*h!AQ18</f>
         <v>0</v>
       </c>
-      <c r="AR18" s="5">
+      <c r="AS18" s="5">
         <f>M!AR94*h!AR18</f>
         <v>0</v>
       </c>
-      <c r="AS18" s="5">
+      <c r="AT18" s="5">
         <f>M!AS94*h!AS18</f>
         <v>0</v>
       </c>
-      <c r="AT18" s="5">
+      <c r="AU18" s="5">
         <f>M!AT94*h!AT18</f>
         <v>0</v>
       </c>
-      <c r="AU18" s="5">
+      <c r="AV18" s="5">
         <f>M!AU94*h!AU18</f>
         <v>0</v>
       </c>
-      <c r="AV18" s="5">
+      <c r="AW18" s="5">
         <f>M!AV94*h!AV18</f>
         <v>7797698.1720160255</v>
       </c>
-      <c r="AW18" s="5">
+      <c r="AX18" s="5">
         <f>M!AW94*h!AW18</f>
         <v>0</v>
       </c>
-      <c r="AX18" s="5">
+      <c r="AY18" s="5">
         <f>M!AX94*h!AX18</f>
         <v>0</v>
       </c>
-      <c r="AY18" s="5">
+      <c r="AZ18" s="5">
         <f>M!AY94*h!AY18</f>
         <v>0</v>
       </c>
-      <c r="AZ18" s="5">
+      <c r="BA18" s="5">
         <f>M!AZ94*h!AZ18</f>
         <v>0</v>
       </c>
-      <c r="BA18" s="5">
+      <c r="BB18" s="5">
         <f>M!BA94*h!BA18</f>
         <v>0</v>
       </c>
-      <c r="BB18" s="5">
+      <c r="BC18" s="5">
         <f>M!BB94*h!BB18</f>
         <v>0</v>
       </c>
-      <c r="BC18" s="5">
+      <c r="BD18" s="5">
         <f>M!BC94*h!BC18</f>
         <v>0</v>
       </c>
-      <c r="BD18" s="5">
+      <c r="BE18" s="5">
         <f>M!BD94*h!BD18</f>
         <v>0</v>
       </c>
-      <c r="BE18" s="5">
+      <c r="BF18" s="5">
         <f>M!BE94*h!BE18</f>
         <v>0</v>
       </c>
-      <c r="BF18" s="6">
+      <c r="BG18" s="6">
         <f t="shared" si="1"/>
         <v>7797698.1720160255</v>
       </c>
-      <c r="BG18" s="1"/>
       <c r="BH18" s="1"/>
       <c r="BI18" s="1"/>
-      <c r="BJ18" s="11" t="s">
+      <c r="BJ18" s="1"/>
+      <c r="BK18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="BK18" s="7">
+      <c r="BL18" s="7">
         <f>M!BK94*h!BK18</f>
         <v>0</v>
       </c>
-      <c r="BL18" s="7">
+      <c r="BM18" s="7">
         <f>M!BL94*h!BL18</f>
         <v>0</v>
       </c>
-      <c r="BM18" s="6">
+      <c r="BN18" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -20347,7 +20364,7 @@
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
       <c r="AG19" s="11"/>
-      <c r="AH19" s="1"/>
+      <c r="AH19" s="11"/>
       <c r="AI19" s="1"/>
       <c r="AJ19" s="1"/>
       <c r="AK19" s="1"/>
@@ -20355,93 +20372,94 @@
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
-      <c r="AP19" s="4" t="s">
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AQ19" s="5">
+      <c r="AR19" s="5">
         <f>M!AQ95*h!AQ19</f>
         <v>0</v>
       </c>
-      <c r="AR19" s="5">
+      <c r="AS19" s="5">
         <f>M!AR95*h!AR19</f>
         <v>0</v>
       </c>
-      <c r="AS19" s="5">
+      <c r="AT19" s="5">
         <f>M!AS95*h!AS19</f>
         <v>0</v>
       </c>
-      <c r="AT19" s="5">
+      <c r="AU19" s="5">
         <f>M!AT95*h!AT19</f>
         <v>0</v>
       </c>
-      <c r="AU19" s="5">
+      <c r="AV19" s="5">
         <f>M!AU95*h!AU19</f>
         <v>0</v>
       </c>
-      <c r="AV19" s="5">
+      <c r="AW19" s="5">
         <f>M!AV95*h!AV19</f>
         <v>0</v>
       </c>
-      <c r="AW19" s="5">
+      <c r="AX19" s="5">
         <f>M!AW95*h!AW19</f>
         <v>0</v>
       </c>
-      <c r="AX19" s="5">
+      <c r="AY19" s="5">
         <f>M!AX95*h!AX19</f>
         <v>0</v>
       </c>
-      <c r="AY19" s="5">
+      <c r="AZ19" s="5">
         <f>M!AY95*h!AY19</f>
         <v>0</v>
       </c>
-      <c r="AZ19" s="5">
+      <c r="BA19" s="5">
         <f>M!AZ95*h!AZ19</f>
         <v>0</v>
       </c>
-      <c r="BA19" s="5">
+      <c r="BB19" s="5">
         <f>M!BA95*h!BA19</f>
         <v>0</v>
       </c>
-      <c r="BB19" s="5">
+      <c r="BC19" s="5">
         <f>M!BB95*h!BB19</f>
         <v>0</v>
       </c>
-      <c r="BC19" s="5">
+      <c r="BD19" s="5">
         <f>M!BC95*h!BC19</f>
         <v>0</v>
       </c>
-      <c r="BD19" s="5">
+      <c r="BE19" s="5">
         <f>M!BD95*h!BD19</f>
         <v>0</v>
       </c>
-      <c r="BE19" s="5">
+      <c r="BF19" s="5">
         <f>M!BE95*h!BE19</f>
         <v>0</v>
       </c>
-      <c r="BF19" s="6">
+      <c r="BG19" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG19" s="1"/>
       <c r="BH19" s="1"/>
       <c r="BI19" s="1"/>
-      <c r="BJ19" s="4" t="s">
+      <c r="BJ19" s="1"/>
+      <c r="BK19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="BK19" s="7">
+      <c r="BL19" s="7">
         <f>M!BK95*h!BK19</f>
         <v>0</v>
       </c>
-      <c r="BL19" s="7">
+      <c r="BM19" s="7">
         <f>M!BL95*h!BL19</f>
         <v>-22073.212235503393</v>
       </c>
-      <c r="BM19" s="6">
+      <c r="BN19" s="6">
         <f t="shared" si="0"/>
         <v>-22073.212235503393</v>
       </c>
     </row>
-    <row r="20" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -20473,7 +20491,7 @@
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
       <c r="AG20" s="11"/>
-      <c r="AH20" s="1"/>
+      <c r="AH20" s="11"/>
       <c r="AI20" s="1"/>
       <c r="AJ20" s="1"/>
       <c r="AK20" s="1"/>
@@ -20481,93 +20499,94 @@
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
-      <c r="AP20" s="10" t="s">
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="AQ20" s="5">
+      <c r="AR20" s="5">
         <f>M!AQ96*h!AQ20</f>
         <v>0</v>
       </c>
-      <c r="AR20" s="5">
+      <c r="AS20" s="5">
         <f>M!AR96*h!AR20</f>
         <v>0</v>
       </c>
-      <c r="AS20" s="5">
+      <c r="AT20" s="5">
         <f>M!AS96*h!AS20</f>
         <v>0</v>
       </c>
-      <c r="AT20" s="5">
+      <c r="AU20" s="5">
         <f>M!AT96*h!AT20</f>
         <v>0</v>
       </c>
-      <c r="AU20" s="5">
+      <c r="AV20" s="5">
         <f>M!AU96*h!AU20</f>
         <v>0</v>
       </c>
-      <c r="AV20" s="5">
+      <c r="AW20" s="5">
         <f>M!AV96*h!AV20</f>
         <v>0</v>
       </c>
-      <c r="AW20" s="5">
+      <c r="AX20" s="5">
         <f>M!AW96*h!AW20</f>
         <v>-6518321.9740549205</v>
       </c>
-      <c r="AX20" s="5">
+      <c r="AY20" s="5">
         <f>M!AX96*h!AX20</f>
         <v>0</v>
       </c>
-      <c r="AY20" s="5">
+      <c r="AZ20" s="5">
         <f>M!AY96*h!AY20</f>
         <v>0</v>
       </c>
-      <c r="AZ20" s="5">
+      <c r="BA20" s="5">
         <f>M!AZ96*h!AZ20</f>
         <v>0</v>
       </c>
-      <c r="BA20" s="5">
+      <c r="BB20" s="5">
         <f>M!BA96*h!BA20</f>
         <v>0</v>
       </c>
-      <c r="BB20" s="5">
+      <c r="BC20" s="5">
         <f>M!BB96*h!BB20</f>
         <v>0</v>
       </c>
-      <c r="BC20" s="5">
+      <c r="BD20" s="5">
         <f>M!BC96*h!BC20</f>
         <v>0</v>
       </c>
-      <c r="BD20" s="5">
+      <c r="BE20" s="5">
         <f>M!BD96*h!BD20</f>
         <v>0</v>
       </c>
-      <c r="BE20" s="5">
+      <c r="BF20" s="5">
         <f>M!BE96*h!BE20</f>
         <v>0</v>
       </c>
-      <c r="BF20" s="6">
+      <c r="BG20" s="6">
         <f t="shared" si="1"/>
         <v>-6518321.9740549205</v>
       </c>
-      <c r="BG20" s="1"/>
       <c r="BH20" s="1"/>
       <c r="BI20" s="1"/>
-      <c r="BJ20" s="10" t="s">
+      <c r="BJ20" s="1"/>
+      <c r="BK20" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="BK20" s="7">
+      <c r="BL20" s="7">
         <f>M!BK96*h!BK20</f>
         <v>0</v>
       </c>
-      <c r="BL20" s="7">
+      <c r="BM20" s="7">
         <f>M!BL96*h!BL20</f>
         <v>0</v>
       </c>
-      <c r="BM20" s="6">
+      <c r="BN20" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -20599,7 +20618,7 @@
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
       <c r="AG21" s="11"/>
-      <c r="AH21" s="1"/>
+      <c r="AH21" s="11"/>
       <c r="AI21" s="1"/>
       <c r="AJ21" s="1"/>
       <c r="AK21" s="1"/>
@@ -20607,93 +20626,94 @@
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="1"/>
-      <c r="AP21" s="10" t="s">
+      <c r="AP21" s="1"/>
+      <c r="AQ21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="AQ21" s="5">
+      <c r="AR21" s="5">
         <f>M!AQ97*h!AQ21</f>
         <v>0</v>
       </c>
-      <c r="AR21" s="5">
+      <c r="AS21" s="5">
         <f>M!AR97*h!AR21</f>
         <v>0</v>
       </c>
-      <c r="AS21" s="5">
+      <c r="AT21" s="5">
         <f>M!AS97*h!AS21</f>
         <v>0</v>
       </c>
-      <c r="AT21" s="5">
+      <c r="AU21" s="5">
         <f>M!AT97*h!AT21</f>
         <v>0</v>
       </c>
-      <c r="AU21" s="5">
+      <c r="AV21" s="5">
         <f>M!AU97*h!AU21</f>
         <v>0</v>
       </c>
-      <c r="AV21" s="5">
+      <c r="AW21" s="5">
         <f>M!AV97*h!AV21</f>
         <v>0</v>
       </c>
-      <c r="AW21" s="5">
+      <c r="AX21" s="5">
         <f>M!AW97*h!AW21</f>
         <v>0</v>
       </c>
-      <c r="AX21" s="5">
+      <c r="AY21" s="5">
         <f>M!AX97*h!AX21</f>
         <v>-2526033.0144413244</v>
       </c>
-      <c r="AY21" s="5">
+      <c r="AZ21" s="5">
         <f>M!AY97*h!AY21</f>
         <v>0</v>
       </c>
-      <c r="AZ21" s="5">
+      <c r="BA21" s="5">
         <f>M!AZ97*h!AZ21</f>
         <v>0</v>
       </c>
-      <c r="BA21" s="5">
+      <c r="BB21" s="5">
         <f>M!BA97*h!BA21</f>
         <v>0</v>
       </c>
-      <c r="BB21" s="5">
+      <c r="BC21" s="5">
         <f>M!BB97*h!BB21</f>
         <v>0</v>
       </c>
-      <c r="BC21" s="5">
+      <c r="BD21" s="5">
         <f>M!BC97*h!BC21</f>
         <v>0</v>
       </c>
-      <c r="BD21" s="5">
+      <c r="BE21" s="5">
         <f>M!BD97*h!BD21</f>
         <v>0</v>
       </c>
-      <c r="BE21" s="5">
+      <c r="BF21" s="5">
         <f>M!BE97*h!BE21</f>
         <v>0</v>
       </c>
-      <c r="BF21" s="6">
+      <c r="BG21" s="6">
         <f t="shared" si="1"/>
         <v>-2526033.0144413244</v>
       </c>
-      <c r="BG21" s="1"/>
       <c r="BH21" s="1"/>
       <c r="BI21" s="1"/>
-      <c r="BJ21" s="10" t="s">
+      <c r="BJ21" s="1"/>
+      <c r="BK21" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="BK21" s="7">
+      <c r="BL21" s="7">
         <f>M!BK97*h!BK21</f>
         <v>0</v>
       </c>
-      <c r="BL21" s="7">
+      <c r="BM21" s="7">
         <f>M!BL97*h!BL21</f>
         <v>0</v>
       </c>
-      <c r="BM21" s="6">
+      <c r="BN21" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -20725,7 +20745,7 @@
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
       <c r="AG22" s="11"/>
-      <c r="AH22" s="1"/>
+      <c r="AH22" s="11"/>
       <c r="AI22" s="1"/>
       <c r="AJ22" s="1"/>
       <c r="AK22" s="1"/>
@@ -20733,93 +20753,94 @@
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="1"/>
-      <c r="AP22" s="10" t="s">
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="AQ22" s="5">
+      <c r="AR22" s="5">
         <f>M!AQ98*h!AQ22</f>
         <v>0</v>
       </c>
-      <c r="AR22" s="5">
+      <c r="AS22" s="5">
         <f>M!AR98*h!AR22</f>
         <v>0</v>
       </c>
-      <c r="AS22" s="5">
+      <c r="AT22" s="5">
         <f>M!AS98*h!AS22</f>
         <v>0</v>
       </c>
-      <c r="AT22" s="5">
+      <c r="AU22" s="5">
         <f>M!AT98*h!AT22</f>
         <v>0</v>
       </c>
-      <c r="AU22" s="5">
+      <c r="AV22" s="5">
         <f>M!AU98*h!AU22</f>
         <v>0</v>
       </c>
-      <c r="AV22" s="5">
+      <c r="AW22" s="5">
         <f>M!AV98*h!AV22</f>
         <v>0</v>
       </c>
-      <c r="AW22" s="5">
+      <c r="AX22" s="5">
         <f>M!AW98*h!AW22</f>
         <v>0</v>
       </c>
-      <c r="AX22" s="5">
+      <c r="AY22" s="5">
         <f>M!AX98*h!AX22</f>
         <v>0</v>
       </c>
-      <c r="AY22" s="5">
+      <c r="AZ22" s="5">
         <f>M!AY98*h!AY22</f>
         <v>7797698.1720160255</v>
       </c>
-      <c r="AZ22" s="5">
+      <c r="BA22" s="5">
         <f>M!AZ98*h!AZ22</f>
         <v>0</v>
       </c>
-      <c r="BA22" s="5">
+      <c r="BB22" s="5">
         <f>M!BA98*h!BA22</f>
         <v>0</v>
       </c>
-      <c r="BB22" s="5">
+      <c r="BC22" s="5">
         <f>M!BB98*h!BB22</f>
         <v>0</v>
       </c>
-      <c r="BC22" s="5">
+      <c r="BD22" s="5">
         <f>M!BC98*h!BC22</f>
         <v>0</v>
       </c>
-      <c r="BD22" s="5">
+      <c r="BE22" s="5">
         <f>M!BD98*h!BD22</f>
         <v>0</v>
       </c>
-      <c r="BE22" s="5">
+      <c r="BF22" s="5">
         <f>M!BE98*h!BE22</f>
         <v>0</v>
       </c>
-      <c r="BF22" s="6">
+      <c r="BG22" s="6">
         <f t="shared" si="1"/>
         <v>7797698.1720160255</v>
       </c>
-      <c r="BG22" s="1"/>
       <c r="BH22" s="1"/>
       <c r="BI22" s="1"/>
-      <c r="BJ22" s="10" t="s">
+      <c r="BJ22" s="1"/>
+      <c r="BK22" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="BK22" s="7">
+      <c r="BL22" s="7">
         <f>M!BK98*h!BK22</f>
         <v>0</v>
       </c>
-      <c r="BL22" s="7">
+      <c r="BM22" s="7">
         <f>M!BL98*h!BL22</f>
         <v>0</v>
       </c>
-      <c r="BM22" s="6">
+      <c r="BN22" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -20851,7 +20872,7 @@
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
       <c r="AG23" s="12"/>
-      <c r="AH23" s="1"/>
+      <c r="AH23" s="12"/>
       <c r="AI23" s="1"/>
       <c r="AJ23" s="1"/>
       <c r="AK23" s="1"/>
@@ -20859,93 +20880,94 @@
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="1"/>
-      <c r="AP23" s="10" t="s">
+      <c r="AP23" s="1"/>
+      <c r="AQ23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="AQ23" s="5">
+      <c r="AR23" s="5">
         <f>M!AQ99*h!AQ23</f>
         <v>0</v>
       </c>
-      <c r="AR23" s="5">
+      <c r="AS23" s="5">
         <f>M!AR99*h!AR23</f>
         <v>0</v>
       </c>
-      <c r="AS23" s="5">
+      <c r="AT23" s="5">
         <f>M!AS99*h!AS23</f>
         <v>0</v>
       </c>
-      <c r="AT23" s="5">
+      <c r="AU23" s="5">
         <f>M!AT99*h!AT23</f>
         <v>0</v>
       </c>
-      <c r="AU23" s="5">
+      <c r="AV23" s="5">
         <f>M!AU99*h!AU23</f>
         <v>0</v>
       </c>
-      <c r="AV23" s="5">
+      <c r="AW23" s="5">
         <f>M!AV99*h!AV23</f>
         <v>0</v>
       </c>
-      <c r="AW23" s="5">
+      <c r="AX23" s="5">
         <f>M!AW99*h!AW23</f>
         <v>0</v>
       </c>
-      <c r="AX23" s="5">
+      <c r="AY23" s="5">
         <f>M!AX99*h!AX23</f>
         <v>0</v>
       </c>
-      <c r="AY23" s="5">
+      <c r="AZ23" s="5">
         <f>M!AY99*h!AY23</f>
         <v>0</v>
       </c>
-      <c r="AZ23" s="5">
+      <c r="BA23" s="5">
         <f>M!AZ99*h!AZ23</f>
         <v>0</v>
       </c>
-      <c r="BA23" s="5">
+      <c r="BB23" s="5">
         <f>M!BA99*h!BA23</f>
         <v>0</v>
       </c>
-      <c r="BB23" s="5">
+      <c r="BC23" s="5">
         <f>M!BB99*h!BB23</f>
         <v>0</v>
       </c>
-      <c r="BC23" s="5">
+      <c r="BD23" s="5">
         <f>M!BC99*h!BC23</f>
         <v>0</v>
       </c>
-      <c r="BD23" s="5">
+      <c r="BE23" s="5">
         <f>M!BD99*h!BD23</f>
         <v>-6350200.177331822</v>
       </c>
-      <c r="BE23" s="5">
+      <c r="BF23" s="5">
         <f>M!BE99*h!BE23</f>
         <v>0</v>
       </c>
-      <c r="BF23" s="6">
+      <c r="BG23" s="6">
         <f t="shared" si="1"/>
         <v>-6350200.177331822</v>
       </c>
-      <c r="BG23" s="1"/>
       <c r="BH23" s="1"/>
       <c r="BI23" s="1"/>
-      <c r="BJ23" s="10" t="s">
+      <c r="BJ23" s="1"/>
+      <c r="BK23" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="BK23" s="7">
+      <c r="BL23" s="7">
         <f>M!BK99*h!BK23</f>
         <v>0</v>
       </c>
-      <c r="BL23" s="7">
+      <c r="BM23" s="7">
         <f>M!BL99*h!BL23</f>
         <v>0</v>
       </c>
-      <c r="BM23" s="6">
+      <c r="BN23" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -20977,7 +20999,7 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="11"/>
-      <c r="AH24" s="1"/>
+      <c r="AH24" s="11"/>
       <c r="AI24" s="1"/>
       <c r="AJ24" s="1"/>
       <c r="AK24" s="1"/>
@@ -20985,93 +21007,94 @@
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="1"/>
-      <c r="AP24" s="11" t="s">
+      <c r="AP24" s="1"/>
+      <c r="AQ24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AQ24" s="5">
+      <c r="AR24" s="5">
         <f>M!AQ100*h!AQ24</f>
         <v>0</v>
       </c>
-      <c r="AR24" s="5">
+      <c r="AS24" s="5">
         <f>M!AR100*h!AR24</f>
         <v>0</v>
       </c>
-      <c r="AS24" s="5">
+      <c r="AT24" s="5">
         <f>M!AS100*h!AS24</f>
         <v>0</v>
       </c>
-      <c r="AT24" s="5">
+      <c r="AU24" s="5">
         <f>M!AT100*h!AT24</f>
         <v>0</v>
       </c>
-      <c r="AU24" s="5">
+      <c r="AV24" s="5">
         <f>M!AU100*h!AU24</f>
         <v>0</v>
       </c>
-      <c r="AV24" s="5">
+      <c r="AW24" s="5">
         <f>M!AV100*h!AV24</f>
         <v>0</v>
       </c>
-      <c r="AW24" s="5">
+      <c r="AX24" s="5">
         <f>M!AW100*h!AW24</f>
         <v>0</v>
       </c>
-      <c r="AX24" s="5">
+      <c r="AY24" s="5">
         <f>M!AX100*h!AX24</f>
         <v>0</v>
       </c>
-      <c r="AY24" s="5">
+      <c r="AZ24" s="5">
         <f>M!AY100*h!AY24</f>
         <v>0</v>
       </c>
-      <c r="AZ24" s="5">
+      <c r="BA24" s="5">
         <f>M!AZ100*h!AZ24</f>
         <v>0</v>
       </c>
-      <c r="BA24" s="5">
+      <c r="BB24" s="5">
         <f>M!BA100*h!BA24</f>
         <v>0</v>
       </c>
-      <c r="BB24" s="5">
+      <c r="BC24" s="5">
         <f>M!BB100*h!BB24</f>
         <v>0</v>
       </c>
-      <c r="BC24" s="5">
+      <c r="BD24" s="5">
         <f>M!BC100*h!BC24</f>
         <v>0</v>
       </c>
-      <c r="BD24" s="5">
+      <c r="BE24" s="5">
         <f>M!BD100*h!BD24</f>
         <v>0</v>
       </c>
-      <c r="BE24" s="5">
+      <c r="BF24" s="5">
         <f>M!BE100*h!BE24</f>
         <v>0</v>
       </c>
-      <c r="BF24" s="6">
+      <c r="BG24" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG24" s="13"/>
       <c r="BH24" s="13"/>
-      <c r="BI24" s="1"/>
-      <c r="BJ24" s="11" t="s">
+      <c r="BI24" s="13"/>
+      <c r="BJ24" s="1"/>
+      <c r="BK24" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="BK24" s="7">
+      <c r="BL24" s="7">
         <f>M!BK100*h!BK24</f>
         <v>0</v>
       </c>
-      <c r="BL24" s="7">
+      <c r="BM24" s="7">
         <f>M!BL100*h!BL24</f>
         <v>-168121.79672309788</v>
       </c>
-      <c r="BM24" s="6">
+      <c r="BN24" s="6">
         <f t="shared" si="0"/>
         <v>-168121.79672309788</v>
       </c>
     </row>
-    <row r="25" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -21103,7 +21126,7 @@
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="11"/>
-      <c r="AH25" s="1"/>
+      <c r="AH25" s="11"/>
       <c r="AI25" s="1"/>
       <c r="AJ25" s="1"/>
       <c r="AK25" s="1"/>
@@ -21111,93 +21134,94 @@
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="1"/>
-      <c r="AP25" s="11" t="s">
+      <c r="AP25" s="1"/>
+      <c r="AQ25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AQ25" s="5">
+      <c r="AR25" s="5">
         <f>M!AQ101*h!AQ25</f>
         <v>0</v>
       </c>
-      <c r="AR25" s="5">
+      <c r="AS25" s="5">
         <f>M!AR101*h!AR25</f>
         <v>0</v>
       </c>
-      <c r="AS25" s="5">
+      <c r="AT25" s="5">
         <f>M!AS101*h!AS25</f>
         <v>0</v>
       </c>
-      <c r="AT25" s="5">
+      <c r="AU25" s="5">
         <f>M!AT101*h!AT25</f>
         <v>0</v>
       </c>
-      <c r="AU25" s="5">
+      <c r="AV25" s="5">
         <f>M!AU101*h!AU25</f>
         <v>0</v>
       </c>
-      <c r="AV25" s="5">
+      <c r="AW25" s="5">
         <f>M!AV101*h!AV25</f>
         <v>0</v>
       </c>
-      <c r="AW25" s="5">
+      <c r="AX25" s="5">
         <f>M!AW101*h!AW25</f>
         <v>0</v>
       </c>
-      <c r="AX25" s="5">
+      <c r="AY25" s="5">
         <f>M!AX101*h!AX25</f>
         <v>0</v>
       </c>
-      <c r="AY25" s="5">
+      <c r="AZ25" s="5">
         <f>M!AY101*h!AY25</f>
         <v>0</v>
       </c>
-      <c r="AZ25" s="5">
+      <c r="BA25" s="5">
         <f>M!AZ101*h!AZ25</f>
         <v>-2526033.0144413244</v>
       </c>
-      <c r="BA25" s="5">
+      <c r="BB25" s="5">
         <f>M!BA101*h!BA25</f>
         <v>0</v>
       </c>
-      <c r="BB25" s="5">
+      <c r="BC25" s="5">
         <f>M!BB101*h!BB25</f>
         <v>0</v>
       </c>
-      <c r="BC25" s="5">
+      <c r="BD25" s="5">
         <f>M!BC101*h!BC25</f>
         <v>0</v>
       </c>
-      <c r="BD25" s="5">
+      <c r="BE25" s="5">
         <f>M!BD101*h!BD25</f>
         <v>0</v>
       </c>
-      <c r="BE25" s="5">
+      <c r="BF25" s="5">
         <f>M!BE101*h!BE25</f>
         <v>0</v>
       </c>
-      <c r="BF25" s="6">
+      <c r="BG25" s="6">
         <f t="shared" si="1"/>
         <v>-2526033.0144413244</v>
       </c>
-      <c r="BG25" s="1"/>
       <c r="BH25" s="1"/>
       <c r="BI25" s="1"/>
-      <c r="BJ25" s="11" t="s">
+      <c r="BJ25" s="1"/>
+      <c r="BK25" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="BK25" s="7">
+      <c r="BL25" s="7">
         <f>M!BK101*h!BK25</f>
         <v>0</v>
       </c>
-      <c r="BL25" s="7">
+      <c r="BM25" s="7">
         <f>M!BL101*h!BL25</f>
         <v>0</v>
       </c>
-      <c r="BM25" s="6">
+      <c r="BN25" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -21229,7 +21253,7 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="11"/>
-      <c r="AH26" s="1"/>
+      <c r="AH26" s="11"/>
       <c r="AI26" s="1"/>
       <c r="AJ26" s="1"/>
       <c r="AK26" s="1"/>
@@ -21237,93 +21261,94 @@
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
-      <c r="AP26" s="11" t="s">
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="AQ26" s="5">
+      <c r="AR26" s="5">
         <f>M!AQ102*h!AQ26</f>
         <v>0</v>
       </c>
-      <c r="AR26" s="5">
+      <c r="AS26" s="5">
         <f>M!AR102*h!AR26</f>
         <v>0</v>
       </c>
-      <c r="AS26" s="5">
+      <c r="AT26" s="5">
         <f>M!AS102*h!AS26</f>
         <v>0</v>
       </c>
-      <c r="AT26" s="5">
+      <c r="AU26" s="5">
         <f>M!AT102*h!AT26</f>
         <v>0</v>
       </c>
-      <c r="AU26" s="5">
+      <c r="AV26" s="5">
         <f>M!AU102*h!AU26</f>
         <v>0</v>
       </c>
-      <c r="AV26" s="5">
+      <c r="AW26" s="5">
         <f>M!AV102*h!AV26</f>
         <v>0</v>
       </c>
-      <c r="AW26" s="5">
+      <c r="AX26" s="5">
         <f>M!AW102*h!AW26</f>
         <v>0</v>
       </c>
-      <c r="AX26" s="5">
+      <c r="AY26" s="5">
         <f>M!AX102*h!AX26</f>
         <v>0</v>
       </c>
-      <c r="AY26" s="5">
+      <c r="AZ26" s="5">
         <f>M!AY102*h!AY26</f>
         <v>0</v>
       </c>
-      <c r="AZ26" s="5">
+      <c r="BA26" s="5">
         <f>M!AZ102*h!AZ26</f>
         <v>0</v>
       </c>
-      <c r="BA26" s="5">
+      <c r="BB26" s="5">
         <f>M!BA102*h!BA26</f>
         <v>7797698.1720160255</v>
       </c>
-      <c r="BB26" s="5">
+      <c r="BC26" s="5">
         <f>M!BB102*h!BB26</f>
         <v>0</v>
       </c>
-      <c r="BC26" s="5">
+      <c r="BD26" s="5">
         <f>M!BC102*h!BC26</f>
         <v>0</v>
       </c>
-      <c r="BD26" s="5">
+      <c r="BE26" s="5">
         <f>M!BD102*h!BD26</f>
         <v>0</v>
       </c>
-      <c r="BE26" s="5">
+      <c r="BF26" s="5">
         <f>M!BE102*h!BE26</f>
         <v>0</v>
       </c>
-      <c r="BF26" s="6">
+      <c r="BG26" s="6">
         <f t="shared" si="1"/>
         <v>7797698.1720160255</v>
       </c>
-      <c r="BG26" s="1"/>
       <c r="BH26" s="1"/>
       <c r="BI26" s="1"/>
-      <c r="BJ26" s="11" t="s">
+      <c r="BJ26" s="1"/>
+      <c r="BK26" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="BK26" s="7">
+      <c r="BL26" s="7">
         <f>M!BK102*h!BK26</f>
         <v>0</v>
       </c>
-      <c r="BL26" s="7">
+      <c r="BM26" s="7">
         <f>M!BL102*h!BL26</f>
         <v>0</v>
       </c>
-      <c r="BM26" s="6">
+      <c r="BN26" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -21355,7 +21380,7 @@
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="11"/>
-      <c r="AH27" s="1"/>
+      <c r="AH27" s="11"/>
       <c r="AI27" s="1"/>
       <c r="AJ27" s="1"/>
       <c r="AK27" s="1"/>
@@ -21363,93 +21388,94 @@
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="1"/>
-      <c r="AP27" s="11" t="s">
+      <c r="AP27" s="1"/>
+      <c r="AQ27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AQ27" s="5">
+      <c r="AR27" s="5">
         <f>M!AQ103*h!AQ27</f>
         <v>0</v>
       </c>
-      <c r="AR27" s="5">
+      <c r="AS27" s="5">
         <f>M!AR103*h!AR27</f>
         <v>0</v>
       </c>
-      <c r="AS27" s="5">
+      <c r="AT27" s="5">
         <f>M!AS103*h!AS27</f>
         <v>0</v>
       </c>
-      <c r="AT27" s="5">
+      <c r="AU27" s="5">
         <f>M!AT103*h!AT27</f>
         <v>0</v>
       </c>
-      <c r="AU27" s="5">
+      <c r="AV27" s="5">
         <f>M!AU103*h!AU27</f>
         <v>0</v>
       </c>
-      <c r="AV27" s="5">
+      <c r="AW27" s="5">
         <f>M!AV103*h!AV27</f>
         <v>0</v>
       </c>
-      <c r="AW27" s="5">
+      <c r="AX27" s="5">
         <f>M!AW103*h!AW27</f>
         <v>0</v>
       </c>
-      <c r="AX27" s="5">
+      <c r="AY27" s="5">
         <f>M!AX103*h!AX27</f>
         <v>0</v>
       </c>
-      <c r="AY27" s="5">
+      <c r="AZ27" s="5">
         <f>M!AY103*h!AY27</f>
         <v>0</v>
       </c>
-      <c r="AZ27" s="5">
+      <c r="BA27" s="5">
         <f>M!AZ103*h!AZ27</f>
         <v>0</v>
       </c>
-      <c r="BA27" s="5">
+      <c r="BB27" s="5">
         <f>M!BA103*h!BA27</f>
         <v>0</v>
       </c>
-      <c r="BB27" s="5">
+      <c r="BC27" s="5">
         <f>M!BB103*h!BB27</f>
         <v>0</v>
       </c>
-      <c r="BC27" s="5">
+      <c r="BD27" s="5">
         <f>M!BC103*h!BC27</f>
         <v>0</v>
       </c>
-      <c r="BD27" s="5">
+      <c r="BE27" s="5">
         <f>M!BD103*h!BD27</f>
         <v>-1256817.6045988721</v>
       </c>
-      <c r="BE27" s="5">
+      <c r="BF27" s="5">
         <f>M!BE103*h!BE27</f>
         <v>0</v>
       </c>
-      <c r="BF27" s="6">
+      <c r="BG27" s="6">
         <f t="shared" si="1"/>
         <v>-1256817.6045988721</v>
       </c>
-      <c r="BG27" s="1"/>
       <c r="BH27" s="1"/>
       <c r="BI27" s="1"/>
-      <c r="BJ27" s="11" t="s">
+      <c r="BJ27" s="1"/>
+      <c r="BK27" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="BK27" s="7">
+      <c r="BL27" s="7">
         <f>M!BK103*h!BK27</f>
         <v>0</v>
       </c>
-      <c r="BL27" s="7">
+      <c r="BM27" s="7">
         <f>M!BL103*h!BL27</f>
         <v>0</v>
       </c>
-      <c r="BM27" s="6">
+      <c r="BN27" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -21481,7 +21507,7 @@
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="11"/>
-      <c r="AH28" s="1"/>
+      <c r="AH28" s="11"/>
       <c r="AI28" s="1"/>
       <c r="AJ28" s="1"/>
       <c r="AK28" s="1"/>
@@ -21489,93 +21515,94 @@
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
-      <c r="AP28" s="11" t="s">
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AQ28" s="5">
+      <c r="AR28" s="5">
         <f>M!AQ104*h!AQ28</f>
         <v>0</v>
       </c>
-      <c r="AR28" s="5">
+      <c r="AS28" s="5">
         <f>M!AR104*h!AR28</f>
         <v>0</v>
       </c>
-      <c r="AS28" s="5">
+      <c r="AT28" s="5">
         <f>M!AS104*h!AS28</f>
         <v>0</v>
       </c>
-      <c r="AT28" s="5">
+      <c r="AU28" s="5">
         <f>M!AT104*h!AT28</f>
         <v>0</v>
       </c>
-      <c r="AU28" s="5">
+      <c r="AV28" s="5">
         <f>M!AU104*h!AU28</f>
         <v>0</v>
       </c>
-      <c r="AV28" s="5">
+      <c r="AW28" s="5">
         <f>M!AV104*h!AV28</f>
         <v>0</v>
       </c>
-      <c r="AW28" s="5">
+      <c r="AX28" s="5">
         <f>M!AW104*h!AW28</f>
         <v>0</v>
       </c>
-      <c r="AX28" s="5">
+      <c r="AY28" s="5">
         <f>M!AX104*h!AX28</f>
         <v>0</v>
       </c>
-      <c r="AY28" s="5">
+      <c r="AZ28" s="5">
         <f>M!AY104*h!AY28</f>
         <v>0</v>
       </c>
-      <c r="AZ28" s="5">
+      <c r="BA28" s="5">
         <f>M!AZ104*h!AZ28</f>
         <v>0</v>
       </c>
-      <c r="BA28" s="5">
+      <c r="BB28" s="5">
         <f>M!BA104*h!BA28</f>
         <v>0</v>
       </c>
-      <c r="BB28" s="5">
+      <c r="BC28" s="5">
         <f>M!BB104*h!BB28</f>
         <v>0</v>
       </c>
-      <c r="BC28" s="5">
+      <c r="BD28" s="5">
         <f>M!BC104*h!BC28</f>
         <v>0</v>
       </c>
-      <c r="BD28" s="5">
+      <c r="BE28" s="5">
         <f>M!BD104*h!BD28</f>
         <v>0</v>
       </c>
-      <c r="BE28" s="5">
+      <c r="BF28" s="5">
         <f>M!BE104*h!BE28</f>
         <v>0</v>
       </c>
-      <c r="BF28" s="6">
+      <c r="BG28" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG28" s="1"/>
       <c r="BH28" s="1"/>
       <c r="BI28" s="1"/>
-      <c r="BJ28" s="11" t="s">
+      <c r="BJ28" s="1"/>
+      <c r="BK28" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="BK28" s="7">
+      <c r="BL28" s="7">
         <f>M!BK104*h!BK28</f>
         <v>0</v>
       </c>
-      <c r="BL28" s="7">
+      <c r="BM28" s="7">
         <f>M!BL104*h!BL28</f>
         <v>-74404.460335125405</v>
       </c>
-      <c r="BM28" s="6">
+      <c r="BN28" s="6">
         <f t="shared" si="0"/>
         <v>-74404.460335125405</v>
       </c>
     </row>
-    <row r="29" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -21607,7 +21634,7 @@
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="11"/>
-      <c r="AH29" s="1"/>
+      <c r="AH29" s="11"/>
       <c r="AI29" s="1"/>
       <c r="AJ29" s="1"/>
       <c r="AK29" s="1"/>
@@ -21615,93 +21642,94 @@
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="1"/>
-      <c r="AP29" s="11" t="s">
+      <c r="AP29" s="1"/>
+      <c r="AQ29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="AQ29" s="5">
+      <c r="AR29" s="5">
         <f>M!AQ105*h!AQ29</f>
         <v>0</v>
       </c>
-      <c r="AR29" s="5">
+      <c r="AS29" s="5">
         <f>M!AR105*h!AR29</f>
         <v>0</v>
       </c>
-      <c r="AS29" s="5">
+      <c r="AT29" s="5">
         <f>M!AS105*h!AS29</f>
         <v>0</v>
       </c>
-      <c r="AT29" s="5">
+      <c r="AU29" s="5">
         <f>M!AT105*h!AT29</f>
         <v>0</v>
       </c>
-      <c r="AU29" s="5">
+      <c r="AV29" s="5">
         <f>M!AU105*h!AU29</f>
         <v>0</v>
       </c>
-      <c r="AV29" s="5">
+      <c r="AW29" s="5">
         <f>M!AV105*h!AV29</f>
         <v>0</v>
       </c>
-      <c r="AW29" s="5">
+      <c r="AX29" s="5">
         <f>M!AW105*h!AW29</f>
         <v>0</v>
       </c>
-      <c r="AX29" s="5">
+      <c r="AY29" s="5">
         <f>M!AX105*h!AX29</f>
         <v>0</v>
       </c>
-      <c r="AY29" s="5">
+      <c r="AZ29" s="5">
         <f>M!AY105*h!AY29</f>
         <v>0</v>
       </c>
-      <c r="AZ29" s="5">
+      <c r="BA29" s="5">
         <f>M!AZ105*h!AZ29</f>
         <v>0</v>
       </c>
-      <c r="BA29" s="5">
+      <c r="BB29" s="5">
         <f>M!BA105*h!BA29</f>
         <v>0</v>
       </c>
-      <c r="BB29" s="5">
+      <c r="BC29" s="5">
         <f>M!BB105*h!BB29</f>
         <v>0</v>
       </c>
-      <c r="BC29" s="5">
+      <c r="BD29" s="5">
         <f>M!BC105*h!BC29</f>
         <v>0</v>
       </c>
-      <c r="BD29" s="5">
+      <c r="BE29" s="5">
         <f>M!BD105*h!BD29</f>
         <v>0</v>
       </c>
-      <c r="BE29" s="5">
+      <c r="BF29" s="5">
         <f>M!BE105*h!BE29</f>
         <v>0</v>
       </c>
-      <c r="BF29" s="6">
+      <c r="BG29" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG29" s="1"/>
       <c r="BH29" s="1"/>
       <c r="BI29" s="1"/>
-      <c r="BJ29" s="11" t="s">
+      <c r="BJ29" s="1"/>
+      <c r="BK29" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="BK29" s="7">
+      <c r="BL29" s="7">
         <f>M!BK105*h!BK29</f>
         <v>0</v>
       </c>
-      <c r="BL29" s="7">
+      <c r="BM29" s="7">
         <f>M!BL105*h!BL29</f>
         <v>-4958954.8570276452</v>
       </c>
-      <c r="BM29" s="6">
+      <c r="BN29" s="6">
         <f t="shared" si="0"/>
         <v>-4958954.8570276452</v>
       </c>
     </row>
-    <row r="30" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -21733,7 +21761,7 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="11"/>
-      <c r="AH30" s="1"/>
+      <c r="AH30" s="11"/>
       <c r="AI30" s="1"/>
       <c r="AJ30" s="1"/>
       <c r="AK30" s="1"/>
@@ -21741,93 +21769,94 @@
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
-      <c r="AP30" s="11" t="s">
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AQ30" s="5">
+      <c r="AR30" s="5">
         <f>M!AQ106*h!AQ30</f>
         <v>0</v>
       </c>
-      <c r="AR30" s="5">
+      <c r="AS30" s="5">
         <f>M!AR106*h!AR30</f>
         <v>0</v>
       </c>
-      <c r="AS30" s="5">
+      <c r="AT30" s="5">
         <f>M!AS106*h!AS30</f>
         <v>0</v>
       </c>
-      <c r="AT30" s="5">
+      <c r="AU30" s="5">
         <f>M!AT106*h!AT30</f>
         <v>0</v>
       </c>
-      <c r="AU30" s="5">
+      <c r="AV30" s="5">
         <f>M!AU106*h!AU30</f>
         <v>0</v>
       </c>
-      <c r="AV30" s="5">
+      <c r="AW30" s="5">
         <f>M!AV106*h!AV30</f>
         <v>0</v>
       </c>
-      <c r="AW30" s="5">
+      <c r="AX30" s="5">
         <f>M!AW106*h!AW30</f>
         <v>0</v>
       </c>
-      <c r="AX30" s="5">
+      <c r="AY30" s="5">
         <f>M!AX106*h!AX30</f>
         <v>0</v>
       </c>
-      <c r="AY30" s="5">
+      <c r="AZ30" s="5">
         <f>M!AY106*h!AY30</f>
         <v>0</v>
       </c>
-      <c r="AZ30" s="5">
+      <c r="BA30" s="5">
         <f>M!AZ106*h!AZ30</f>
         <v>0</v>
       </c>
-      <c r="BA30" s="5">
+      <c r="BB30" s="5">
         <f>M!BA106*h!BA30</f>
         <v>0</v>
       </c>
-      <c r="BB30" s="5">
+      <c r="BC30" s="5">
         <f>M!BB106*h!BB30</f>
         <v>0</v>
       </c>
-      <c r="BC30" s="5">
+      <c r="BD30" s="5">
         <f>M!BC106*h!BC30</f>
         <v>0</v>
       </c>
-      <c r="BD30" s="5">
+      <c r="BE30" s="5">
         <f>M!BD106*h!BD30</f>
         <v>0</v>
       </c>
-      <c r="BE30" s="5">
+      <c r="BF30" s="5">
         <f>M!BE106*h!BE30</f>
         <v>0</v>
       </c>
-      <c r="BF30" s="6">
+      <c r="BG30" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG30" s="1"/>
       <c r="BH30" s="1"/>
       <c r="BI30" s="1"/>
-      <c r="BJ30" s="11" t="s">
+      <c r="BJ30" s="1"/>
+      <c r="BK30" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="BK30" s="7">
+      <c r="BL30" s="7">
         <f>M!BK106*h!BK30</f>
         <v>0</v>
       </c>
-      <c r="BL30" s="7">
+      <c r="BM30" s="7">
         <f>M!BL106*h!BL30</f>
         <v>0</v>
       </c>
-      <c r="BM30" s="6">
+      <c r="BN30" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -21859,7 +21888,7 @@
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="11"/>
-      <c r="AH31" s="1"/>
+      <c r="AH31" s="11"/>
       <c r="AI31" s="1"/>
       <c r="AJ31" s="1"/>
       <c r="AK31" s="1"/>
@@ -21867,93 +21896,94 @@
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
-      <c r="AP31" s="12" t="s">
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AQ31" s="5">
+      <c r="AR31" s="5">
         <f>M!AQ107*h!AQ31</f>
         <v>0</v>
       </c>
-      <c r="AR31" s="5">
+      <c r="AS31" s="5">
         <f>M!AR107*h!AR31</f>
         <v>0</v>
       </c>
-      <c r="AS31" s="5">
+      <c r="AT31" s="5">
         <f>M!AS107*h!AS31</f>
         <v>0</v>
       </c>
-      <c r="AT31" s="5">
+      <c r="AU31" s="5">
         <f>M!AT107*h!AT31</f>
         <v>0</v>
       </c>
-      <c r="AU31" s="5">
+      <c r="AV31" s="5">
         <f>M!AU107*h!AU31</f>
         <v>0</v>
       </c>
-      <c r="AV31" s="5">
+      <c r="AW31" s="5">
         <f>M!AV107*h!AV31</f>
         <v>0</v>
       </c>
-      <c r="AW31" s="5">
+      <c r="AX31" s="5">
         <f>M!AW107*h!AW31</f>
         <v>0</v>
       </c>
-      <c r="AX31" s="5">
+      <c r="AY31" s="5">
         <f>M!AX107*h!AX31</f>
         <v>0</v>
       </c>
-      <c r="AY31" s="5">
+      <c r="AZ31" s="5">
         <f>M!AY107*h!AY31</f>
         <v>0</v>
       </c>
-      <c r="AZ31" s="5">
+      <c r="BA31" s="5">
         <f>M!AZ107*h!AZ31</f>
         <v>0</v>
       </c>
-      <c r="BA31" s="5">
+      <c r="BB31" s="5">
         <f>M!BA107*h!BA31</f>
         <v>0</v>
       </c>
-      <c r="BB31" s="5">
+      <c r="BC31" s="5">
         <f>M!BB107*h!BB31</f>
         <v>-18462.919202332854</v>
       </c>
-      <c r="BC31" s="5">
+      <c r="BD31" s="5">
         <f>M!BC107*h!BC31</f>
         <v>0</v>
       </c>
-      <c r="BD31" s="5">
+      <c r="BE31" s="5">
         <f>M!BD107*h!BD31</f>
         <v>0</v>
       </c>
-      <c r="BE31" s="5">
+      <c r="BF31" s="5">
         <f>M!BE107*h!BE31</f>
         <v>0</v>
       </c>
-      <c r="BF31" s="6">
+      <c r="BG31" s="6">
         <f t="shared" si="1"/>
         <v>-18462.919202332854</v>
       </c>
-      <c r="BG31" s="1"/>
       <c r="BH31" s="1"/>
       <c r="BI31" s="1"/>
-      <c r="BJ31" s="12" t="s">
+      <c r="BJ31" s="1"/>
+      <c r="BK31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="BK31" s="7">
+      <c r="BL31" s="7">
         <f>M!BK107*h!BK31</f>
         <v>0</v>
       </c>
-      <c r="BL31" s="7">
+      <c r="BM31" s="7">
         <f>M!BL107*h!BL31</f>
         <v>0</v>
       </c>
-      <c r="BM31" s="6">
+      <c r="BN31" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -21985,7 +22015,7 @@
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="11"/>
-      <c r="AH32" s="1"/>
+      <c r="AH32" s="11"/>
       <c r="AI32" s="1"/>
       <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
@@ -21993,93 +22023,94 @@
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
-      <c r="AP32" s="11" t="s">
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="AQ32" s="5">
+      <c r="AR32" s="5">
         <f>M!AQ108*h!AQ32</f>
         <v>0</v>
       </c>
-      <c r="AR32" s="5">
+      <c r="AS32" s="5">
         <f>M!AR108*h!AR32</f>
         <v>0</v>
       </c>
-      <c r="AS32" s="5">
+      <c r="AT32" s="5">
         <f>M!AS108*h!AS32</f>
         <v>0</v>
       </c>
-      <c r="AT32" s="5">
+      <c r="AU32" s="5">
         <f>M!AT108*h!AT32</f>
         <v>0</v>
       </c>
-      <c r="AU32" s="5">
+      <c r="AV32" s="5">
         <f>M!AU108*h!AU32</f>
         <v>0</v>
       </c>
-      <c r="AV32" s="5">
+      <c r="AW32" s="5">
         <f>M!AV108*h!AV32</f>
         <v>0</v>
       </c>
-      <c r="AW32" s="5">
+      <c r="AX32" s="5">
         <f>M!AW108*h!AW32</f>
         <v>0</v>
       </c>
-      <c r="AX32" s="5">
+      <c r="AY32" s="5">
         <f>M!AX108*h!AX32</f>
         <v>0</v>
       </c>
-      <c r="AY32" s="5">
+      <c r="AZ32" s="5">
         <f>M!AY108*h!AY32</f>
         <v>0</v>
       </c>
-      <c r="AZ32" s="5">
+      <c r="BA32" s="5">
         <f>M!AZ108*h!AZ32</f>
         <v>0</v>
       </c>
-      <c r="BA32" s="5">
+      <c r="BB32" s="5">
         <f>M!BA108*h!BA32</f>
         <v>0</v>
       </c>
-      <c r="BB32" s="5">
+      <c r="BC32" s="5">
         <f>M!BB108*h!BB32</f>
         <v>0</v>
       </c>
-      <c r="BC32" s="5">
+      <c r="BD32" s="5">
         <f>M!BC108*h!BC32</f>
         <v>0</v>
       </c>
-      <c r="BD32" s="5">
+      <c r="BE32" s="5">
         <f>M!BD108*h!BD32</f>
         <v>0</v>
       </c>
-      <c r="BE32" s="5">
+      <c r="BF32" s="5">
         <f>M!BE108*h!BE32</f>
         <v>0</v>
       </c>
-      <c r="BF32" s="6">
+      <c r="BG32" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG32" s="1"/>
       <c r="BH32" s="1"/>
       <c r="BI32" s="1"/>
-      <c r="BJ32" s="11" t="s">
+      <c r="BJ32" s="1"/>
+      <c r="BK32" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="BK32" s="7">
+      <c r="BL32" s="7">
         <f>M!BK108*h!BK32</f>
         <v>0</v>
       </c>
-      <c r="BL32" s="7">
+      <c r="BM32" s="7">
         <f>M!BL108*h!BL32</f>
         <v>-275482.6770876646</v>
       </c>
-      <c r="BM32" s="6">
+      <c r="BN32" s="6">
         <f t="shared" si="0"/>
         <v>-275482.6770876646</v>
       </c>
     </row>
-    <row r="33" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -22111,7 +22142,7 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="11"/>
-      <c r="AH33" s="1"/>
+      <c r="AH33" s="11"/>
       <c r="AI33" s="1"/>
       <c r="AJ33" s="1"/>
       <c r="AK33" s="1"/>
@@ -22119,93 +22150,94 @@
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
-      <c r="AP33" s="4" t="s">
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="AQ33" s="5">
+      <c r="AR33" s="5">
         <f>M!AQ109*h!AQ33</f>
         <v>0</v>
       </c>
-      <c r="AR33" s="5">
+      <c r="AS33" s="5">
         <f>M!AR109*h!AR33</f>
         <v>0</v>
       </c>
-      <c r="AS33" s="5">
+      <c r="AT33" s="5">
         <f>M!AS109*h!AS33</f>
         <v>0</v>
       </c>
-      <c r="AT33" s="5">
+      <c r="AU33" s="5">
         <f>M!AT109*h!AT33</f>
         <v>0</v>
       </c>
-      <c r="AU33" s="5">
+      <c r="AV33" s="5">
         <f>M!AU109*h!AU33</f>
         <v>0</v>
       </c>
-      <c r="AV33" s="5">
+      <c r="AW33" s="5">
         <f>M!AV109*h!AV33</f>
         <v>0</v>
       </c>
-      <c r="AW33" s="5">
+      <c r="AX33" s="5">
         <f>M!AW109*h!AW33</f>
         <v>0</v>
       </c>
-      <c r="AX33" s="5">
+      <c r="AY33" s="5">
         <f>M!AX109*h!AX33</f>
         <v>0</v>
       </c>
-      <c r="AY33" s="5">
+      <c r="AZ33" s="5">
         <f>M!AY109*h!AY33</f>
         <v>0</v>
       </c>
-      <c r="AZ33" s="5">
+      <c r="BA33" s="5">
         <f>M!AZ109*h!AZ33</f>
         <v>0</v>
       </c>
-      <c r="BA33" s="5">
+      <c r="BB33" s="5">
         <f>M!BA109*h!BA33</f>
         <v>0</v>
       </c>
-      <c r="BB33" s="5">
+      <c r="BC33" s="5">
         <f>M!BB109*h!BB33</f>
         <v>0</v>
       </c>
-      <c r="BC33" s="5">
+      <c r="BD33" s="5">
         <f>M!BC109*h!BC33</f>
         <v>0</v>
       </c>
-      <c r="BD33" s="5">
+      <c r="BE33" s="5">
         <f>M!BD109*h!BD33</f>
         <v>0</v>
       </c>
-      <c r="BE33" s="5">
+      <c r="BF33" s="5">
         <f>M!BE109*h!BE33</f>
         <v>0</v>
       </c>
-      <c r="BF33" s="6">
+      <c r="BG33" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG33" s="1"/>
       <c r="BH33" s="1"/>
       <c r="BI33" s="1"/>
-      <c r="BJ33" s="4" t="s">
+      <c r="BJ33" s="1"/>
+      <c r="BK33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="BK33" s="7">
+      <c r="BL33" s="7">
         <f>M!BK109*h!BK33</f>
         <v>0</v>
       </c>
-      <c r="BL33" s="7">
+      <c r="BM33" s="7">
         <f>M!BL109*h!BL33</f>
         <v>-1849221.9569422239</v>
       </c>
-      <c r="BM33" s="6">
+      <c r="BN33" s="6">
         <f t="shared" si="0"/>
         <v>-1849221.9569422239</v>
       </c>
     </row>
-    <row r="34" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -22237,7 +22269,7 @@
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
       <c r="AG34" s="11"/>
-      <c r="AH34" s="1"/>
+      <c r="AH34" s="11"/>
       <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
       <c r="AK34" s="1"/>
@@ -22245,93 +22277,94 @@
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="1"/>
-      <c r="AP34" s="11" t="s">
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="AQ34" s="5">
+      <c r="AR34" s="5">
         <f>M!AQ110*h!AQ34</f>
         <v>0</v>
       </c>
-      <c r="AR34" s="5">
+      <c r="AS34" s="5">
         <f>M!AR110*h!AR34</f>
         <v>0</v>
       </c>
-      <c r="AS34" s="5">
+      <c r="AT34" s="5">
         <f>M!AS110*h!AS34</f>
         <v>0</v>
       </c>
-      <c r="AT34" s="5">
+      <c r="AU34" s="5">
         <f>M!AT110*h!AT34</f>
         <v>0</v>
       </c>
-      <c r="AU34" s="5">
+      <c r="AV34" s="5">
         <f>M!AU110*h!AU34</f>
         <v>0</v>
       </c>
-      <c r="AV34" s="5">
+      <c r="AW34" s="5">
         <f>M!AV110*h!AV34</f>
         <v>0</v>
       </c>
-      <c r="AW34" s="5">
+      <c r="AX34" s="5">
         <f>M!AW110*h!AW34</f>
         <v>0</v>
       </c>
-      <c r="AX34" s="5">
+      <c r="AY34" s="5">
         <f>M!AX110*h!AX34</f>
         <v>0</v>
       </c>
-      <c r="AY34" s="5">
+      <c r="AZ34" s="5">
         <f>M!AY110*h!AY34</f>
         <v>0</v>
       </c>
-      <c r="AZ34" s="5">
+      <c r="BA34" s="5">
         <f>M!AZ110*h!AZ34</f>
         <v>0</v>
       </c>
-      <c r="BA34" s="5">
+      <c r="BB34" s="5">
         <f>M!BA110*h!BA34</f>
         <v>0</v>
       </c>
-      <c r="BB34" s="5">
+      <c r="BC34" s="5">
         <f>M!BB110*h!BB34</f>
         <v>0</v>
       </c>
-      <c r="BC34" s="5">
+      <c r="BD34" s="5">
         <f>M!BC110*h!BC34</f>
         <v>0.42838067413113712</v>
       </c>
-      <c r="BD34" s="5">
+      <c r="BE34" s="5">
         <f>M!BD110*h!BD34</f>
         <v>0</v>
       </c>
-      <c r="BE34" s="5">
+      <c r="BF34" s="5">
         <f>M!BE110*h!BE34</f>
         <v>0</v>
       </c>
-      <c r="BF34" s="6">
+      <c r="BG34" s="6">
         <f t="shared" si="1"/>
         <v>0.42838067413113712</v>
       </c>
-      <c r="BG34" s="1"/>
       <c r="BH34" s="1"/>
       <c r="BI34" s="1"/>
-      <c r="BJ34" s="11" t="s">
+      <c r="BJ34" s="1"/>
+      <c r="BK34" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="BK34" s="7">
+      <c r="BL34" s="7">
         <f>M!BK110*h!BK34</f>
         <v>0</v>
       </c>
-      <c r="BL34" s="7">
+      <c r="BM34" s="7">
         <f>M!BL110*h!BL34</f>
         <v>0</v>
       </c>
-      <c r="BM34" s="6">
+      <c r="BN34" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -22363,7 +22396,7 @@
       <c r="AE35" s="1"/>
       <c r="AF35" s="1"/>
       <c r="AG35" s="11"/>
-      <c r="AH35" s="1"/>
+      <c r="AH35" s="11"/>
       <c r="AI35" s="1"/>
       <c r="AJ35" s="1"/>
       <c r="AK35" s="1"/>
@@ -22371,93 +22404,94 @@
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
       <c r="AO35" s="1"/>
-      <c r="AP35" s="11" t="s">
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="AQ35" s="5">
+      <c r="AR35" s="5">
         <f>M!AQ111*h!AQ35</f>
         <v>0</v>
       </c>
-      <c r="AR35" s="5">
+      <c r="AS35" s="5">
         <f>M!AR111*h!AR35</f>
         <v>0</v>
       </c>
-      <c r="AS35" s="5">
+      <c r="AT35" s="5">
         <f>M!AS111*h!AS35</f>
         <v>0</v>
       </c>
-      <c r="AT35" s="5">
+      <c r="AU35" s="5">
         <f>M!AT111*h!AT35</f>
         <v>0</v>
       </c>
-      <c r="AU35" s="5">
+      <c r="AV35" s="5">
         <f>M!AU111*h!AU35</f>
         <v>0</v>
       </c>
-      <c r="AV35" s="5">
+      <c r="AW35" s="5">
         <f>M!AV111*h!AV35</f>
         <v>0</v>
       </c>
-      <c r="AW35" s="5">
+      <c r="AX35" s="5">
         <f>M!AW111*h!AW35</f>
         <v>0</v>
       </c>
-      <c r="AX35" s="5">
+      <c r="AY35" s="5">
         <f>M!AX111*h!AX35</f>
         <v>0</v>
       </c>
-      <c r="AY35" s="5">
+      <c r="AZ35" s="5">
         <f>M!AY111*h!AY35</f>
         <v>0</v>
       </c>
-      <c r="AZ35" s="5">
+      <c r="BA35" s="5">
         <f>M!AZ111*h!AZ35</f>
         <v>0</v>
       </c>
-      <c r="BA35" s="5">
+      <c r="BB35" s="5">
         <f>M!BA111*h!BA35</f>
         <v>6.4257101119670562E-2</v>
       </c>
-      <c r="BB35" s="5">
+      <c r="BC35" s="5">
         <f>M!BB111*h!BB35</f>
         <v>0</v>
       </c>
-      <c r="BC35" s="5">
+      <c r="BD35" s="5">
         <f>M!BC111*h!BC35</f>
         <v>0</v>
       </c>
-      <c r="BD35" s="5">
+      <c r="BE35" s="5">
         <f>M!BD111*h!BD35</f>
         <v>0</v>
       </c>
-      <c r="BE35" s="5">
+      <c r="BF35" s="5">
         <f>M!BE111*h!BE35</f>
         <v>0.29986647189179594</v>
       </c>
-      <c r="BF35" s="6">
+      <c r="BG35" s="6">
         <f t="shared" si="1"/>
         <v>0.36412357301146647</v>
       </c>
-      <c r="BG35" s="1"/>
       <c r="BH35" s="1"/>
       <c r="BI35" s="1"/>
-      <c r="BJ35" s="11" t="s">
+      <c r="BJ35" s="1"/>
+      <c r="BK35" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="BK35" s="7">
+      <c r="BL35" s="7">
         <f>M!BK111*h!BK35</f>
         <v>6.4257101119670562E-2</v>
       </c>
-      <c r="BL35" s="7">
+      <c r="BM35" s="7">
         <f>M!BL111*h!BL35</f>
         <v>0</v>
       </c>
-      <c r="BM35" s="6">
+      <c r="BN35" s="6">
         <f t="shared" si="0"/>
         <v>6.4257101119670562E-2</v>
       </c>
     </row>
-    <row r="36" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -22489,7 +22523,7 @@
       <c r="AE36" s="1"/>
       <c r="AF36" s="1"/>
       <c r="AG36" s="11"/>
-      <c r="AH36" s="1"/>
+      <c r="AH36" s="11"/>
       <c r="AI36" s="1"/>
       <c r="AJ36" s="1"/>
       <c r="AK36" s="1"/>
@@ -22497,93 +22531,94 @@
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
       <c r="AO36" s="1"/>
-      <c r="AP36" s="11" t="s">
+      <c r="AP36" s="1"/>
+      <c r="AQ36" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AQ36" s="5">
+      <c r="AR36" s="5">
         <f>M!AQ112*h!AQ36</f>
         <v>0</v>
       </c>
-      <c r="AR36" s="5">
+      <c r="AS36" s="5">
         <f>M!AR112*h!AR36</f>
         <v>0</v>
       </c>
-      <c r="AS36" s="5">
+      <c r="AT36" s="5">
         <f>M!AS112*h!AS36</f>
         <v>0</v>
       </c>
-      <c r="AT36" s="5">
+      <c r="AU36" s="5">
         <f>M!AT112*h!AT36</f>
         <v>0</v>
       </c>
-      <c r="AU36" s="5">
+      <c r="AV36" s="5">
         <f>M!AU112*h!AU36</f>
         <v>0</v>
       </c>
-      <c r="AV36" s="5">
+      <c r="AW36" s="5">
         <f>M!AV112*h!AV36</f>
         <v>0</v>
       </c>
-      <c r="AW36" s="5">
+      <c r="AX36" s="5">
         <f>M!AW112*h!AW36</f>
         <v>0</v>
       </c>
-      <c r="AX36" s="5">
+      <c r="AY36" s="5">
         <f>M!AX112*h!AX36</f>
         <v>0</v>
       </c>
-      <c r="AY36" s="5">
+      <c r="AZ36" s="5">
         <f>M!AY112*h!AY36</f>
         <v>0</v>
       </c>
-      <c r="AZ36" s="5">
+      <c r="BA36" s="5">
         <f>M!AZ112*h!AZ36</f>
         <v>0</v>
       </c>
-      <c r="BA36" s="5">
+      <c r="BB36" s="5">
         <f>M!BA112*h!BA36</f>
         <v>0</v>
       </c>
-      <c r="BB36" s="5">
+      <c r="BC36" s="5">
         <f>M!BB112*h!BB36</f>
         <v>0</v>
       </c>
-      <c r="BC36" s="5">
+      <c r="BD36" s="5">
         <f>M!BC112*h!BC36</f>
         <v>0</v>
       </c>
-      <c r="BD36" s="5">
+      <c r="BE36" s="5">
         <f>M!BD112*h!BD36</f>
         <v>0</v>
       </c>
-      <c r="BE36" s="5">
+      <c r="BF36" s="5">
         <f>M!BE112*h!BE36</f>
         <v>-7607017.7819306944</v>
       </c>
-      <c r="BF36" s="6">
+      <c r="BG36" s="6">
         <f t="shared" si="1"/>
         <v>-7607017.7819306944</v>
       </c>
-      <c r="BG36" s="1"/>
       <c r="BH36" s="1"/>
       <c r="BI36" s="1"/>
-      <c r="BJ36" s="11" t="s">
+      <c r="BJ36" s="1"/>
+      <c r="BK36" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="BK36" s="7">
+      <c r="BL36" s="7">
         <f>M!BK112*h!BK36</f>
         <v>0</v>
       </c>
-      <c r="BL36" s="7">
+      <c r="BM36" s="7">
         <f>M!BL112*h!BL36</f>
         <v>0</v>
       </c>
-      <c r="BM36" s="6">
+      <c r="BN36" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -22615,7 +22650,7 @@
       <c r="AE37" s="1"/>
       <c r="AF37" s="1"/>
       <c r="AG37" s="11"/>
-      <c r="AH37" s="1"/>
+      <c r="AH37" s="11"/>
       <c r="AI37" s="1"/>
       <c r="AJ37" s="1"/>
       <c r="AK37" s="1"/>
@@ -22623,93 +22658,94 @@
       <c r="AM37" s="1"/>
       <c r="AN37" s="1"/>
       <c r="AO37" s="1"/>
-      <c r="AP37" s="11" t="s">
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AQ37" s="5">
+      <c r="AR37" s="5">
         <f>M!AQ113*h!AQ37</f>
         <v>0</v>
       </c>
-      <c r="AR37" s="5">
+      <c r="AS37" s="5">
         <f>M!AR113*h!AR37</f>
         <v>0</v>
       </c>
-      <c r="AS37" s="5">
+      <c r="AT37" s="5">
         <f>M!AS113*h!AS37</f>
         <v>0</v>
       </c>
-      <c r="AT37" s="5">
+      <c r="AU37" s="5">
         <f>M!AT113*h!AT37</f>
         <v>0</v>
       </c>
-      <c r="AU37" s="5">
+      <c r="AV37" s="5">
         <f>M!AU113*h!AU37</f>
         <v>0</v>
       </c>
-      <c r="AV37" s="5">
+      <c r="AW37" s="5">
         <f>M!AV113*h!AV37</f>
         <v>0</v>
       </c>
-      <c r="AW37" s="5">
+      <c r="AX37" s="5">
         <f>M!AW113*h!AW37</f>
         <v>0</v>
       </c>
-      <c r="AX37" s="5">
+      <c r="AY37" s="5">
         <f>M!AX113*h!AX37</f>
         <v>0</v>
       </c>
-      <c r="AY37" s="5">
+      <c r="AZ37" s="5">
         <f>M!AY113*h!AY37</f>
         <v>0</v>
       </c>
-      <c r="AZ37" s="5">
+      <c r="BA37" s="5">
         <f>M!AZ113*h!AZ37</f>
         <v>0</v>
       </c>
-      <c r="BA37" s="5">
+      <c r="BB37" s="5">
         <f>M!BA113*h!BA37</f>
         <v>0</v>
       </c>
-      <c r="BB37" s="5">
+      <c r="BC37" s="5">
         <f>M!BB113*h!BB37</f>
         <v>0</v>
       </c>
-      <c r="BC37" s="5">
+      <c r="BD37" s="5">
         <f>M!BC113*h!BC37</f>
         <v>0</v>
       </c>
-      <c r="BD37" s="5">
+      <c r="BE37" s="5">
         <f>M!BD113*h!BD37</f>
         <v>0</v>
       </c>
-      <c r="BE37" s="5">
+      <c r="BF37" s="5">
         <f>M!BE113*h!BE37</f>
         <v>0</v>
       </c>
-      <c r="BF37" s="6">
+      <c r="BG37" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG37" s="1"/>
       <c r="BH37" s="1"/>
       <c r="BI37" s="1"/>
-      <c r="BJ37" s="11" t="s">
+      <c r="BJ37" s="1"/>
+      <c r="BK37" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="BK37" s="7">
+      <c r="BL37" s="7">
         <f>M!BK113*h!BK37</f>
         <v>0</v>
       </c>
-      <c r="BL37" s="7">
+      <c r="BM37" s="7">
         <f>M!BL113*h!BL37</f>
         <v>0</v>
       </c>
-      <c r="BM37" s="6">
+      <c r="BN37" s="6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -22741,7 +22777,7 @@
       <c r="AE38" s="1"/>
       <c r="AF38" s="1"/>
       <c r="AG38" s="11"/>
-      <c r="AH38" s="1"/>
+      <c r="AH38" s="11"/>
       <c r="AI38" s="1"/>
       <c r="AJ38" s="1"/>
       <c r="AK38" s="1"/>
@@ -22749,93 +22785,94 @@
       <c r="AM38" s="1"/>
       <c r="AN38" s="1"/>
       <c r="AO38" s="1"/>
-      <c r="AP38" s="11" t="s">
+      <c r="AP38" s="1"/>
+      <c r="AQ38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AQ38" s="5">
+      <c r="AR38" s="5">
         <f>M!AQ114*h!AQ38</f>
         <v>0</v>
       </c>
-      <c r="AR38" s="5">
+      <c r="AS38" s="5">
         <f>M!AR114*h!AR38</f>
         <v>0</v>
       </c>
-      <c r="AS38" s="5">
+      <c r="AT38" s="5">
         <f>M!AS114*h!AS38</f>
         <v>0</v>
       </c>
-      <c r="AT38" s="5">
+      <c r="AU38" s="5">
         <f>M!AT114*h!AT38</f>
         <v>0</v>
       </c>
-      <c r="AU38" s="5">
+      <c r="AV38" s="5">
         <f>M!AU114*h!AU38</f>
         <v>0</v>
       </c>
-      <c r="AV38" s="5">
+      <c r="AW38" s="5">
         <f>M!AV114*h!AV38</f>
         <v>0</v>
       </c>
-      <c r="AW38" s="5">
+      <c r="AX38" s="5">
         <f>M!AW114*h!AW38</f>
         <v>0</v>
       </c>
-      <c r="AX38" s="5">
+      <c r="AY38" s="5">
         <f>M!AX114*h!AX38</f>
         <v>0</v>
       </c>
-      <c r="AY38" s="5">
+      <c r="AZ38" s="5">
         <f>M!AY114*h!AY38</f>
         <v>0</v>
       </c>
-      <c r="AZ38" s="5">
+      <c r="BA38" s="5">
         <f>M!AZ114*h!AZ38</f>
         <v>0</v>
       </c>
-      <c r="BA38" s="5">
+      <c r="BB38" s="5">
         <f>M!BA114*h!BA38</f>
         <v>0</v>
       </c>
-      <c r="BB38" s="5">
+      <c r="BC38" s="5">
         <f>M!BB114*h!BB38</f>
         <v>0</v>
       </c>
-      <c r="BC38" s="5">
+      <c r="BD38" s="5">
         <f>M!BC114*h!BC38</f>
         <v>0</v>
       </c>
-      <c r="BD38" s="5">
+      <c r="BE38" s="5">
         <f>M!BD114*h!BD38</f>
         <v>0</v>
       </c>
-      <c r="BE38" s="5">
+      <c r="BF38" s="5">
         <f>M!BE114*h!BE38</f>
         <v>0</v>
       </c>
-      <c r="BF38" s="6">
+      <c r="BG38" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG38" s="1"/>
       <c r="BH38" s="1"/>
       <c r="BI38" s="1"/>
-      <c r="BJ38" s="11" t="s">
+      <c r="BJ38" s="1"/>
+      <c r="BK38" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="BK38" s="7">
+      <c r="BL38" s="7">
         <f>M!BK114*h!BK38</f>
         <v>0</v>
       </c>
-      <c r="BL38" s="7">
+      <c r="BM38" s="7">
         <f>M!BL114*h!BL38</f>
         <v>-13484695.995178642</v>
       </c>
-      <c r="BM38" s="6">
+      <c r="BN38" s="6">
         <f t="shared" si="0"/>
         <v>-13484695.995178642</v>
       </c>
     </row>
-    <row r="39" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -22867,7 +22904,7 @@
       <c r="AE39" s="1"/>
       <c r="AF39" s="1"/>
       <c r="AG39" s="11"/>
-      <c r="AH39" s="1"/>
+      <c r="AH39" s="11"/>
       <c r="AI39" s="1"/>
       <c r="AJ39" s="1"/>
       <c r="AK39" s="1"/>
@@ -22875,93 +22912,94 @@
       <c r="AM39" s="1"/>
       <c r="AN39" s="1"/>
       <c r="AO39" s="1"/>
-      <c r="AP39" s="11" t="s">
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="AQ39" s="5">
+      <c r="AR39" s="5">
         <f>M!AQ115*h!AQ39</f>
         <v>0</v>
       </c>
-      <c r="AR39" s="5">
+      <c r="AS39" s="5">
         <f>M!AR115*h!AR39</f>
         <v>0</v>
       </c>
-      <c r="AS39" s="5">
+      <c r="AT39" s="5">
         <f>M!AS115*h!AS39</f>
         <v>0</v>
       </c>
-      <c r="AT39" s="5">
+      <c r="AU39" s="5">
         <f>M!AT115*h!AT39</f>
         <v>0</v>
       </c>
-      <c r="AU39" s="5">
+      <c r="AV39" s="5">
         <f>M!AU115*h!AU39</f>
         <v>0</v>
       </c>
-      <c r="AV39" s="5">
+      <c r="AW39" s="5">
         <f>M!AV115*h!AV39</f>
         <v>0</v>
       </c>
-      <c r="AW39" s="5">
+      <c r="AX39" s="5">
         <f>M!AW115*h!AW39</f>
         <v>0</v>
       </c>
-      <c r="AX39" s="5">
+      <c r="AY39" s="5">
         <f>M!AX115*h!AX39</f>
         <v>0</v>
       </c>
-      <c r="AY39" s="5">
+      <c r="AZ39" s="5">
         <f>M!AY115*h!AY39</f>
         <v>0</v>
       </c>
-      <c r="AZ39" s="5">
+      <c r="BA39" s="5">
         <f>M!AZ115*h!AZ39</f>
         <v>0</v>
       </c>
-      <c r="BA39" s="5">
+      <c r="BB39" s="5">
         <f>M!BA115*h!BA39</f>
         <v>0</v>
       </c>
-      <c r="BB39" s="5">
+      <c r="BC39" s="5">
         <f>M!BB115*h!BB39</f>
         <v>0</v>
       </c>
-      <c r="BC39" s="5">
+      <c r="BD39" s="5">
         <f>M!BC115*h!BC39</f>
         <v>0</v>
       </c>
-      <c r="BD39" s="5">
+      <c r="BE39" s="5">
         <f>M!BD115*h!BD39</f>
         <v>0</v>
       </c>
-      <c r="BE39" s="5">
+      <c r="BF39" s="5">
         <f>M!BE115*h!BE39</f>
         <v>0</v>
       </c>
-      <c r="BF39" s="6">
+      <c r="BG39" s="6">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="BG39" s="1"/>
       <c r="BH39" s="1"/>
       <c r="BI39" s="1"/>
-      <c r="BJ39" s="11" t="s">
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="BK39" s="7">
+      <c r="BL39" s="7">
         <f>M!BK115*h!BK39</f>
         <v>0</v>
       </c>
-      <c r="BL39" s="7">
+      <c r="BM39" s="7">
         <f>M!BL115*h!BL39</f>
         <v>-177387.66033722623</v>
       </c>
-      <c r="BM39" s="6">
+      <c r="BN39" s="6">
         <f t="shared" si="0"/>
         <v>-177387.66033722623</v>
       </c>
     </row>
-    <row r="40" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -22993,7 +23031,7 @@
       <c r="AE40" s="1"/>
       <c r="AF40" s="1"/>
       <c r="AG40" s="11"/>
-      <c r="AH40" s="1"/>
+      <c r="AH40" s="11"/>
       <c r="AI40" s="1"/>
       <c r="AJ40" s="1"/>
       <c r="AK40" s="1"/>
@@ -23001,11 +23039,11 @@
       <c r="AM40" s="1"/>
       <c r="AN40" s="1"/>
       <c r="AO40" s="1"/>
-      <c r="AP40" s="11"/>
-      <c r="AQ40" s="14" t="s">
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="11"/>
+      <c r="AR40" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="AR40" s="14"/>
       <c r="AS40" s="14"/>
       <c r="AT40" s="14"/>
       <c r="AU40" s="14"/>
@@ -23019,22 +23057,23 @@
       <c r="BC40" s="14"/>
       <c r="BD40" s="14"/>
       <c r="BE40" s="14"/>
-      <c r="BF40" s="13" t="s">
+      <c r="BF40" s="14"/>
+      <c r="BG40" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="BG40" s="1"/>
       <c r="BH40" s="1"/>
       <c r="BI40" s="1"/>
       <c r="BJ40" s="1"/>
-      <c r="BK40" s="14" t="s">
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="BL40" s="14"/>
-      <c r="BM40" s="13" t="s">
+      <c r="BM40" s="14"/>
+      <c r="BN40" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -23066,7 +23105,7 @@
       <c r="AE41" s="1"/>
       <c r="AF41" s="1"/>
       <c r="AG41" s="11"/>
-      <c r="AH41" s="1"/>
+      <c r="AH41" s="11"/>
       <c r="AI41" s="1"/>
       <c r="AJ41" s="1"/>
       <c r="AK41" s="1"/>
@@ -23074,77 +23113,78 @@
       <c r="AM41" s="1"/>
       <c r="AN41" s="1"/>
       <c r="AO41" s="1"/>
-      <c r="AP41" s="11"/>
-      <c r="AQ41" s="6">
-        <f>SUM(AQ5:AQ39)</f>
-        <v>-6430161.3171501467</v>
-      </c>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="11"/>
       <c r="AR41" s="6">
         <f>SUM(AR5:AR39)</f>
-        <v>-2525792.5552207911</v>
+        <v>-6430161.3171501467</v>
       </c>
       <c r="AS41" s="6">
         <f>SUM(AS5:AS39)</f>
+        <v>-2525792.5552207911</v>
+      </c>
+      <c r="AT41" s="6">
+        <f>SUM(AT5:AT39)</f>
         <v>7818667.834884013</v>
       </c>
-      <c r="AT41" s="6">
-        <f t="shared" ref="AT41:BE41" si="2">SUM(AT5:AT39)</f>
+      <c r="AU41" s="6">
+        <f t="shared" ref="AU41:BF41" si="2">SUM(AU5:AU39)</f>
         <v>-6518321.9740549205</v>
       </c>
-      <c r="AU41" s="6">
+      <c r="AV41" s="6">
         <f t="shared" si="2"/>
         <v>-2526033.0144413244</v>
       </c>
-      <c r="AV41" s="6">
+      <c r="AW41" s="6">
         <f t="shared" si="2"/>
         <v>7797698.1720160255</v>
       </c>
-      <c r="AW41" s="6">
+      <c r="AX41" s="6">
         <f t="shared" si="2"/>
         <v>-6518321.9740549205</v>
       </c>
-      <c r="AX41" s="6">
+      <c r="AY41" s="6">
         <f t="shared" si="2"/>
         <v>-2526033.0144413244</v>
       </c>
-      <c r="AY41" s="6">
+      <c r="AZ41" s="6">
         <f t="shared" si="2"/>
         <v>7797698.1720160255</v>
       </c>
-      <c r="AZ41" s="6">
+      <c r="BA41" s="6">
         <f t="shared" si="2"/>
         <v>-2525699.3520417055</v>
       </c>
-      <c r="BA41" s="6">
+      <c r="BB41" s="6">
         <f t="shared" si="2"/>
         <v>7797698.5084149474</v>
       </c>
-      <c r="BB41" s="6">
+      <c r="BC41" s="6">
         <f t="shared" si="2"/>
         <v>-18462.919202332854</v>
       </c>
-      <c r="BC41" s="6">
+      <c r="BD41" s="6">
         <f t="shared" si="2"/>
         <v>0.42838067413113712</v>
       </c>
-      <c r="BD41" s="6">
+      <c r="BE41" s="6">
         <f t="shared" si="2"/>
         <v>-7607017.7819306944</v>
       </c>
-      <c r="BE41" s="6">
+      <c r="BF41" s="6">
         <f t="shared" si="2"/>
         <v>-7413545.9709120123</v>
       </c>
-      <c r="BF41" s="1"/>
       <c r="BG41" s="1"/>
       <c r="BH41" s="1"/>
       <c r="BI41" s="1"/>
       <c r="BJ41" s="1"/>
-      <c r="BK41" s="13"/>
+      <c r="BK41" s="1"/>
       <c r="BL41" s="13"/>
-      <c r="BM41" s="1"/>
-    </row>
-    <row r="42" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BM41" s="13"/>
+      <c r="BN41" s="1"/>
+    </row>
+    <row r="42" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
@@ -23176,19 +23216,19 @@
       <c r="AE42" s="16"/>
       <c r="AF42" s="16"/>
       <c r="AG42" s="11"/>
-      <c r="AH42" s="16"/>
+      <c r="AH42" s="11"/>
       <c r="AI42" s="16"/>
       <c r="AJ42" s="16"/>
       <c r="AK42" s="16"/>
       <c r="AL42" s="16"/>
       <c r="AM42" s="16"/>
       <c r="AN42" s="16"/>
-      <c r="AO42" s="1"/>
+      <c r="AO42" s="16"/>
       <c r="AP42" s="1"/>
-      <c r="AQ42" s="14" t="s">
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AR42" s="14"/>
       <c r="AS42" s="14"/>
       <c r="AT42" s="14"/>
       <c r="AU42" s="14"/>
@@ -23202,16 +23242,17 @@
       <c r="BC42" s="14"/>
       <c r="BD42" s="14"/>
       <c r="BE42" s="14"/>
-      <c r="BF42" s="1"/>
+      <c r="BF42" s="14"/>
       <c r="BG42" s="1"/>
       <c r="BH42" s="1"/>
       <c r="BI42" s="1"/>
       <c r="BJ42" s="1"/>
-      <c r="BK42" s="13"/>
+      <c r="BK42" s="1"/>
       <c r="BL42" s="13"/>
-      <c r="BM42" s="1"/>
-    </row>
-    <row r="43" spans="3:65" ht="236" x14ac:dyDescent="0.2">
+      <c r="BM42" s="13"/>
+      <c r="BN42" s="1"/>
+    </row>
+    <row r="43" spans="3:66" ht="236" x14ac:dyDescent="0.2">
       <c r="C43" s="17"/>
       <c r="D43" s="3" t="s">
         <v>16</v>
@@ -23301,21 +23342,23 @@
         <v>44</v>
       </c>
       <c r="AG43" s="19" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="AH43" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI43" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AI43" s="19" t="s">
+      <c r="AJ43" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AJ43" s="19" t="s">
+      <c r="AK43" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AK43" s="19" t="s">
+      <c r="AL43" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AL43" s="1"/>
       <c r="AM43" s="1"/>
       <c r="AN43" s="1"/>
       <c r="AO43" s="1"/>
@@ -23343,8 +23386,9 @@
       <c r="BK43" s="1"/>
       <c r="BL43" s="1"/>
       <c r="BM43" s="1"/>
-    </row>
-    <row r="44" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN43" s="1"/>
+    </row>
+    <row r="44" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C44" s="4" t="s">
         <v>0</v>
       </c>
@@ -23484,11 +23528,14 @@
         <f>h!AK44*M!AJ121</f>
         <v>0</v>
       </c>
-      <c r="AL44" s="6">
-        <f>SUM(D44:AK44)</f>
+      <c r="AL44" s="5">
+        <f>h!AL44*M!AK121</f>
+        <v>0</v>
+      </c>
+      <c r="AM44" s="6">
+        <f>SUM(D44:AL44)</f>
         <v>-6611122.173225088</v>
       </c>
-      <c r="AM44" s="1"/>
       <c r="AN44" s="1"/>
       <c r="AO44" s="1"/>
       <c r="AP44" s="1"/>
@@ -23515,8 +23562,9 @@
       <c r="BK44" s="1"/>
       <c r="BL44" s="1"/>
       <c r="BM44" s="1"/>
-    </row>
-    <row r="45" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN44" s="1"/>
+    </row>
+    <row r="45" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C45" s="4" t="s">
         <v>1</v>
       </c>
@@ -23656,11 +23704,14 @@
         <f>h!AK45*M!AJ122</f>
         <v>0</v>
       </c>
-      <c r="AL45" s="6">
-        <f t="shared" ref="AL45:AL58" si="3">SUM(D45:AK45)</f>
+      <c r="AL45" s="5">
+        <f>h!AL45*M!AK122</f>
+        <v>0</v>
+      </c>
+      <c r="AM45" s="6">
+        <f t="shared" ref="AM45:AM58" si="3">SUM(D45:AL45)</f>
         <v>-2526311.4233977068</v>
       </c>
-      <c r="AM45" s="1"/>
       <c r="AN45" s="1"/>
       <c r="AO45" s="1"/>
       <c r="AP45" s="1"/>
@@ -23687,8 +23738,9 @@
       <c r="BK45" s="1"/>
       <c r="BL45" s="1"/>
       <c r="BM45" s="1"/>
-    </row>
-    <row r="46" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN45" s="1"/>
+    </row>
+    <row r="46" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C46" s="4" t="s">
         <v>2</v>
       </c>
@@ -23828,15 +23880,18 @@
         <f>h!AK46*M!AJ123</f>
         <v>0</v>
       </c>
-      <c r="AL46" s="6">
+      <c r="AL46" s="5">
+        <f>h!AL46*M!AK123</f>
+        <v>0</v>
+      </c>
+      <c r="AM46" s="6">
         <f t="shared" si="3"/>
         <v>7775624.9597805217</v>
       </c>
-      <c r="AM46" s="1"/>
       <c r="AN46" s="1"/>
       <c r="AO46" s="1"/>
       <c r="AP46" s="1"/>
-      <c r="AQ46" s="13"/>
+      <c r="AQ46" s="1"/>
       <c r="AR46" s="13"/>
       <c r="AS46" s="13"/>
       <c r="AT46" s="13"/>
@@ -23851,16 +23906,17 @@
       <c r="BC46" s="13"/>
       <c r="BD46" s="13"/>
       <c r="BE46" s="13"/>
-      <c r="BF46" s="1"/>
+      <c r="BF46" s="13"/>
       <c r="BG46" s="1"/>
       <c r="BH46" s="1"/>
       <c r="BI46" s="1"/>
       <c r="BJ46" s="1"/>
-      <c r="BK46" s="13"/>
+      <c r="BK46" s="1"/>
       <c r="BL46" s="13"/>
-      <c r="BM46" s="1"/>
-    </row>
-    <row r="47" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BM46" s="13"/>
+      <c r="BN46" s="1"/>
+    </row>
+    <row r="47" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C47" s="4" t="s">
         <v>3</v>
       </c>
@@ -24000,15 +24056,18 @@
         <f>h!AK47*M!AJ124</f>
         <v>0</v>
       </c>
-      <c r="AL47" s="6">
+      <c r="AL47" s="5">
+        <f>h!AL47*M!AK124</f>
+        <v>0</v>
+      </c>
+      <c r="AM47" s="6">
         <f t="shared" si="3"/>
         <v>-6518321.9740549205</v>
       </c>
-      <c r="AM47" s="1"/>
       <c r="AN47" s="1"/>
       <c r="AO47" s="1"/>
       <c r="AP47" s="1"/>
-      <c r="AQ47" s="13"/>
+      <c r="AQ47" s="1"/>
       <c r="AR47" s="13"/>
       <c r="AS47" s="13"/>
       <c r="AT47" s="13"/>
@@ -24023,16 +24082,17 @@
       <c r="BC47" s="13"/>
       <c r="BD47" s="13"/>
       <c r="BE47" s="13"/>
-      <c r="BF47" s="1"/>
+      <c r="BF47" s="13"/>
       <c r="BG47" s="1"/>
       <c r="BH47" s="1"/>
       <c r="BI47" s="1"/>
       <c r="BJ47" s="1"/>
-      <c r="BK47" s="13"/>
+      <c r="BK47" s="1"/>
       <c r="BL47" s="13"/>
-      <c r="BM47" s="1"/>
-    </row>
-    <row r="48" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BM47" s="13"/>
+      <c r="BN47" s="1"/>
+    </row>
+    <row r="48" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C48" s="4" t="s">
         <v>4</v>
       </c>
@@ -24172,15 +24232,18 @@
         <f>h!AK48*M!AJ125</f>
         <v>0</v>
       </c>
-      <c r="AL48" s="6">
+      <c r="AL48" s="5">
+        <f>h!AL48*M!AK125</f>
+        <v>0</v>
+      </c>
+      <c r="AM48" s="6">
         <f t="shared" si="3"/>
         <v>-2526033.0144413244</v>
       </c>
-      <c r="AM48" s="1"/>
       <c r="AN48" s="1"/>
       <c r="AO48" s="1"/>
       <c r="AP48" s="1"/>
-      <c r="AQ48" s="13"/>
+      <c r="AQ48" s="1"/>
       <c r="AR48" s="13"/>
       <c r="AS48" s="13"/>
       <c r="AT48" s="13"/>
@@ -24195,16 +24258,17 @@
       <c r="BC48" s="13"/>
       <c r="BD48" s="13"/>
       <c r="BE48" s="13"/>
-      <c r="BF48" s="1"/>
+      <c r="BF48" s="13"/>
       <c r="BG48" s="1"/>
       <c r="BH48" s="1"/>
       <c r="BI48" s="1"/>
       <c r="BJ48" s="1"/>
-      <c r="BK48" s="13"/>
+      <c r="BK48" s="1"/>
       <c r="BL48" s="13"/>
-      <c r="BM48" s="1"/>
-    </row>
-    <row r="49" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BM48" s="13"/>
+      <c r="BN48" s="1"/>
+    </row>
+    <row r="49" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
@@ -24344,15 +24408,18 @@
         <f>h!AK49*M!AJ126</f>
         <v>0</v>
       </c>
-      <c r="AL49" s="6">
+      <c r="AL49" s="5">
+        <f>h!AL49*M!AK126</f>
+        <v>0</v>
+      </c>
+      <c r="AM49" s="6">
         <f t="shared" si="3"/>
         <v>7797698.1720160255</v>
       </c>
-      <c r="AM49" s="1"/>
       <c r="AN49" s="1"/>
       <c r="AO49" s="1"/>
       <c r="AP49" s="1"/>
-      <c r="AQ49" s="13"/>
+      <c r="AQ49" s="1"/>
       <c r="AR49" s="13"/>
       <c r="AS49" s="13"/>
       <c r="AT49" s="13"/>
@@ -24367,16 +24434,17 @@
       <c r="BC49" s="13"/>
       <c r="BD49" s="13"/>
       <c r="BE49" s="13"/>
-      <c r="BF49" s="1"/>
+      <c r="BF49" s="13"/>
       <c r="BG49" s="1"/>
       <c r="BH49" s="1"/>
       <c r="BI49" s="1"/>
       <c r="BJ49" s="1"/>
-      <c r="BK49" s="13"/>
+      <c r="BK49" s="1"/>
       <c r="BL49" s="13"/>
-      <c r="BM49" s="1"/>
-    </row>
-    <row r="50" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BM49" s="13"/>
+      <c r="BN49" s="1"/>
+    </row>
+    <row r="50" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C50" s="4" t="s">
         <v>6</v>
       </c>
@@ -24516,15 +24584,18 @@
         <f>h!AK50*M!AJ127</f>
         <v>0</v>
       </c>
-      <c r="AL50" s="6">
+      <c r="AL50" s="5">
+        <f>h!AL50*M!AK127</f>
+        <v>0</v>
+      </c>
+      <c r="AM50" s="6">
         <f t="shared" si="3"/>
         <v>-6518321.9740549196</v>
       </c>
-      <c r="AM50" s="1"/>
       <c r="AN50" s="1"/>
       <c r="AO50" s="1"/>
       <c r="AP50" s="1"/>
-      <c r="AQ50" s="13"/>
+      <c r="AQ50" s="1"/>
       <c r="AR50" s="13"/>
       <c r="AS50" s="13"/>
       <c r="AT50" s="13"/>
@@ -24539,16 +24610,17 @@
       <c r="BC50" s="13"/>
       <c r="BD50" s="13"/>
       <c r="BE50" s="13"/>
-      <c r="BF50" s="1"/>
+      <c r="BF50" s="13"/>
       <c r="BG50" s="1"/>
       <c r="BH50" s="1"/>
       <c r="BI50" s="1"/>
       <c r="BJ50" s="1"/>
-      <c r="BK50" s="13"/>
+      <c r="BK50" s="1"/>
       <c r="BL50" s="13"/>
-      <c r="BM50" s="1"/>
-    </row>
-    <row r="51" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BM50" s="13"/>
+      <c r="BN50" s="1"/>
+    </row>
+    <row r="51" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C51" s="4" t="s">
         <v>7</v>
       </c>
@@ -24688,15 +24760,18 @@
         <f>h!AK51*M!AJ128</f>
         <v>0</v>
       </c>
-      <c r="AL51" s="6">
+      <c r="AL51" s="5">
+        <f>h!AL51*M!AK128</f>
+        <v>0</v>
+      </c>
+      <c r="AM51" s="6">
         <f t="shared" si="3"/>
         <v>-2526033.0144413244</v>
       </c>
-      <c r="AM51" s="1"/>
       <c r="AN51" s="1"/>
       <c r="AO51" s="1"/>
       <c r="AP51" s="1"/>
-      <c r="AQ51" s="13"/>
+      <c r="AQ51" s="1"/>
       <c r="AR51" s="13"/>
       <c r="AS51" s="13"/>
       <c r="AT51" s="13"/>
@@ -24711,16 +24786,17 @@
       <c r="BC51" s="13"/>
       <c r="BD51" s="13"/>
       <c r="BE51" s="13"/>
-      <c r="BF51" s="1"/>
+      <c r="BF51" s="13"/>
       <c r="BG51" s="1"/>
       <c r="BH51" s="1"/>
       <c r="BI51" s="1"/>
       <c r="BJ51" s="1"/>
-      <c r="BK51" s="13"/>
+      <c r="BK51" s="1"/>
       <c r="BL51" s="13"/>
-      <c r="BM51" s="1"/>
-    </row>
-    <row r="52" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BM51" s="13"/>
+      <c r="BN51" s="1"/>
+    </row>
+    <row r="52" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C52" s="4" t="s">
         <v>8</v>
       </c>
@@ -24860,15 +24936,18 @@
         <f>h!AK52*M!AJ129</f>
         <v>0</v>
       </c>
-      <c r="AL52" s="6">
+      <c r="AL52" s="5">
+        <f>h!AL52*M!AK129</f>
+        <v>0</v>
+      </c>
+      <c r="AM52" s="6">
         <f t="shared" si="3"/>
         <v>7797698.1720160255</v>
       </c>
-      <c r="AM52" s="1"/>
       <c r="AN52" s="1"/>
       <c r="AO52" s="1"/>
       <c r="AP52" s="1"/>
-      <c r="AQ52" s="13"/>
+      <c r="AQ52" s="1"/>
       <c r="AR52" s="13"/>
       <c r="AS52" s="13"/>
       <c r="AT52" s="13"/>
@@ -24883,16 +24962,17 @@
       <c r="BC52" s="13"/>
       <c r="BD52" s="13"/>
       <c r="BE52" s="13"/>
-      <c r="BF52" s="1"/>
+      <c r="BF52" s="13"/>
       <c r="BG52" s="1"/>
       <c r="BH52" s="1"/>
       <c r="BI52" s="1"/>
       <c r="BJ52" s="1"/>
-      <c r="BK52" s="13"/>
+      <c r="BK52" s="1"/>
       <c r="BL52" s="13"/>
-      <c r="BM52" s="1"/>
-    </row>
-    <row r="53" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BM52" s="13"/>
+      <c r="BN52" s="1"/>
+    </row>
+    <row r="53" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C53" s="4" t="s">
         <v>9</v>
       </c>
@@ -25032,15 +25112,18 @@
         <f>h!AK53*M!AJ130</f>
         <v>0</v>
       </c>
-      <c r="AL53" s="6">
+      <c r="AL53" s="5">
+        <f>h!AL53*M!AK130</f>
+        <v>0</v>
+      </c>
+      <c r="AM53" s="6">
         <f t="shared" si="3"/>
         <v>-6290176.9219616428</v>
       </c>
-      <c r="AM53" s="1"/>
       <c r="AN53" s="1"/>
       <c r="AO53" s="1"/>
       <c r="AP53" s="1"/>
-      <c r="AQ53" s="13"/>
+      <c r="AQ53" s="1"/>
       <c r="AR53" s="13"/>
       <c r="AS53" s="13"/>
       <c r="AT53" s="13"/>
@@ -25055,16 +25138,17 @@
       <c r="BC53" s="13"/>
       <c r="BD53" s="13"/>
       <c r="BE53" s="13"/>
-      <c r="BF53" s="1"/>
+      <c r="BF53" s="13"/>
       <c r="BG53" s="1"/>
       <c r="BH53" s="1"/>
       <c r="BI53" s="1"/>
       <c r="BJ53" s="1"/>
-      <c r="BK53" s="13"/>
+      <c r="BK53" s="1"/>
       <c r="BL53" s="13"/>
-      <c r="BM53" s="1"/>
-    </row>
-    <row r="54" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BM53" s="13"/>
+      <c r="BN53" s="1"/>
+    </row>
+    <row r="54" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C54" s="4" t="s">
         <v>10</v>
       </c>
@@ -25204,15 +25288,18 @@
         <f>h!AK54*M!AJ131</f>
         <v>0</v>
       </c>
-      <c r="AL54" s="6">
+      <c r="AL54" s="5">
+        <f>h!AL54*M!AK131</f>
+        <v>0</v>
+      </c>
+      <c r="AM54" s="6">
         <f t="shared" si="3"/>
         <v>-2143167.5532322214</v>
       </c>
-      <c r="AM54" s="1"/>
       <c r="AN54" s="1"/>
       <c r="AO54" s="1"/>
       <c r="AP54" s="1"/>
-      <c r="AQ54" s="13"/>
+      <c r="AQ54" s="1"/>
       <c r="AR54" s="13"/>
       <c r="AS54" s="13"/>
       <c r="AT54" s="13"/>
@@ -25227,16 +25314,17 @@
       <c r="BC54" s="13"/>
       <c r="BD54" s="13"/>
       <c r="BE54" s="13"/>
-      <c r="BF54" s="1"/>
+      <c r="BF54" s="13"/>
       <c r="BG54" s="1"/>
       <c r="BH54" s="1"/>
       <c r="BI54" s="1"/>
       <c r="BJ54" s="1"/>
-      <c r="BK54" s="13"/>
+      <c r="BK54" s="1"/>
       <c r="BL54" s="13"/>
-      <c r="BM54" s="1"/>
-    </row>
-    <row r="55" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BM54" s="13"/>
+      <c r="BN54" s="1"/>
+    </row>
+    <row r="55" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C55" s="4" t="s">
         <v>87</v>
       </c>
@@ -25376,15 +25464,18 @@
         <f>h!AK55*M!AJ132</f>
         <v>0</v>
       </c>
-      <c r="AL55" s="6">
+      <c r="AL55" s="5">
+        <f>h!AL55*M!AK132</f>
+        <v>0</v>
+      </c>
+      <c r="AM55" s="6">
         <f t="shared" si="3"/>
         <v>0.42838067413113712</v>
       </c>
-      <c r="AM55" s="1"/>
       <c r="AN55" s="1"/>
       <c r="AO55" s="1"/>
       <c r="AP55" s="1"/>
-      <c r="AQ55" s="13"/>
+      <c r="AQ55" s="1"/>
       <c r="AR55" s="13"/>
       <c r="AS55" s="13"/>
       <c r="AT55" s="13"/>
@@ -25399,16 +25490,17 @@
       <c r="BC55" s="13"/>
       <c r="BD55" s="13"/>
       <c r="BE55" s="13"/>
-      <c r="BF55" s="1"/>
+      <c r="BF55" s="13"/>
       <c r="BG55" s="1"/>
       <c r="BH55" s="1"/>
       <c r="BI55" s="1"/>
       <c r="BJ55" s="1"/>
-      <c r="BK55" s="13"/>
+      <c r="BK55" s="1"/>
       <c r="BL55" s="13"/>
-      <c r="BM55" s="1"/>
-    </row>
-    <row r="56" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BM55" s="13"/>
+      <c r="BN55" s="1"/>
+    </row>
+    <row r="56" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C56" s="4" t="s">
         <v>88</v>
       </c>
@@ -25548,11 +25640,14 @@
         <f>h!AK56*M!AJ133</f>
         <v>0</v>
       </c>
-      <c r="AL56" s="6">
+      <c r="AL56" s="5">
+        <f>h!AL56*M!AK133</f>
+        <v>0</v>
+      </c>
+      <c r="AM56" s="6">
         <f t="shared" si="3"/>
         <v>0.42838067413113712</v>
       </c>
-      <c r="AM56" s="1"/>
       <c r="AN56" s="1"/>
       <c r="AO56" s="1"/>
       <c r="AP56" s="1"/>
@@ -25579,8 +25674,9 @@
       <c r="BK56" s="1"/>
       <c r="BL56" s="1"/>
       <c r="BM56" s="1"/>
-    </row>
-    <row r="57" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN56" s="1"/>
+    </row>
+    <row r="57" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C57" s="4" t="s">
         <v>12</v>
       </c>
@@ -25720,11 +25816,14 @@
         <f>h!AK57*M!AJ134</f>
         <v>0</v>
       </c>
-      <c r="AL57" s="6">
+      <c r="AL57" s="5">
+        <f>h!AL57*M!AK134</f>
+        <v>0</v>
+      </c>
+      <c r="AM57" s="6">
         <f t="shared" si="3"/>
         <v>-7607017.7819306944</v>
       </c>
-      <c r="AM57" s="1"/>
       <c r="AN57" s="1"/>
       <c r="AO57" s="1"/>
       <c r="AP57" s="1"/>
@@ -25751,8 +25850,9 @@
       <c r="BK57" s="1"/>
       <c r="BL57" s="1"/>
       <c r="BM57" s="1"/>
-    </row>
-    <row r="58" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN57" s="1"/>
+    </row>
+    <row r="58" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C58" s="4" t="s">
         <v>13</v>
       </c>
@@ -25892,11 +25992,14 @@
         <f>h!AK58*M!AJ135</f>
         <v>-13484695.995178642</v>
       </c>
-      <c r="AL58" s="6">
+      <c r="AL58" s="5">
+        <f>h!AL58*M!AK135</f>
+        <v>-177387.66033722623</v>
+      </c>
+      <c r="AM58" s="6">
         <f t="shared" si="3"/>
-        <v>-13484695.995178642</v>
-      </c>
-      <c r="AM58" s="1"/>
+        <v>-13662083.655515868</v>
+      </c>
       <c r="AN58" s="1"/>
       <c r="AO58" s="1"/>
       <c r="AP58" s="1"/>
@@ -25923,8 +26026,9 @@
       <c r="BK58" s="1"/>
       <c r="BL58" s="1"/>
       <c r="BM58" s="1"/>
-    </row>
-    <row r="59" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN58" s="1"/>
+    </row>
+    <row r="59" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C59" s="4"/>
       <c r="D59" s="14" t="s">
         <v>56</v>
@@ -25962,11 +26066,11 @@
       <c r="AI59" s="14"/>
       <c r="AJ59" s="14"/>
       <c r="AK59" s="14"/>
-      <c r="AL59" s="13" t="s">
+      <c r="AL59" s="14"/>
+      <c r="AM59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AM59" s="13"/>
-      <c r="AN59" s="1"/>
+      <c r="AN59" s="13"/>
       <c r="AO59" s="1"/>
       <c r="AP59" s="1"/>
       <c r="AQ59" s="1"/>
@@ -25992,11 +26096,12 @@
       <c r="BK59" s="1"/>
       <c r="BL59" s="1"/>
       <c r="BM59" s="1"/>
-    </row>
-    <row r="60" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN59" s="1"/>
+    </row>
+    <row r="60" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C60" s="4"/>
       <c r="D60" s="6">
-        <f t="shared" ref="D60:AK60" si="4">SUM(D44:D58)</f>
+        <f t="shared" ref="D60:AL60" si="4">SUM(D44:D58)</f>
         <v>0</v>
       </c>
       <c r="E60" s="6">
@@ -26131,7 +26236,10 @@
         <f t="shared" si="4"/>
         <v>-13484695.995178642</v>
       </c>
-      <c r="AL60" s="1"/>
+      <c r="AL60" s="6">
+        <f t="shared" si="4"/>
+        <v>-177387.66033722623</v>
+      </c>
       <c r="AM60" s="1"/>
       <c r="AN60" s="1"/>
       <c r="AO60" s="1"/>
@@ -26159,8 +26267,9 @@
       <c r="BK60" s="1"/>
       <c r="BL60" s="1"/>
       <c r="BM60" s="1"/>
-    </row>
-    <row r="61" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN60" s="1"/>
+    </row>
+    <row r="61" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C61" s="4"/>
       <c r="D61" s="14" t="s">
         <v>58</v>
@@ -26198,7 +26307,7 @@
       <c r="AI61" s="14"/>
       <c r="AJ61" s="14"/>
       <c r="AK61" s="14"/>
-      <c r="AL61" s="1"/>
+      <c r="AL61" s="14"/>
       <c r="AM61" s="1"/>
       <c r="AN61" s="1"/>
       <c r="AO61" s="1"/>
@@ -26226,8 +26335,9 @@
       <c r="BK61" s="1"/>
       <c r="BL61" s="1"/>
       <c r="BM61" s="1"/>
-    </row>
-    <row r="62" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN61" s="1"/>
+    </row>
+    <row r="62" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C62" s="4"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -26291,8 +26401,9 @@
       <c r="BK62" s="1"/>
       <c r="BL62" s="1"/>
       <c r="BM62" s="1"/>
-    </row>
-    <row r="63" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN62" s="1"/>
+    </row>
+    <row r="63" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C63" s="4"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -26356,8 +26467,9 @@
       <c r="BK63" s="1"/>
       <c r="BL63" s="1"/>
       <c r="BM63" s="1"/>
-    </row>
-    <row r="64" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN63" s="1"/>
+    </row>
+    <row r="64" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C64" s="4"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
@@ -26421,8 +26533,9 @@
       <c r="BK64" s="1"/>
       <c r="BL64" s="1"/>
       <c r="BM64" s="1"/>
-    </row>
-    <row r="65" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN64" s="1"/>
+    </row>
+    <row r="65" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C65" s="4"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -26486,8 +26599,9 @@
       <c r="BK65" s="1"/>
       <c r="BL65" s="1"/>
       <c r="BM65" s="1"/>
-    </row>
-    <row r="66" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN65" s="1"/>
+    </row>
+    <row r="66" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C66" s="4"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
@@ -26551,8 +26665,9 @@
       <c r="BK66" s="1"/>
       <c r="BL66" s="1"/>
       <c r="BM66" s="1"/>
-    </row>
-    <row r="67" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN66" s="1"/>
+    </row>
+    <row r="67" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C67" s="4"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
@@ -26616,8 +26731,9 @@
       <c r="BK67" s="1"/>
       <c r="BL67" s="1"/>
       <c r="BM67" s="1"/>
-    </row>
-    <row r="68" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN67" s="1"/>
+    </row>
+    <row r="68" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C68" s="4"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
@@ -26681,8 +26797,9 @@
       <c r="BK68" s="1"/>
       <c r="BL68" s="1"/>
       <c r="BM68" s="1"/>
-    </row>
-    <row r="69" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN68" s="1"/>
+    </row>
+    <row r="69" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C69" s="4"/>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
@@ -26746,8 +26863,9 @@
       <c r="BK69" s="1"/>
       <c r="BL69" s="1"/>
       <c r="BM69" s="1"/>
-    </row>
-    <row r="70" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN69" s="1"/>
+    </row>
+    <row r="70" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C70" s="4"/>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
@@ -26811,8 +26929,9 @@
       <c r="BK70" s="1"/>
       <c r="BL70" s="1"/>
       <c r="BM70" s="1"/>
-    </row>
-    <row r="71" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN70" s="1"/>
+    </row>
+    <row r="71" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C71" s="4"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
@@ -26876,8 +26995,9 @@
       <c r="BK71" s="1"/>
       <c r="BL71" s="1"/>
       <c r="BM71" s="1"/>
-    </row>
-    <row r="72" spans="3:65" ht="236" x14ac:dyDescent="0.2">
+      <c r="BN71" s="1"/>
+    </row>
+    <row r="72" spans="3:66" ht="236" x14ac:dyDescent="0.2">
       <c r="C72" s="4"/>
       <c r="D72" s="3" t="s">
         <v>16</v>
@@ -26967,23 +27087,25 @@
         <v>44</v>
       </c>
       <c r="AG72" s="19" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="AH72" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AI72" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="AI72" s="19" t="s">
+      <c r="AJ72" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="AJ72" s="19" t="s">
+      <c r="AK72" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="AK72" s="19" t="s">
+      <c r="AL72" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="AL72" s="19"/>
       <c r="AM72" s="19"/>
-      <c r="AN72" s="1"/>
+      <c r="AN72" s="19"/>
       <c r="AO72" s="1"/>
       <c r="AP72" s="1"/>
       <c r="AQ72" s="1"/>
@@ -27009,8 +27131,9 @@
       <c r="BK72" s="1"/>
       <c r="BL72" s="1"/>
       <c r="BM72" s="1"/>
-    </row>
-    <row r="73" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN72" s="1"/>
+    </row>
+    <row r="73" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C73" s="4" t="s">
         <v>59</v>
       </c>
@@ -27150,7 +27273,10 @@
         <f>h!AK71*M!AJ150</f>
         <v>0</v>
       </c>
-      <c r="AL73" s="1"/>
+      <c r="AL73" s="7">
+        <f>h!AL71*M!AK150</f>
+        <v>0</v>
+      </c>
       <c r="AM73" s="1"/>
       <c r="AN73" s="1"/>
       <c r="AO73" s="1"/>
@@ -27178,8 +27304,9 @@
       <c r="BK73" s="1"/>
       <c r="BL73" s="1"/>
       <c r="BM73" s="1"/>
-    </row>
-    <row r="74" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN73" s="1"/>
+    </row>
+    <row r="74" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C74" s="10" t="s">
         <v>70</v>
       </c>
@@ -27319,7 +27446,10 @@
         <f>h!AK72*M!AJ151</f>
         <v>0</v>
       </c>
-      <c r="AL74" s="1"/>
+      <c r="AL74" s="7">
+        <f>h!AL72*M!AK151</f>
+        <v>0</v>
+      </c>
       <c r="AM74" s="1"/>
       <c r="AN74" s="1"/>
       <c r="AO74" s="1"/>
@@ -27347,8 +27477,9 @@
       <c r="BK74" s="1"/>
       <c r="BL74" s="1"/>
       <c r="BM74" s="1"/>
-    </row>
-    <row r="75" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN74" s="1"/>
+    </row>
+    <row r="75" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C75" s="11" t="s">
         <v>61</v>
       </c>
@@ -27488,7 +27619,10 @@
         <f>h!AK73*M!AJ152</f>
         <v>0</v>
       </c>
-      <c r="AL75" s="1"/>
+      <c r="AL75" s="7">
+        <f>h!AL73*M!AK152</f>
+        <v>0</v>
+      </c>
       <c r="AM75" s="1"/>
       <c r="AN75" s="1"/>
       <c r="AO75" s="1"/>
@@ -27516,8 +27650,9 @@
       <c r="BK75" s="1"/>
       <c r="BL75" s="1"/>
       <c r="BM75" s="1"/>
-    </row>
-    <row r="76" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN75" s="1"/>
+    </row>
+    <row r="76" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C76" s="4" t="s">
         <v>62</v>
       </c>
@@ -27657,7 +27792,10 @@
         <f>h!AK74*M!AJ153</f>
         <v>0</v>
       </c>
-      <c r="AL76" s="1"/>
+      <c r="AL76" s="7">
+        <f>h!AL74*M!AK153</f>
+        <v>0</v>
+      </c>
       <c r="AM76" s="1"/>
       <c r="AN76" s="1"/>
       <c r="AO76" s="1"/>
@@ -27685,8 +27823,9 @@
       <c r="BK76" s="1"/>
       <c r="BL76" s="1"/>
       <c r="BM76" s="1"/>
-    </row>
-    <row r="77" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN76" s="1"/>
+    </row>
+    <row r="77" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C77" s="4" t="s">
         <v>63</v>
       </c>
@@ -27826,7 +27965,10 @@
         <f>h!AK75*M!AJ154</f>
         <v>0</v>
       </c>
-      <c r="AL77" s="1"/>
+      <c r="AL77" s="7">
+        <f>h!AL75*M!AK154</f>
+        <v>0</v>
+      </c>
       <c r="AM77" s="1"/>
       <c r="AN77" s="1"/>
       <c r="AO77" s="1"/>
@@ -27854,8 +27996,9 @@
       <c r="BK77" s="1"/>
       <c r="BL77" s="1"/>
       <c r="BM77" s="1"/>
-    </row>
-    <row r="78" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN77" s="1"/>
+    </row>
+    <row r="78" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C78" s="4" t="s">
         <v>64</v>
       </c>
@@ -27995,13 +28138,16 @@
         <f>h!AK76*M!AJ155</f>
         <v>0</v>
       </c>
-      <c r="AL78" s="1"/>
+      <c r="AL78" s="7">
+        <f>h!AL76*M!AK155</f>
+        <v>0</v>
+      </c>
       <c r="AM78" s="1"/>
       <c r="AN78" s="1"/>
       <c r="AO78" s="1"/>
       <c r="AP78" s="1"/>
-      <c r="AQ78" s="20"/>
-      <c r="AR78" s="1"/>
+      <c r="AQ78" s="1"/>
+      <c r="AR78" s="20"/>
       <c r="AS78" s="1"/>
       <c r="AT78" s="1"/>
       <c r="AU78" s="1"/>
@@ -28023,8 +28169,9 @@
       <c r="BK78" s="1"/>
       <c r="BL78" s="1"/>
       <c r="BM78" s="1"/>
-    </row>
-    <row r="79" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN78" s="1"/>
+    </row>
+    <row r="79" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C79" s="4" t="s">
         <v>65</v>
       </c>
@@ -28164,7 +28311,10 @@
         <f>h!AK77*M!AJ156</f>
         <v>0</v>
       </c>
-      <c r="AL79" s="1"/>
+      <c r="AL79" s="7">
+        <f>h!AL77*M!AK156</f>
+        <v>0</v>
+      </c>
       <c r="AM79" s="1"/>
       <c r="AN79" s="1"/>
       <c r="AO79" s="1"/>
@@ -28192,8 +28342,9 @@
       <c r="BK79" s="1"/>
       <c r="BL79" s="1"/>
       <c r="BM79" s="1"/>
-    </row>
-    <row r="80" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN79" s="1"/>
+    </row>
+    <row r="80" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C80" s="4" t="s">
         <v>66</v>
       </c>
@@ -28333,7 +28484,10 @@
         <f>h!AK78*M!AJ157</f>
         <v>0</v>
       </c>
-      <c r="AL80" s="1"/>
+      <c r="AL80" s="7">
+        <f>h!AL78*M!AK157</f>
+        <v>0</v>
+      </c>
       <c r="AM80" s="1"/>
       <c r="AN80" s="1"/>
       <c r="AO80" s="1"/>
@@ -28361,8 +28515,9 @@
       <c r="BK80" s="1"/>
       <c r="BL80" s="1"/>
       <c r="BM80" s="1"/>
-    </row>
-    <row r="81" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN80" s="1"/>
+    </row>
+    <row r="81" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C81" s="4" t="s">
         <v>67</v>
       </c>
@@ -28502,7 +28657,10 @@
         <f>h!AK79*M!AJ158</f>
         <v>0</v>
       </c>
-      <c r="AL81" s="1"/>
+      <c r="AL81" s="7">
+        <f>h!AL79*M!AK158</f>
+        <v>0</v>
+      </c>
       <c r="AM81" s="1"/>
       <c r="AN81" s="1"/>
       <c r="AO81" s="1"/>
@@ -28530,8 +28688,9 @@
       <c r="BK81" s="1"/>
       <c r="BL81" s="1"/>
       <c r="BM81" s="1"/>
-    </row>
-    <row r="82" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN81" s="1"/>
+    </row>
+    <row r="82" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C82" s="1"/>
       <c r="D82" s="14" t="s">
         <v>68</v>
@@ -28569,9 +28728,9 @@
       <c r="AI82" s="14"/>
       <c r="AJ82" s="14"/>
       <c r="AK82" s="14"/>
-      <c r="AL82" s="13"/>
+      <c r="AL82" s="14"/>
       <c r="AM82" s="13"/>
-      <c r="AN82" s="1"/>
+      <c r="AN82" s="13"/>
       <c r="AO82" s="1"/>
       <c r="AP82" s="1"/>
       <c r="AQ82" s="1"/>
@@ -28597,11 +28756,12 @@
       <c r="BK82" s="1"/>
       <c r="BL82" s="1"/>
       <c r="BM82" s="1"/>
-    </row>
-    <row r="83" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN82" s="1"/>
+    </row>
+    <row r="83" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C83" s="1"/>
       <c r="D83" s="6">
-        <f t="shared" ref="D83:AK83" si="5">SUM(D73:D81)</f>
+        <f t="shared" ref="D83:AL83" si="5">SUM(D73:D81)</f>
         <v>-6518321.9740549205</v>
       </c>
       <c r="E83" s="6">
@@ -28736,7 +28896,10 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AL83" s="1"/>
+      <c r="AL83" s="6">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="AM83" s="1"/>
       <c r="AN83" s="1"/>
       <c r="AO83" s="1"/>
@@ -28764,8 +28927,9 @@
       <c r="BK83" s="1"/>
       <c r="BL83" s="1"/>
       <c r="BM83" s="1"/>
-    </row>
-    <row r="84" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN83" s="1"/>
+    </row>
+    <row r="84" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C84" s="1"/>
       <c r="D84" s="14" t="s">
         <v>69</v>
@@ -28803,9 +28967,9 @@
       <c r="AI84" s="14"/>
       <c r="AJ84" s="14"/>
       <c r="AK84" s="14"/>
-      <c r="AL84" s="13"/>
+      <c r="AL84" s="14"/>
       <c r="AM84" s="13"/>
-      <c r="AN84" s="1"/>
+      <c r="AN84" s="13"/>
       <c r="AO84" s="1"/>
       <c r="AP84" s="1"/>
       <c r="AQ84" s="1"/>
@@ -28831,8 +28995,9 @@
       <c r="BK84" s="1"/>
       <c r="BL84" s="1"/>
       <c r="BM84" s="1"/>
-    </row>
-    <row r="85" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN84" s="1"/>
+    </row>
+    <row r="85" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
@@ -28896,8 +29061,9 @@
       <c r="BK85" s="1"/>
       <c r="BL85" s="1"/>
       <c r="BM85" s="1"/>
-    </row>
-    <row r="86" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN85" s="1"/>
+    </row>
+    <row r="86" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
@@ -28961,8 +29127,9 @@
       <c r="BK86" s="1"/>
       <c r="BL86" s="1"/>
       <c r="BM86" s="1"/>
-    </row>
-    <row r="95" spans="3:65" x14ac:dyDescent="0.2">
+      <c r="BN86" s="1"/>
+    </row>
+    <row r="95" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C95" s="1"/>
       <c r="D95" s="14" t="s">
         <v>83</v>
@@ -28976,7 +29143,7 @@
       <c r="K95" s="14"/>
       <c r="L95" s="14"/>
     </row>
-    <row r="96" spans="3:65" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:66" x14ac:dyDescent="0.2">
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
@@ -29004,23 +29171,23 @@
       <c r="C98" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D98" s="6">
-        <f>D83</f>
+      <c r="D98" s="6" cm="1">
+        <f t="array" ref="D98:D132">TRANSPOSE(D83:AL83)</f>
         <v>-6518321.9740549205</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="6" cm="1">
-        <f t="array" ref="F98:F131">TRANSPOSE(D60:AK60)</f>
+        <f t="array" ref="F98:F132">TRANSPOSE(D60:AL60)</f>
         <v>0</v>
       </c>
       <c r="G98" s="1"/>
       <c r="H98" s="6">
-        <f>BF5</f>
+        <f>BG5</f>
         <v>-6518321.9740549205</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="6">
-        <f>BM5</f>
+        <f>BN5</f>
         <v>0</v>
       </c>
       <c r="K98" s="1"/>
@@ -29034,7 +29201,6 @@
         <v>17</v>
       </c>
       <c r="D99" s="6">
-        <f>E83</f>
         <v>-2526033.0144413244</v>
       </c>
       <c r="E99" s="1"/>
@@ -29043,17 +29209,17 @@
       </c>
       <c r="G99" s="1"/>
       <c r="H99" s="6">
-        <f>BF6</f>
+        <f t="shared" ref="H99:H132" si="6">BG6</f>
         <v>-2526033.0144413244</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" s="6">
-        <f t="shared" ref="J99:J131" si="6">BM6</f>
+        <f t="shared" ref="J99:J132" si="7">BN6</f>
         <v>0</v>
       </c>
       <c r="K99" s="1"/>
       <c r="L99" s="26">
-        <f>D99+F99-H99-J99</f>
+        <f t="shared" ref="L99:L132" si="8">D99+F99-H99-J99</f>
         <v>0</v>
       </c>
     </row>
@@ -29062,7 +29228,6 @@
         <v>18</v>
       </c>
       <c r="D100" s="6">
-        <f>F83</f>
         <v>7797698.1720160255</v>
       </c>
       <c r="E100" s="1"/>
@@ -29071,17 +29236,17 @@
       </c>
       <c r="G100" s="1"/>
       <c r="H100" s="6">
-        <f>BF7</f>
+        <f t="shared" si="6"/>
         <v>7797698.1720160255</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K100" s="1"/>
       <c r="L100" s="26">
-        <f>D100+F100-H100-J100</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29090,7 +29255,6 @@
         <v>19</v>
       </c>
       <c r="D101" s="6">
-        <f>G83</f>
         <v>0</v>
       </c>
       <c r="E101" s="1"/>
@@ -29099,17 +29263,17 @@
       </c>
       <c r="G101" s="1"/>
       <c r="H101" s="6">
-        <f>BF8</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K101" s="1"/>
       <c r="L101" s="26">
-        <f>ROUND(D101+F101-H101-J101, 10)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29118,7 +29282,6 @@
         <v>20</v>
       </c>
       <c r="D102" s="6">
-        <f>H83</f>
         <v>1003.9585521349301</v>
       </c>
       <c r="E102" s="1"/>
@@ -29127,17 +29290,17 @@
       </c>
       <c r="G102" s="1"/>
       <c r="H102" s="6">
-        <f>BF9</f>
+        <f t="shared" si="6"/>
         <v>334.6528507116434</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K102" s="1"/>
       <c r="L102" s="26">
-        <f t="shared" ref="L102:L131" si="7">D102+F102-H102-J102</f>
+        <f t="shared" si="8"/>
         <v>669.30570142328668</v>
       </c>
     </row>
@@ -29146,7 +29309,6 @@
         <v>55</v>
       </c>
       <c r="D103" s="6">
-        <f>I83</f>
         <v>328115.73370759824</v>
       </c>
       <c r="E103" s="1"/>
@@ -29155,17 +29317,17 @@
       </c>
       <c r="G103" s="1"/>
       <c r="H103" s="6">
-        <f>BF10</f>
+        <f t="shared" si="6"/>
         <v>109371.91123586606</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K103" s="1"/>
       <c r="L103" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>218743.82247173216</v>
       </c>
     </row>
@@ -29174,7 +29336,6 @@
         <v>72</v>
       </c>
       <c r="D104" s="6">
-        <f>J83</f>
         <v>-1.1322425723331082</v>
       </c>
       <c r="E104" s="1"/>
@@ -29183,17 +29344,17 @@
       </c>
       <c r="G104" s="1"/>
       <c r="H104" s="6">
-        <f>BF11</f>
+        <f t="shared" si="6"/>
         <v>-1.1322425723331082</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K104" s="1"/>
       <c r="L104" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29202,7 +29363,6 @@
         <v>23</v>
       </c>
       <c r="D105" s="6">
-        <f>K83</f>
         <v>193470.79284293839</v>
       </c>
       <c r="E105" s="1"/>
@@ -29211,17 +29371,17 @@
       </c>
       <c r="G105" s="1"/>
       <c r="H105" s="6">
-        <f>BF12</f>
+        <f t="shared" si="6"/>
         <v>193470.79284293839</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K105" s="1"/>
       <c r="L105" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29230,7 +29390,6 @@
         <v>24</v>
       </c>
       <c r="D106" s="6">
-        <f>L83</f>
         <v>0</v>
       </c>
       <c r="E106" s="1"/>
@@ -29239,17 +29398,17 @@
       </c>
       <c r="G106" s="1"/>
       <c r="H106" s="6">
-        <f>BF13</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K106" s="1"/>
       <c r="L106" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29258,7 +29417,6 @@
         <v>25</v>
       </c>
       <c r="D107" s="6">
-        <f>L84</f>
         <v>0</v>
       </c>
       <c r="E107" s="1"/>
@@ -29267,17 +29425,17 @@
       </c>
       <c r="G107" s="1"/>
       <c r="H107" s="6">
-        <f>BF14</f>
+        <f t="shared" si="6"/>
         <v>-6518321.9740549205</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K107" s="1"/>
       <c r="L107" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29286,7 +29444,6 @@
         <v>26</v>
       </c>
       <c r="D108" s="6">
-        <f t="shared" ref="D108:D120" si="8">L85</f>
         <v>0</v>
       </c>
       <c r="E108" s="1"/>
@@ -29295,17 +29452,17 @@
       </c>
       <c r="G108" s="1"/>
       <c r="H108" s="6">
-        <f>BF15</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-92800.199170167121</v>
       </c>
       <c r="K108" s="1"/>
       <c r="L108" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29314,7 +29471,6 @@
         <v>27</v>
       </c>
       <c r="D109" s="6">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E109" s="1"/>
@@ -29323,17 +29479,17 @@
       </c>
       <c r="G109" s="1"/>
       <c r="H109" s="6">
-        <f>BF16</f>
+        <f t="shared" si="6"/>
         <v>-2526033.0144413244</v>
       </c>
       <c r="I109" s="1"/>
       <c r="J109" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K109" s="1"/>
       <c r="L109" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29342,7 +29498,6 @@
         <v>28</v>
       </c>
       <c r="D110" s="6">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E110" s="1"/>
@@ -29351,17 +29506,17 @@
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="6">
-        <f>BF17</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I110" s="1"/>
       <c r="J110" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-278.40895638262936</v>
       </c>
       <c r="K110" s="1"/>
       <c r="L110" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29370,7 +29525,6 @@
         <v>29</v>
       </c>
       <c r="D111" s="6">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E111" s="27" t="s">
@@ -29383,21 +29537,21 @@
         <v>74</v>
       </c>
       <c r="H111" s="6">
-        <f>BF18</f>
+        <f t="shared" si="6"/>
         <v>7797698.1720160255</v>
       </c>
       <c r="I111" s="28" t="s">
         <v>74</v>
       </c>
       <c r="J111" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K111" s="27" t="s">
         <v>75</v>
       </c>
       <c r="L111" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29406,7 +29560,6 @@
         <v>30</v>
       </c>
       <c r="D112" s="6">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E112" s="1"/>
@@ -29415,17 +29568,17 @@
       </c>
       <c r="G112" s="1"/>
       <c r="H112" s="6">
-        <f>BF19</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I112" s="1"/>
       <c r="J112" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-22073.212235503393</v>
       </c>
       <c r="K112" s="1"/>
       <c r="L112" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29434,7 +29587,6 @@
         <v>31</v>
       </c>
       <c r="D113" s="6">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E113" s="1"/>
@@ -29443,17 +29595,17 @@
       </c>
       <c r="G113" s="1"/>
       <c r="H113" s="6">
-        <f>BF20</f>
+        <f t="shared" si="6"/>
         <v>-6518321.9740549205</v>
       </c>
       <c r="I113" s="1"/>
       <c r="J113" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K113" s="1"/>
       <c r="L113" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29462,7 +29614,6 @@
         <v>32</v>
       </c>
       <c r="D114" s="6">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E114" s="1"/>
@@ -29471,17 +29622,17 @@
       </c>
       <c r="G114" s="1"/>
       <c r="H114" s="6">
-        <f>BF21</f>
+        <f t="shared" si="6"/>
         <v>-2526033.0144413244</v>
       </c>
       <c r="I114" s="1"/>
       <c r="J114" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K114" s="1"/>
       <c r="L114" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29490,7 +29641,6 @@
         <v>33</v>
       </c>
       <c r="D115" s="6">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E115" s="1"/>
@@ -29499,17 +29649,17 @@
       </c>
       <c r="G115" s="1"/>
       <c r="H115" s="6">
-        <f>BF22</f>
+        <f t="shared" si="6"/>
         <v>7797698.1720160255</v>
       </c>
       <c r="I115" s="1"/>
       <c r="J115" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K115" s="1"/>
       <c r="L115" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29518,7 +29668,6 @@
         <v>34</v>
       </c>
       <c r="D116" s="6">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E116" s="1"/>
@@ -29527,17 +29676,17 @@
       </c>
       <c r="G116" s="1"/>
       <c r="H116" s="6">
-        <f>BF23</f>
+        <f t="shared" si="6"/>
         <v>-6350200.177331822</v>
       </c>
       <c r="I116" s="1"/>
       <c r="J116" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K116" s="1"/>
       <c r="L116" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29546,7 +29695,6 @@
         <v>35</v>
       </c>
       <c r="D117" s="6">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E117" s="1"/>
@@ -29555,17 +29703,17 @@
       </c>
       <c r="G117" s="1"/>
       <c r="H117" s="6">
-        <f>BF24</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I117" s="1"/>
       <c r="J117" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-168121.79672309788</v>
       </c>
       <c r="K117" s="1"/>
       <c r="L117" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29574,7 +29722,6 @@
         <v>36</v>
       </c>
       <c r="D118" s="6">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E118" s="1"/>
@@ -29583,17 +29730,17 @@
       </c>
       <c r="G118" s="1"/>
       <c r="H118" s="6">
-        <f>BF25</f>
+        <f t="shared" si="6"/>
         <v>-2526033.0144413244</v>
       </c>
       <c r="I118" s="1"/>
       <c r="J118" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K118" s="1"/>
       <c r="L118" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29602,7 +29749,6 @@
         <v>37</v>
       </c>
       <c r="D119" s="6">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E119" s="1"/>
@@ -29611,17 +29757,17 @@
       </c>
       <c r="G119" s="1"/>
       <c r="H119" s="6">
-        <f>BF26</f>
+        <f t="shared" si="6"/>
         <v>7797698.1720160255</v>
       </c>
       <c r="I119" s="1"/>
       <c r="J119" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K119" s="1"/>
       <c r="L119" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29630,7 +29776,6 @@
         <v>38</v>
       </c>
       <c r="D120" s="6">
-        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="E120" s="1"/>
@@ -29639,17 +29784,17 @@
       </c>
       <c r="G120" s="1"/>
       <c r="H120" s="6">
-        <f>BF27</f>
+        <f t="shared" si="6"/>
         <v>-1256817.6045988721</v>
       </c>
       <c r="I120" s="1"/>
       <c r="J120" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K120" s="1"/>
       <c r="L120" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29666,17 +29811,17 @@
       </c>
       <c r="G121" s="1"/>
       <c r="H121" s="6">
-        <f>BF28</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I121" s="1"/>
       <c r="J121" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-74404.460335125405</v>
       </c>
       <c r="K121" s="1"/>
       <c r="L121" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29693,17 +29838,17 @@
       </c>
       <c r="G122" s="1"/>
       <c r="H122" s="6">
-        <f>BF29</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I122" s="1"/>
       <c r="J122" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-4958954.8570276452</v>
       </c>
       <c r="K122" s="1"/>
       <c r="L122" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29720,17 +29865,17 @@
       </c>
       <c r="G123" s="1"/>
       <c r="H123" s="6">
-        <f>BF30</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I123" s="1"/>
       <c r="J123" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K123" s="1"/>
       <c r="L123" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29747,17 +29892,17 @@
       </c>
       <c r="G124" s="1"/>
       <c r="H124" s="6">
-        <f>BF31</f>
+        <f t="shared" si="6"/>
         <v>-18462.919202332854</v>
       </c>
       <c r="I124" s="1"/>
       <c r="J124" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K124" s="1"/>
       <c r="L124" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29774,17 +29919,17 @@
       </c>
       <c r="G125" s="1"/>
       <c r="H125" s="6">
-        <f>BF32</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I125" s="1"/>
       <c r="J125" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-275482.6770876646</v>
       </c>
       <c r="K125" s="1"/>
       <c r="L125" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
@@ -29801,23 +29946,23 @@
       </c>
       <c r="G126" s="1"/>
       <c r="H126" s="6">
-        <f>BF33</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I126" s="1"/>
       <c r="J126" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-1849221.9569422239</v>
       </c>
       <c r="K126" s="1"/>
       <c r="L126" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="127" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C127" s="11" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="D127" s="6">
         <v>0</v>
@@ -29828,23 +29973,23 @@
       </c>
       <c r="G127" s="1"/>
       <c r="H127" s="6">
-        <f>BF34</f>
+        <f t="shared" si="6"/>
         <v>0.42838067413113712</v>
       </c>
       <c r="I127" s="1"/>
       <c r="J127" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K127" s="1"/>
       <c r="L127" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="128" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C128" s="11" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="D128" s="6">
         <v>0</v>
@@ -29855,23 +30000,23 @@
       </c>
       <c r="G128" s="1"/>
       <c r="H128" s="6">
-        <f>BF36</f>
-        <v>-7607017.7819306944</v>
+        <f t="shared" si="6"/>
+        <v>0.36412357301146647</v>
       </c>
       <c r="I128" s="1"/>
       <c r="J128" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>6.4257101119670562E-2</v>
       </c>
       <c r="K128" s="1"/>
       <c r="L128" s="26">
-        <f t="shared" si="7"/>
-        <v>7607018.146054267</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C129" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D129" s="6">
         <v>0</v>
@@ -29882,23 +30027,23 @@
       </c>
       <c r="G129" s="1"/>
       <c r="H129" s="6">
-        <f>BF37</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>-7607017.7819306944</v>
       </c>
       <c r="I129" s="1"/>
       <c r="J129" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K129" s="1"/>
       <c r="L129" s="26">
-        <f t="shared" si="7"/>
-        <v>-7607017.7819306944</v>
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C130" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D130" s="6">
         <v>0</v>
@@ -29909,23 +30054,23 @@
       </c>
       <c r="G130" s="1"/>
       <c r="H130" s="6">
-        <f>BF38</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I130" s="1"/>
       <c r="J130" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K130" s="1"/>
       <c r="L130" s="26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="131" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C131" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D131" s="6">
         <v>0</v>
@@ -29936,54 +30081,69 @@
       </c>
       <c r="G131" s="1"/>
       <c r="H131" s="6">
-        <f>BF39</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I131" s="1"/>
       <c r="J131" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-13484695.995178642</v>
       </c>
       <c r="K131" s="1"/>
       <c r="L131" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C132" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D132" s="6">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1"/>
+      <c r="F132" s="6">
+        <v>-177387.66033722623</v>
+      </c>
+      <c r="G132" s="1"/>
+      <c r="H132" s="6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I132" s="1"/>
+      <c r="J132" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="3:14" ht="17" x14ac:dyDescent="0.2">
-      <c r="C132" s="11"/>
-      <c r="D132" s="1" t="s">
+        <v>-177387.66033722623</v>
+      </c>
+      <c r="K132" s="1"/>
+      <c r="L132" s="26">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="3:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="C133" s="11"/>
+      <c r="D133" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E132" s="1"/>
-      <c r="F132" s="1" t="s">
+      <c r="E133" s="1"/>
+      <c r="F133" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G132" s="1"/>
-      <c r="H132" s="13" t="s">
+      <c r="G133" s="1"/>
+      <c r="H133" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I132" s="1"/>
-      <c r="J132" s="13" t="s">
+      <c r="I133" s="1"/>
+      <c r="J133" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="K132" s="1"/>
-      <c r="L132" s="13">
-        <f>SUM(L98:L131)</f>
-        <v>219413.49229672831</v>
-      </c>
-    </row>
-    <row r="133" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C133" s="11"/>
-      <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-      <c r="F133" s="1"/>
-      <c r="G133" s="1"/>
-      <c r="H133" s="13"/>
-      <c r="I133" s="1"/>
-      <c r="J133" s="13"/>
       <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
+      <c r="L133" s="13">
+        <f>SUM(L98:L132)</f>
+        <v>219413.12817315545</v>
+      </c>
     </row>
     <row r="134" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C134" s="11"/>
@@ -29991,21 +30151,19 @@
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
       <c r="G134" s="1"/>
-      <c r="H134" s="1"/>
+      <c r="H134" s="13"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
+      <c r="J134" s="13"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
     </row>
     <row r="135" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C135" s="1"/>
-      <c r="D135" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="1"/>
+      <c r="E135" s="1"/>
+      <c r="F135" s="1"/>
+      <c r="G135" s="1"/>
+      <c r="H135" s="1"/>
       <c r="I135" s="1"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
@@ -30013,11 +30171,13 @@
     </row>
     <row r="136" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C136" s="1"/>
-      <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-      <c r="F136" s="1"/>
-      <c r="G136" s="1"/>
-      <c r="H136" s="1"/>
+      <c r="D136" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+      <c r="H136" s="14"/>
       <c r="I136" s="1"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
@@ -30036,38 +30196,24 @@
       <c r="L137" s="1"/>
     </row>
     <row r="138" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C138" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D138" s="6" cm="1">
-        <f t="array" ref="D138:D152">TRANSPOSE(AQ41:BE41)</f>
-        <v>-6430161.3171501467</v>
-      </c>
-      <c r="E138" s="31"/>
-      <c r="F138" s="6">
-        <v>0</v>
-      </c>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="E138" s="1"/>
+      <c r="F138" s="1"/>
       <c r="G138" s="1"/>
-      <c r="H138" s="6">
-        <f>AL44</f>
-        <v>-6611122.173225088</v>
-      </c>
+      <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="26">
-        <f>D138+F138-H138</f>
-        <v>180960.85607494134</v>
-      </c>
+      <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
-      <c r="M138" s="1"/>
-      <c r="N138" s="1"/>
     </row>
     <row r="139" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C139" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D139" s="6">
-        <v>-2525792.5552207911</v>
+        <v>0</v>
+      </c>
+      <c r="D139" s="6" cm="1">
+        <f t="array" ref="D139:D153">TRANSPOSE(AR41:BF41)</f>
+        <v>-6430161.3171501467</v>
       </c>
       <c r="E139" s="31"/>
       <c r="F139" s="6">
@@ -30075,13 +30221,13 @@
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="6">
-        <f t="shared" ref="H139:H153" si="9">AL45</f>
-        <v>-2526311.4233977068</v>
+        <f>AM44</f>
+        <v>-6611122.173225088</v>
       </c>
       <c r="I139" s="1"/>
       <c r="J139" s="26">
-        <f t="shared" ref="J139:J152" si="10">D139+F139-H139</f>
-        <v>518.86817691568285</v>
+        <f>D139+F139-H139</f>
+        <v>180960.85607494134</v>
       </c>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -30090,24 +30236,24 @@
     </row>
     <row r="140" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C140" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D140" s="6">
-        <v>7818667.834884013</v>
+        <v>-2525792.5552207911</v>
       </c>
       <c r="E140" s="31"/>
       <c r="F140" s="6">
-        <v>77449.427901236573</v>
+        <v>0</v>
       </c>
       <c r="G140" s="1"/>
       <c r="H140" s="6">
-        <f t="shared" si="9"/>
-        <v>7775624.9597805217</v>
+        <f t="shared" ref="H140:H154" si="9">AM45</f>
+        <v>-2526311.4233977068</v>
       </c>
       <c r="I140" s="1"/>
       <c r="J140" s="26">
-        <f t="shared" si="10"/>
-        <v>120492.3030047277</v>
+        <f t="shared" ref="J140:J153" si="10">D140+F140-H140</f>
+        <v>518.86817691568285</v>
       </c>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -30116,24 +30262,24 @@
     </row>
     <row r="141" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C141" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D141" s="6">
-        <v>-6518321.9740549205</v>
+        <v>7818667.834884013</v>
       </c>
       <c r="E141" s="31"/>
       <c r="F141" s="6">
-        <v>609792.2517593482</v>
-      </c>
-      <c r="G141" s="29"/>
+        <v>77449.427901236573</v>
+      </c>
+      <c r="G141" s="1"/>
       <c r="H141" s="6">
         <f t="shared" si="9"/>
-        <v>-6518321.9740549205</v>
-      </c>
-      <c r="I141" s="29"/>
+        <v>7775624.9597805217</v>
+      </c>
+      <c r="I141" s="1"/>
       <c r="J141" s="26">
         <f t="shared" si="10"/>
-        <v>609792.25175934844</v>
+        <v>120492.3030047277</v>
       </c>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -30142,76 +30288,76 @@
     </row>
     <row r="142" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C142" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D142" s="6">
-        <v>-2526033.0144413244</v>
+        <v>-6518321.9740549205</v>
       </c>
       <c r="E142" s="31"/>
       <c r="F142" s="6">
-        <v>2824.8856477449194</v>
-      </c>
-      <c r="G142" s="1"/>
+        <v>609792.2517593482</v>
+      </c>
+      <c r="G142" s="29"/>
       <c r="H142" s="6">
         <f t="shared" si="9"/>
-        <v>-2526033.0144413244</v>
-      </c>
-      <c r="I142" s="1"/>
+        <v>-6518321.9740549205</v>
+      </c>
+      <c r="I142" s="29"/>
       <c r="J142" s="26">
         <f t="shared" si="10"/>
-        <v>2824.8856477448717</v>
-      </c>
-      <c r="K142" s="30"/>
-      <c r="L142" s="30"/>
-      <c r="M142" s="30"/>
-      <c r="N142" s="30"/>
+        <v>609792.25175934844</v>
+      </c>
+      <c r="K142" s="1"/>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1"/>
+      <c r="N142" s="1"/>
     </row>
     <row r="143" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C143" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D143" s="6">
-        <v>7797698.1720160255</v>
+        <v>-2526033.0144413244</v>
       </c>
       <c r="E143" s="31"/>
       <c r="F143" s="6">
-        <v>160253.43323591491</v>
+        <v>2824.8856477449194</v>
       </c>
       <c r="G143" s="1"/>
       <c r="H143" s="6">
         <f t="shared" si="9"/>
-        <v>7797698.1720160255</v>
+        <v>-2526033.0144413244</v>
       </c>
       <c r="I143" s="1"/>
       <c r="J143" s="26">
         <f t="shared" si="10"/>
-        <v>160253.43323591445</v>
-      </c>
-      <c r="K143" s="1"/>
-      <c r="L143" s="1"/>
-      <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
+        <v>2824.8856477448717</v>
+      </c>
+      <c r="K143" s="30"/>
+      <c r="L143" s="30"/>
+      <c r="M143" s="30"/>
+      <c r="N143" s="30"/>
     </row>
     <row r="144" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C144" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D144" s="6">
-        <v>-6518321.9740549205</v>
+        <v>7797698.1720160255</v>
       </c>
       <c r="E144" s="31"/>
       <c r="F144" s="6">
-        <v>12479.249680000003</v>
+        <v>160253.43323591491</v>
       </c>
       <c r="G144" s="1"/>
       <c r="H144" s="6">
         <f t="shared" si="9"/>
-        <v>-6518321.9740549196</v>
+        <v>7797698.1720160255</v>
       </c>
       <c r="I144" s="1"/>
       <c r="J144" s="26">
         <f t="shared" si="10"/>
-        <v>12479.249679999426</v>
+        <v>160253.43323591445</v>
       </c>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -30220,30 +30366,24 @@
     </row>
     <row r="145" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C145" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D145" s="6">
-        <v>-2526033.0144413244</v>
-      </c>
-      <c r="E145" s="31" t="s">
-        <v>73</v>
-      </c>
+        <v>-6518321.9740549205</v>
+      </c>
+      <c r="E145" s="31"/>
       <c r="F145" s="6">
-        <v>34.678095164114971</v>
-      </c>
-      <c r="G145" s="28" t="s">
-        <v>80</v>
-      </c>
+        <v>12479.249680000003</v>
+      </c>
+      <c r="G145" s="1"/>
       <c r="H145" s="6">
         <f t="shared" si="9"/>
-        <v>-2526033.0144413244</v>
-      </c>
-      <c r="I145" s="28" t="s">
-        <v>75</v>
-      </c>
+        <v>-6518321.9740549196</v>
+      </c>
+      <c r="I145" s="1"/>
       <c r="J145" s="26">
         <f t="shared" si="10"/>
-        <v>34.678095164243132</v>
+        <v>12479.249679999426</v>
       </c>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -30252,24 +30392,30 @@
     </row>
     <row r="146" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C146" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D146" s="6">
-        <v>7797698.1720160255</v>
-      </c>
-      <c r="E146" s="31"/>
+        <v>-2526033.0144413244</v>
+      </c>
+      <c r="E146" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="F146" s="6">
-        <v>28604.157765782104</v>
-      </c>
-      <c r="G146" s="1"/>
+        <v>34.678095164114971</v>
+      </c>
+      <c r="G146" s="28" t="s">
+        <v>80</v>
+      </c>
       <c r="H146" s="6">
         <f t="shared" si="9"/>
-        <v>7797698.1720160255</v>
-      </c>
-      <c r="I146" s="1"/>
+        <v>-2526033.0144413244</v>
+      </c>
+      <c r="I146" s="28" t="s">
+        <v>75</v>
+      </c>
       <c r="J146" s="26">
         <f t="shared" si="10"/>
-        <v>28604.157765782438</v>
+        <v>34.678095164243132</v>
       </c>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -30278,24 +30424,24 @@
     </row>
     <row r="147" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C147" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D147" s="6">
-        <v>-2525699.3520417055</v>
+        <v>7797698.1720160255</v>
       </c>
       <c r="E147" s="31"/>
       <c r="F147" s="6">
-        <v>0</v>
+        <v>28604.157765782104</v>
       </c>
       <c r="G147" s="1"/>
       <c r="H147" s="6">
         <f t="shared" si="9"/>
-        <v>-6290176.9219616428</v>
+        <v>7797698.1720160255</v>
       </c>
       <c r="I147" s="1"/>
       <c r="J147" s="26">
         <f t="shared" si="10"/>
-        <v>3764477.5699199373</v>
+        <v>28604.157765782438</v>
       </c>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -30304,10 +30450,10 @@
     </row>
     <row r="148" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C148" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D148" s="6">
-        <v>7797698.5084149474</v>
+        <v>-2525699.3520417055</v>
       </c>
       <c r="E148" s="31"/>
       <c r="F148" s="6">
@@ -30316,12 +30462,12 @@
       <c r="G148" s="1"/>
       <c r="H148" s="6">
         <f t="shared" si="9"/>
-        <v>-2143167.5532322214</v>
+        <v>-6290176.9219616428</v>
       </c>
       <c r="I148" s="1"/>
       <c r="J148" s="26">
         <f t="shared" si="10"/>
-        <v>9940866.0616471693</v>
+        <v>3764477.5699199373</v>
       </c>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -30329,25 +30475,25 @@
       <c r="N148" s="1"/>
     </row>
     <row r="149" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="C149" s="52" t="s">
-        <v>87</v>
+      <c r="C149" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="D149" s="6">
-        <v>-18462.919202332854</v>
+        <v>7797698.5084149474</v>
       </c>
       <c r="E149" s="31"/>
       <c r="F149" s="6">
-        <v>50099.526545856235</v>
+        <v>0</v>
       </c>
       <c r="G149" s="1"/>
       <c r="H149" s="6">
         <f t="shared" si="9"/>
-        <v>0.42838067413113712</v>
+        <v>-2143167.5532322214</v>
       </c>
       <c r="I149" s="1"/>
       <c r="J149" s="26">
         <f t="shared" si="10"/>
-        <v>31636.178962849252</v>
+        <v>9940866.0616471693</v>
       </c>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -30356,14 +30502,14 @@
     </row>
     <row r="150" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C150" s="52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D150" s="6">
-        <v>0.42838067413113712</v>
+        <v>-18462.919202332854</v>
       </c>
       <c r="E150" s="31"/>
       <c r="F150" s="6">
-        <v>0</v>
+        <v>50099.526545856235</v>
       </c>
       <c r="G150" s="1"/>
       <c r="H150" s="6">
@@ -30373,7 +30519,7 @@
       <c r="I150" s="1"/>
       <c r="J150" s="26">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>31636.178962849252</v>
       </c>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -30382,10 +30528,10 @@
     </row>
     <row r="151" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C151" s="52" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="D151" s="6">
-        <v>-7607017.7819306944</v>
+        <v>0.42838067413113712</v>
       </c>
       <c r="E151" s="31"/>
       <c r="F151" s="6">
@@ -30394,7 +30540,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="6">
         <f t="shared" si="9"/>
-        <v>-7607017.7819306944</v>
+        <v>0.42838067413113712</v>
       </c>
       <c r="I151" s="1"/>
       <c r="J151" s="26">
@@ -30408,24 +30554,24 @@
     </row>
     <row r="152" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C152" s="52" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D152" s="6">
-        <v>-7413545.9709120123</v>
+        <v>-7607017.7819306944</v>
       </c>
       <c r="E152" s="31"/>
-      <c r="F152" s="49">
-        <v>317844.87395625591</v>
-      </c>
-      <c r="G152" s="28"/>
+      <c r="F152" s="6">
+        <v>0</v>
+      </c>
+      <c r="G152" s="1"/>
       <c r="H152" s="6">
         <f t="shared" si="9"/>
-        <v>-13484695.995178642</v>
+        <v>-7607017.7819306944</v>
       </c>
       <c r="I152" s="1"/>
       <c r="J152" s="26">
         <f t="shared" si="10"/>
-        <v>6388994.8982228851</v>
+        <v>0</v>
       </c>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -30433,37 +30579,63 @@
       <c r="N152" s="1"/>
     </row>
     <row r="153" spans="3:14" x14ac:dyDescent="0.2">
-      <c r="D153" s="28" t="s">
+      <c r="C153" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" s="6">
+        <v>-7413545.9709120123</v>
+      </c>
+      <c r="E153" s="31"/>
+      <c r="F153" s="49">
+        <v>317844.87395625591</v>
+      </c>
+      <c r="G153" s="28"/>
+      <c r="H153" s="6">
+        <f t="shared" si="9"/>
+        <v>-13662083.655515868</v>
+      </c>
+      <c r="I153" s="1"/>
+      <c r="J153" s="26">
+        <f t="shared" si="10"/>
+        <v>6566382.5585601116</v>
+      </c>
+      <c r="K153" s="1"/>
+      <c r="L153" s="1"/>
+      <c r="M153" s="1"/>
+      <c r="N153" s="1"/>
+    </row>
+    <row r="154" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D154" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E153" s="28"/>
-      <c r="F153" s="28" t="s">
+      <c r="E154" s="28"/>
+      <c r="F154" s="28" t="s">
         <v>84</v>
       </c>
-      <c r="G153" s="28"/>
-      <c r="H153" s="71" t="str">
+      <c r="G154" s="28"/>
+      <c r="H154" s="71" t="str">
         <f t="shared" si="9"/>
         <v>Vi</v>
       </c>
-      <c r="I153" s="1"/>
-      <c r="J153" s="28" t="s">
+      <c r="I154" s="1"/>
+      <c r="J154" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="K153" s="1"/>
-      <c r="L153" s="1"/>
+      <c r="K154" s="1"/>
+      <c r="L154" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="D82:AK82"/>
-    <mergeCell ref="D84:AK84"/>
+    <mergeCell ref="D82:AL82"/>
+    <mergeCell ref="D84:AL84"/>
     <mergeCell ref="D95:L95"/>
-    <mergeCell ref="D135:H135"/>
-    <mergeCell ref="AQ40:BE40"/>
-    <mergeCell ref="BK40:BL40"/>
+    <mergeCell ref="D136:H136"/>
+    <mergeCell ref="AR40:BF40"/>
+    <mergeCell ref="BL40:BM40"/>
     <mergeCell ref="D42:E42"/>
-    <mergeCell ref="AQ42:BE42"/>
-    <mergeCell ref="D59:AK59"/>
-    <mergeCell ref="D61:AK61"/>
+    <mergeCell ref="AR42:BF42"/>
+    <mergeCell ref="D59:AL59"/>
+    <mergeCell ref="D61:AL61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/hM_trial.xlsx
+++ b/data/hM_trial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinschuman/Documents/github/MaterialExergyPaper/MaterialExergyPaper2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C329899-C20C-E94D-950D-B1BF64B45056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24755088-3794-BC48-805B-F4E0476B63FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="3020" windowWidth="37700" windowHeight="23360" activeTab="2" xr2:uid="{60ED9AA8-3852-9842-B346-E2FD5CB3AA75}"/>
+    <workbookView xWindow="6400" yWindow="800" windowWidth="37700" windowHeight="23360" activeTab="2" xr2:uid="{60ED9AA8-3852-9842-B346-E2FD5CB3AA75}"/>
   </bookViews>
   <sheets>
     <sheet name="h" sheetId="2" r:id="rId1"/>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61AE18B6-B8F5-6345-9BBC-83B29165D6F4}">
   <dimension ref="A1:BM84"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75:I76"/>
+    <sheetView zoomScale="30" zoomScaleNormal="30" workbookViewId="0">
+      <selection activeCell="J66" sqref="J66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7654,7 +7654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06264013-ABCC-9745-870A-4E82469D68A7}">
   <dimension ref="B1:BX231"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
+    <sheetView topLeftCell="D79" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="H155" sqref="H155"/>
     </sheetView>
   </sheetViews>
@@ -18445,11 +18445,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AQ37:BE37"/>
-    <mergeCell ref="BK37:BX37"/>
-    <mergeCell ref="AQ76:BE76"/>
-    <mergeCell ref="AQ116:BE116"/>
-    <mergeCell ref="BK116:BL116"/>
     <mergeCell ref="C165:K165"/>
     <mergeCell ref="C206:G206"/>
     <mergeCell ref="AQ118:BE118"/>
@@ -18458,6 +18453,11 @@
     <mergeCell ref="C138:AK138"/>
     <mergeCell ref="C159:AK159"/>
     <mergeCell ref="C161:AK161"/>
+    <mergeCell ref="AQ37:BE37"/>
+    <mergeCell ref="BK37:BX37"/>
+    <mergeCell ref="AQ76:BE76"/>
+    <mergeCell ref="AQ116:BE116"/>
+    <mergeCell ref="BK116:BL116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18467,8 +18467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817C05AA-D3A9-6049-AB59-84B5F03A5DC4}">
   <dimension ref="B1:BO154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="Q115" sqref="Q115"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L144" sqref="L144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30650,16 +30650,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="E82:AM82"/>
+    <mergeCell ref="E84:AM84"/>
+    <mergeCell ref="E95:M95"/>
+    <mergeCell ref="E136:I136"/>
+    <mergeCell ref="AS40:BG40"/>
     <mergeCell ref="BM40:BN40"/>
     <mergeCell ref="E42:F42"/>
     <mergeCell ref="AS42:BG42"/>
     <mergeCell ref="E59:AM59"/>
     <mergeCell ref="E61:AM61"/>
-    <mergeCell ref="E82:AM82"/>
-    <mergeCell ref="E84:AM84"/>
-    <mergeCell ref="E95:M95"/>
-    <mergeCell ref="E136:I136"/>
-    <mergeCell ref="AS40:BG40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/hM_trial.xlsx
+++ b/data/hM_trial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/erinschuman/Documents/github/MaterialExergyPaper/MaterialExergyPaper2025/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24755088-3794-BC48-805B-F4E0476B63FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B852C4-8C28-1240-8B69-104743B587D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="800" windowWidth="37700" windowHeight="23360" activeTab="2" xr2:uid="{60ED9AA8-3852-9842-B346-E2FD5CB3AA75}"/>
+    <workbookView xWindow="12100" yWindow="2360" windowWidth="37700" windowHeight="23360" activeTab="2" xr2:uid="{60ED9AA8-3852-9842-B346-E2FD5CB3AA75}"/>
   </bookViews>
   <sheets>
     <sheet name="h" sheetId="2" r:id="rId1"/>
@@ -1013,9 +1013,9 @@
       <sheetName val="Tables for Paper"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="42">
           <cell r="U42">
@@ -1208,15 +1208,15 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
